--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="426">
   <si>
     <t>Username</t>
   </si>
@@ -1313,6 +1313,15 @@
   </si>
   <si>
     <t>tkqa10122017</t>
+  </si>
+  <si>
+    <t>Tc_940174_UploadDocOf99MBValidateTY2016</t>
+  </si>
+  <si>
+    <t>Tc_940176_UploadDocOfAbove10MBValidateTY2016</t>
+  </si>
+  <si>
+    <t>Tc_940175_UploadDocOf10MBValidateTY2016</t>
   </si>
 </sst>
 </file>
@@ -2433,8 +2442,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,11 +2807,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE260"/>
+  <dimension ref="A1:BE263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B266" sqref="B266"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B263" sqref="B263:C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7953,6 +7962,39 @@
       </c>
       <c r="D260" s="8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="427">
   <si>
     <t>Username</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>Tc_940175_UploadDocOf10MBValidateTY2016</t>
+  </si>
+  <si>
+    <t>ms022316</t>
   </si>
 </sst>
 </file>
@@ -2810,8 +2813,8 @@
   <dimension ref="A1:BE263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B263" sqref="B263:C263"/>
+      <pane ySplit="2" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7830,8 +7833,8 @@
       <c r="A249" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B249" s="8" t="s">
-        <v>107</v>
+      <c r="B249" s="51" t="s">
+        <v>426</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>4</v>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="442">
   <si>
     <t>Username</t>
   </si>
@@ -1325,6 +1325,51 @@
   </si>
   <si>
     <t>ms022316</t>
+  </si>
+  <si>
+    <t>Tc_940177_UploadDocOf10MBValidateTY2015</t>
+  </si>
+  <si>
+    <t>Tc_940178_UploadDocOf10MBValidateTY2014</t>
+  </si>
+  <si>
+    <t>Tc_940179_UploadDocOf10MBValidateTY2013</t>
+  </si>
+  <si>
+    <t>Tc_940180_UploadDocOf10MBValidateTY2012</t>
+  </si>
+  <si>
+    <t>Tc_940181_UploadDocOf10MBValidateTY2011</t>
+  </si>
+  <si>
+    <t>Tc_940182_UploadDocOf10MBValidateTY2010</t>
+  </si>
+  <si>
+    <t>Tc_940198_UploadDocOf99MBValidateTY2016_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940199_UploadDocOf10MBValidateTY2016_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940200_UploadDocOfAbove10MBValidateTY2016_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940201_UploadDocOf10MBValidateTY2015_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940202_UploadDocOf10MBValidateTY2014_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940203_UploadDocOf10MBValidateTY2013_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940204_UploadDocOf10MBValidateTY2012_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940205_UploadDocOf10MBValidateTY2011_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_940206_UploadDocOf10MBValidateTY2010_DigitalUsr</t>
   </si>
 </sst>
 </file>
@@ -2810,11 +2855,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE263"/>
+  <dimension ref="A1:BE278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
+      <pane ySplit="2" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7971,32 +8016,197 @@
       <c r="A261" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>2</v>
+      <c r="B261" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B262" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>2</v>
+      <c r="B262" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B263" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C263" s="7" t="s">
+      <c r="B263" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="464">
   <si>
     <t>Username</t>
   </si>
@@ -1370,6 +1370,72 @@
   </si>
   <si>
     <t>Tc_940206_UploadDocOf10MBValidateTY2010_DigitalUsr</t>
+  </si>
+  <si>
+    <t>Tc_999741_ValidateUIofMyDocPage</t>
+  </si>
+  <si>
+    <t>Tc_999742_ValidateDropdownNavigationTo2016MyDocForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_999743_ValidateDropdownNavigationTo2015MyDocForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_999744_ValidateDropdownNavigationTo2014MyDocForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_999745_ValidateDropdownNavigationTo2013MyDocForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_999746_ValidateDropdownNavigationTo2012MyDocForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_999747_ValidateDropdownNavigationTo2011MyDocForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_999748_ValidateDropdownNavigationTo2016MyDocForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_999749_ValidateDropdownNavigationTo2015MyDocForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_999750_ValidateDropdownNavigationTo2014MyDocForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_999751_ValidateDropdownNavigationTo2013MyDocForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_999752_ValidateDropdownNavigationTo2012MyDocForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_999753_ValidateDropdownNavigationTo2011MyDocForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_999754_ValidateNavigationFrom2016To2011TyMyDocForRetailUsers</t>
+  </si>
+  <si>
+    <t>Tc_999755_ValidateNavigationFrom2011To2016TyMyDocForRetailUsers</t>
+  </si>
+  <si>
+    <t>Tc_999756_ValidateNavigationFrom2016To2011TyMyDocForDigitalUsers</t>
+  </si>
+  <si>
+    <t>Tc_999757_ValidateNavigationFrom2011To2016TyMyDocForDigitalUsers</t>
+  </si>
+  <si>
+    <t>Tc_999758_ValidateNavigationFrom2011To2016TyMyDocForProspUsers</t>
+  </si>
+  <si>
+    <t>Tc_999760_ValidateAvailabilityCarouselMyDocumentPage</t>
+  </si>
+  <si>
+    <t>Tc_999761_ValidateAvailability2010TyInMyDocumentForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_999762_ValidateAvailability2010TyInMyDocumentForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_999763_ValidateDefaultTaxYearMyDocuments</t>
   </si>
 </sst>
 </file>
@@ -2855,11 +2921,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE278"/>
+  <dimension ref="A1:BE300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
+      <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B296" sqref="B296:D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8207,6 +8273,251 @@
         <v>3</v>
       </c>
       <c r="C278" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B279" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B280" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B281" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B282" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B283" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B284" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B285" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B292" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B293" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B297" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B298" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="471">
   <si>
     <t>Username</t>
   </si>
@@ -1436,6 +1436,27 @@
   </si>
   <si>
     <t>Tc_999763_ValidateDefaultTaxYearMyDocuments</t>
+  </si>
+  <si>
+    <t>Tc_964826_VrfyPositionOfUpldDoc2016</t>
+  </si>
+  <si>
+    <t>Tc_964837_VrfyPositionOfUpldDoc2014</t>
+  </si>
+  <si>
+    <t>Tc_964838_VrfyPositionOfUpldDoc2013</t>
+  </si>
+  <si>
+    <t>Tc_964839_VrfyPositionOfUpldDoc2012</t>
+  </si>
+  <si>
+    <t>Tc_964840_VrfyPositionOfUpldDoc2011</t>
+  </si>
+  <si>
+    <t>Tc_964854_VrfyPositionOfUpldDoc2010</t>
+  </si>
+  <si>
+    <t>Tc_964827_VrfyPositionOfUpldDoc2015</t>
   </si>
 </sst>
 </file>
@@ -2921,11 +2942,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE300"/>
+  <dimension ref="A1:BE307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296:D296"/>
+      <selection pane="bottomLeft" activeCell="B301" sqref="B301:C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,6 +8540,83 @@
       </c>
       <c r="C300" s="6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B301" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B302" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B303" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B304" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B305" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B306" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B307" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -2946,7 +2946,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B301" sqref="B301:C307"/>
+      <selection pane="bottomLeft" activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="472">
   <si>
     <t>Username</t>
   </si>
@@ -1457,6 +1457,9 @@
   </si>
   <si>
     <t>Tc_964827_VrfyPositionOfUpldDoc2015</t>
+  </si>
+  <si>
+    <t>Tc_940184_ValidateUpld10MBjpgFile</t>
   </si>
 </sst>
 </file>
@@ -2577,8 +2580,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,11 +2945,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE307"/>
+  <dimension ref="A1:BE308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B306" sqref="B306"/>
+      <selection pane="bottomLeft" activeCell="B308" sqref="B308:C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8616,6 +8619,17 @@
         <v>372</v>
       </c>
       <c r="C307" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B308" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C308" s="8" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="531">
   <si>
     <t>Username</t>
   </si>
@@ -1460,6 +1460,183 @@
   </si>
   <si>
     <t>Tc_940184_ValidateUpld10MBjpgFile</t>
+  </si>
+  <si>
+    <t>Tc_940185_ValidateUpld10MBjpegFile</t>
+  </si>
+  <si>
+    <t>Tc_940186_ValidateUpld10MBpdfFile</t>
+  </si>
+  <si>
+    <t>Tc_940187_ValidateUpld10MBtxtFile</t>
+  </si>
+  <si>
+    <t>Tc_940188_ValidateUpld10MBpngFile</t>
+  </si>
+  <si>
+    <t>Tc_940189_ValidateUpld10MBtifFile</t>
+  </si>
+  <si>
+    <t>Tc_940190_ValidateUpld10MBtiffFile</t>
+  </si>
+  <si>
+    <t>Tc_940191_ValidateUpld10MBdocFile</t>
+  </si>
+  <si>
+    <t>Tc_940192_ValidateUpld10MBdocxFile</t>
+  </si>
+  <si>
+    <t>Tc_940193_ValidateUpld10MBxlsFile</t>
+  </si>
+  <si>
+    <t>Tc_940194_ValidateUpld10MBxlsxFile</t>
+  </si>
+  <si>
+    <t>Tc_940195_ValidateUpld10MBxpsFile</t>
+  </si>
+  <si>
+    <t>Tc_964856_VrfyPositionOfUpldDocDragDrop2016</t>
+  </si>
+  <si>
+    <t>Tc_964860_VrfyPositionOfUpldDocDragDrop2015</t>
+  </si>
+  <si>
+    <t>Tc_964861_VrfyPositionOfUpldDocDragDrop2014</t>
+  </si>
+  <si>
+    <t>Tc_964862_VrfyPositionOfUpldDocDragDrop2013</t>
+  </si>
+  <si>
+    <t>Tc_964863_VrfyPositionOfUpldDocDragDrop2012</t>
+  </si>
+  <si>
+    <t>Tc_964864_VrfyPositionOfUpldDocDragDrop2011</t>
+  </si>
+  <si>
+    <t>Tc_964865_VrfyPositionOfUpldDocDragDrop2010</t>
+  </si>
+  <si>
+    <t>Tc_1012370_ValidateDfltYearForUserNotFiled2016FrmGlobaNvgtn</t>
+  </si>
+  <si>
+    <t>Tc_1012371_ValidateDfltYearForUserNotFiled2016FrmFooter</t>
+  </si>
+  <si>
+    <t>TC_780573_ValidateEditfunctionalityforCPuser</t>
+  </si>
+  <si>
+    <t>pradeep.dhanapathy@hrblock.com</t>
+  </si>
+  <si>
+    <t>TC_780579_ValidateEditfunctionalityforIDPuser</t>
+  </si>
+  <si>
+    <t>TC_819373_ValidateErrorMessageWhenMDMdown</t>
+  </si>
+  <si>
+    <t>TC_1013803_POM_UI_LandlingPage</t>
+  </si>
+  <si>
+    <t>TC_1013805_POM_Navigation_Global</t>
+  </si>
+  <si>
+    <t>TC_1013806_POM_Navigation_Footer</t>
+  </si>
+  <si>
+    <t>TC_1013808_POM_Navigation_PageHeader</t>
+  </si>
+  <si>
+    <t>TC_1013811_POM_Content</t>
+  </si>
+  <si>
+    <t>TC_1013812_POM_LinkValidation</t>
+  </si>
+  <si>
+    <t>TC_1013815_POM_TPBioPage</t>
+  </si>
+  <si>
+    <t>TC_1013816_POM_withFindAnOffice</t>
+  </si>
+  <si>
+    <t>TC_1013820_POM_withFindAnOfficeBehavior</t>
+  </si>
+  <si>
+    <t>TC_1013822_POM_ContentAM</t>
+  </si>
+  <si>
+    <t>TC_939368_IDPSucessMessageforRetailUserthroughDashboard</t>
+  </si>
+  <si>
+    <t>TC_939369_IDPSucessMessageforRetailUsersFromMD</t>
+  </si>
+  <si>
+    <t>TC_939370_IDPSucessMessageforRetailUsersFromTH</t>
+  </si>
+  <si>
+    <t>TC_939371_IDPSucessMessageforDigitalUsersFromMD</t>
+  </si>
+  <si>
+    <t>dpqaio06900</t>
+  </si>
+  <si>
+    <t>TC_939372_IDPSucessMessageforDigitalUsersFromTH</t>
+  </si>
+  <si>
+    <t>dpqaIO09010</t>
+  </si>
+  <si>
+    <t>TC_996706_ValidateTCXURLfornewUser</t>
+  </si>
+  <si>
+    <t>TC_996707_ValidateTCXURLforRetailUserHeaderFromProd_Services</t>
+  </si>
+  <si>
+    <t>TC_996708_ValidateTCXURLforRetailUserFooterFromProd_Services</t>
+  </si>
+  <si>
+    <t>TC_996709_ValidateTCXURLforSWUserHeaderFromProd_Services</t>
+  </si>
+  <si>
+    <t>TC_996710_ValidateTCXURLforSWUserFooterFromProd_Services</t>
+  </si>
+  <si>
+    <t>TC_996711_ValidateTCXURLforDigitalUserHeaderFromProd_Services</t>
+  </si>
+  <si>
+    <t>TC_996712_ValidateTCXURLforDigitalUserFooterFromProd_Services2</t>
+  </si>
+  <si>
+    <t>TC_996714_ValidateTCXURLforDigitalContinue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpqa09071 </t>
+  </si>
+  <si>
+    <t>TC_996717_ValidateTCXURLforAOLUserHeaderFromProd_Services</t>
+  </si>
+  <si>
+    <t>TC_996718_ValidateTCXURLforAOLUserFooterFromProd_Services</t>
+  </si>
+  <si>
+    <t>TC_911253_AvailabilityOfReturnLink</t>
+  </si>
+  <si>
+    <t>1qa11082016</t>
+  </si>
+  <si>
+    <t>TC_911254_BehaviorOfReturnLink</t>
+  </si>
+  <si>
+    <t>TC_911255_DocumentReturnType</t>
+  </si>
+  <si>
+    <t>TC_911256_AvailabilityOfReturnLink2016_2015</t>
+  </si>
+  <si>
+    <t>TC_911257_AvailabilityOfReturnLink2013_2011</t>
+  </si>
+  <si>
+    <t>TC_999081_TextDisplayedForDigitalUser</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +2034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1872,25 +2049,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1905,7 +2069,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1927,9 +2090,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1948,6 +2108,25 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2580,7 +2759,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -2595,322 +2774,322 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="45"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="46"/>
+      <c r="C4" s="35"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="45"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="47"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="45"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="47"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="45"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="47"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="45"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="47"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="45"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="47"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="3:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="C10" s="45"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="52" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="47"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="45"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="47"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="45"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="47"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="45"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="47"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="45"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="55" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="28" t="s">
+      <c r="G14" s="44"/>
+      <c r="H14" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="47"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="47"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="3:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="45"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="55" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="28" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="47"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="45"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="47"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="45"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="47"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="45"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="47"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="45"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="47"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="45"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="47"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="45"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="47"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="45"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="41" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="47"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="45"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2945,11 +3124,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE308"/>
+  <dimension ref="A1:BE362"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B308" sqref="B308:C308"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,186 +3142,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:57" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:57" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AD2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AG2" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AK2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AL2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AN2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="33" t="s">
+      <c r="AO2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AP2" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AR2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AS2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="AT2" s="33" t="s">
+      <c r="AT2" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AU2" s="33" t="s">
+      <c r="AU2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AV2" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AW2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="AX2" s="33" t="s">
+      <c r="AX2" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="AY2" s="33" t="s">
+      <c r="AY2" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="AZ2" s="33" t="s">
+      <c r="AZ2" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="BA2" s="33" t="s">
+      <c r="BA2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="BB2" s="33" t="s">
+      <c r="BB2" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="BC2" s="33" t="s">
+      <c r="BC2" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="BD2" s="33" t="s">
+      <c r="BD2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="BE2" s="33" t="s">
+      <c r="BE2" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3326,7 +3505,7 @@
       <c r="AM7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AN7" s="8" t="s">
+      <c r="AN7" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3453,21 +3632,21 @@
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3475,10 +3654,10 @@
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3486,10 +3665,10 @@
       <c r="A12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3497,10 +3676,10 @@
       <c r="A13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3508,10 +3687,10 @@
       <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3519,10 +3698,10 @@
       <c r="A15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -3533,10 +3712,10 @@
       <c r="A16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -3547,10 +3726,10 @@
       <c r="A17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3561,10 +3740,10 @@
       <c r="A18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3572,10 +3751,10 @@
       <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3583,10 +3762,10 @@
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3594,10 +3773,10 @@
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -3608,10 +3787,10 @@
       <c r="A22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3619,10 +3798,10 @@
       <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3630,10 +3809,10 @@
       <c r="A24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3641,15 +3820,15 @@
       <c r="A25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3660,10 +3839,10 @@
       </c>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3671,13 +3850,13 @@
       </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3844,13 +4023,13 @@
       </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>141</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -4017,13 +4196,13 @@
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -4190,13 +4369,13 @@
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -4363,13 +4542,13 @@
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -4536,13 +4715,13 @@
       </c>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -4709,13 +4888,13 @@
       </c>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -4882,13 +5061,13 @@
       </c>
     </row>
     <row r="35" spans="1:57" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -5055,13 +5234,13 @@
       </c>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -5228,7 +5407,7 @@
       </c>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5401,13 +5580,13 @@
       </c>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -5580,7 +5759,7 @@
       <c r="B39" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5588,10 +5767,10 @@
       <c r="A40" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5602,7 +5781,7 @@
       <c r="B41" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5624,7 +5803,7 @@
       <c r="B43" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5632,10 +5811,10 @@
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5654,10 +5833,10 @@
       <c r="A46" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5712,7 +5891,7 @@
       <c r="B51" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -5723,10 +5902,10 @@
       <c r="A52" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5734,10 +5913,10 @@
       <c r="A53" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5745,10 +5924,10 @@
       <c r="A54" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5756,10 +5935,10 @@
       <c r="A55" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5767,10 +5946,10 @@
       <c r="A56" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6118,10 +6297,10 @@
       <c r="A83" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6129,10 +6308,10 @@
       <c r="A84" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6140,10 +6319,10 @@
       <c r="A85" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6151,10 +6330,10 @@
       <c r="A86" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6162,10 +6341,10 @@
       <c r="A87" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6173,10 +6352,10 @@
       <c r="A88" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6184,10 +6363,10 @@
       <c r="A89" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6324,13 +6503,13 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6341,7 +6520,7 @@
       <c r="B103" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6352,7 +6531,7 @@
       <c r="B104" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6363,7 +6542,7 @@
       <c r="B105" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6374,7 +6553,7 @@
       <c r="B106" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6385,7 +6564,7 @@
       <c r="B107" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6470,10 +6649,10 @@
       <c r="A115" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6481,10 +6660,10 @@
       <c r="A116" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6550,10 +6729,10 @@
       <c r="A122" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6572,10 +6751,10 @@
       <c r="A124" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6583,10 +6762,10 @@
       <c r="A125" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6594,10 +6773,10 @@
       <c r="A126" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6627,10 +6806,10 @@
       <c r="A129" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6638,10 +6817,10 @@
       <c r="A130" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6713,7 +6892,7 @@
       <c r="A136" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -6724,7 +6903,7 @@
       <c r="A137" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="48" t="s">
         <v>268</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -6749,21 +6928,21 @@
       <c r="A139" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6771,10 +6950,10 @@
       <c r="A141" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6782,10 +6961,10 @@
       <c r="A142" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6793,10 +6972,10 @@
       <c r="A143" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6807,7 +6986,7 @@
       <c r="B144" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6818,7 +6997,7 @@
       <c r="B145" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6829,7 +7008,7 @@
       <c r="B146" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6840,7 +7019,7 @@
       <c r="B147" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6851,7 +7030,7 @@
       <c r="B148" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6862,7 +7041,7 @@
       <c r="B149" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6884,7 +7063,7 @@
       <c r="B151" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6895,7 +7074,7 @@
       <c r="B152" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6906,7 +7085,7 @@
       <c r="B153" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6917,7 +7096,7 @@
       <c r="B154" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6953,10 +7132,10 @@
       <c r="A157" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6967,7 +7146,7 @@
       <c r="B158" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6978,7 +7157,7 @@
       <c r="B159" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6989,7 +7168,7 @@
       <c r="B160" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7000,7 +7179,7 @@
       <c r="B161" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7011,7 +7190,7 @@
       <c r="B162" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7022,7 +7201,7 @@
       <c r="B163" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7033,7 +7212,7 @@
       <c r="B164" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7044,7 +7223,7 @@
       <c r="B165" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7055,7 +7234,7 @@
       <c r="B166" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7066,7 +7245,7 @@
       <c r="B167" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7074,10 +7253,10 @@
       <c r="A168" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7085,10 +7264,10 @@
       <c r="A169" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7096,10 +7275,10 @@
       <c r="A170" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7107,10 +7286,10 @@
       <c r="A171" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7118,10 +7297,10 @@
       <c r="A172" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7132,10 +7311,10 @@
       <c r="B173" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="8" t="s">
+      <c r="C173" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7146,7 +7325,7 @@
       <c r="B174" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7157,7 +7336,7 @@
       <c r="B175" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7168,7 +7347,7 @@
       <c r="B176" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7179,7 +7358,7 @@
       <c r="B177" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7190,7 +7369,7 @@
       <c r="B178" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7201,7 +7380,7 @@
       <c r="B179" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7212,7 +7391,7 @@
       <c r="B180" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7223,7 +7402,7 @@
       <c r="B181" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7234,7 +7413,7 @@
       <c r="B182" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7245,7 +7424,7 @@
       <c r="B183" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7256,7 +7435,7 @@
       <c r="B184" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7267,7 +7446,7 @@
       <c r="B185" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7278,7 +7457,7 @@
       <c r="B186" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7289,7 +7468,7 @@
       <c r="B187" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7300,7 +7479,7 @@
       <c r="B188" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7311,7 +7490,7 @@
       <c r="B189" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7322,7 +7501,7 @@
       <c r="B190" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7333,7 +7512,7 @@
       <c r="B191" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7344,7 +7523,7 @@
       <c r="B192" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7355,7 +7534,7 @@
       <c r="B193" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7366,7 +7545,7 @@
       <c r="B194" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7377,7 +7556,7 @@
       <c r="B195" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7388,7 +7567,7 @@
       <c r="B196" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7399,7 +7578,7 @@
       <c r="B197" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7410,7 +7589,7 @@
       <c r="B198" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7547,7 +7726,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>363</v>
       </c>
       <c r="B211" s="7" t="s">
@@ -7561,10 +7740,10 @@
       <c r="A212" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B212" s="51" t="s">
+      <c r="B212" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7572,10 +7751,10 @@
       <c r="A213" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B213" s="51" t="s">
+      <c r="B213" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7583,10 +7762,10 @@
       <c r="A214" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7594,10 +7773,10 @@
       <c r="A215" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7605,10 +7784,10 @@
       <c r="A216" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B216" s="51" t="s">
+      <c r="B216" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7616,10 +7795,10 @@
       <c r="A217" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B217" s="51" t="s">
+      <c r="B217" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7693,10 +7872,10 @@
       <c r="A224" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7715,10 +7894,10 @@
       <c r="A226" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B226" s="51" t="s">
+      <c r="B226" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7913,10 +8092,10 @@
       <c r="A244" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7924,10 +8103,10 @@
       <c r="A245" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7957,10 +8136,10 @@
       <c r="A248" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B248" s="51" t="s">
+      <c r="B248" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7968,10 +8147,10 @@
       <c r="A249" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B249" s="51" t="s">
+      <c r="B249" s="54" t="s">
         <v>426</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7979,10 +8158,10 @@
       <c r="A250" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8012,10 +8191,10 @@
       <c r="A253" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B253" s="51" t="s">
+      <c r="B253" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C253" s="8" t="s">
+      <c r="C253" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8023,10 +8202,10 @@
       <c r="A254" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B254" s="51" t="s">
+      <c r="B254" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8034,10 +8213,10 @@
       <c r="A255" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8045,10 +8224,10 @@
       <c r="A256" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8081,10 +8260,10 @@
       <c r="B259" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C259" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D259" s="8" t="s">
+      <c r="C259" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8095,10 +8274,10 @@
       <c r="B260" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C260" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D260" s="8" t="s">
+      <c r="C260" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8106,10 +8285,10 @@
       <c r="A261" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8117,10 +8296,10 @@
       <c r="A262" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8128,10 +8307,10 @@
       <c r="A263" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8139,10 +8318,10 @@
       <c r="A264" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8150,10 +8329,10 @@
       <c r="A265" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8161,10 +8340,10 @@
       <c r="A266" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8172,10 +8351,10 @@
       <c r="A267" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8183,10 +8362,10 @@
       <c r="A268" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8194,10 +8373,10 @@
       <c r="A269" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8304,10 +8483,10 @@
       <c r="A279" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B279" s="51" t="s">
+      <c r="B279" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8315,10 +8494,10 @@
       <c r="A280" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B280" s="51" t="s">
+      <c r="B280" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8326,10 +8505,10 @@
       <c r="A281" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B281" s="51" t="s">
+      <c r="B281" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8337,10 +8516,10 @@
       <c r="A282" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B282" s="51" t="s">
+      <c r="B282" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8348,10 +8527,10 @@
       <c r="A283" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B283" s="51" t="s">
+      <c r="B283" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8359,10 +8538,10 @@
       <c r="A284" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B284" s="51" t="s">
+      <c r="B284" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8370,10 +8549,10 @@
       <c r="A285" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B285" s="51" t="s">
+      <c r="B285" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8447,10 +8626,10 @@
       <c r="A292" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B292" s="51" t="s">
+      <c r="B292" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8458,10 +8637,10 @@
       <c r="A293" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B293" s="51" t="s">
+      <c r="B293" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8494,10 +8673,10 @@
       <c r="B296" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C296" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D296" s="8" t="s">
+      <c r="C296" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8505,10 +8684,10 @@
       <c r="A297" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B297" s="51" t="s">
+      <c r="B297" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8516,10 +8695,10 @@
       <c r="A298" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B298" s="51" t="s">
+      <c r="B298" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8549,10 +8728,10 @@
       <c r="A301" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B301" s="51" t="s">
+      <c r="B301" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8560,10 +8739,10 @@
       <c r="A302" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B302" s="51" t="s">
+      <c r="B302" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C302" s="8" t="s">
+      <c r="C302" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8571,10 +8750,10 @@
       <c r="A303" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B303" s="51" t="s">
+      <c r="B303" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8582,10 +8761,10 @@
       <c r="A304" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B304" s="51" t="s">
+      <c r="B304" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8593,10 +8772,10 @@
       <c r="A305" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B305" s="51" t="s">
+      <c r="B305" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8604,10 +8783,10 @@
       <c r="A306" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B306" s="51" t="s">
+      <c r="B306" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8615,10 +8794,10 @@
       <c r="A307" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B307" s="51" t="s">
+      <c r="B307" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8626,10 +8805,1654 @@
       <c r="A308" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B308" s="51" t="s">
+      <c r="B308" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B309" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B310" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B311" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B312" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B313" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B314" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B315" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B316" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B317" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B318" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B319" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A321" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A322" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A328" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="55" t="s">
+        <v>492</v>
+      </c>
+      <c r="B329" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C329" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="E329" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F329" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G329" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H329" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="N329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="O329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="R329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="S329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="T329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="U329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="V329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="W329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="X329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK329" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL329" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM329" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN329" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO329" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP329" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ329" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR329" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS329" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT329" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU329" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV329" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW329" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX329" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY329" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ329" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA329" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB329" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC329" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD329" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE329" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="330" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="55" t="s">
+        <v>494</v>
+      </c>
+      <c r="B330" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C330" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="E330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="N330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="O330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="R330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="S330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="T330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="U330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="V330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="W330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="X330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN330" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO330" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP330" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ330" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR330" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS330" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT330" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU330" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV330" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW330" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX330" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY330" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ330" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA330" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB330" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC330" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD330" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE330" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="331" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="55" t="s">
+        <v>495</v>
+      </c>
+      <c r="B331" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C331" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="E331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="N331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="O331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="R331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="S331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="T331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="U331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="V331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="W331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="X331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN331" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO331" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP331" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ331" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR331" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS331" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT331" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU331" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV331" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW331" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX331" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY331" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ331" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA331" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB331" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC331" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD331" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE331" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="332" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A332" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="B332" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C332" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A333" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="B333" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C333" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A334" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="B334" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C334" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A335" s="56" t="s">
+        <v>499</v>
+      </c>
+      <c r="B335" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C335" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A336" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B336" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C336" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A337" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="B337" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C337" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A338" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="B338" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C338" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A339" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="B339" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C339" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A340" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="B340" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C340" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A341" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B341" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C341" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="B342" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C342" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E342" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F342" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G342" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H342" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I342" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J342" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K342" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M342" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O342" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q342" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="R342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S342" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T342" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U342" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="V342" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W342" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="X342" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y342" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA342" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC342" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE342" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF342" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG342" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH342" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI342" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ342" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK342" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL342" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM342" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN342" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="343" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="56" t="s">
+        <v>507</v>
+      </c>
+      <c r="B343" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C343" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F343" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G343" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H343" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I343" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J343" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K343" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M343" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O343" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q343" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="R343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S343" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T343" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U343" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="V343" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W343" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="X343" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y343" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA343" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC343" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE343" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF343" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG343" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH343" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI343" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ343" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK343" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL343" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM343" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN343" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="344" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="B344" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C344" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E344" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F344" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G344" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H344" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I344" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J344" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K344" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M344" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O344" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q344" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="R344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S344" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T344" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U344" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="V344" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W344" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="X344" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y344" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA344" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC344" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE344" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF344" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG344" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH344" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI344" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ344" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK344" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL344" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM344" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN344" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="345" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="B345" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="C345" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D345" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E345" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F345" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G345" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H345" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I345" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J345" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K345" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M345" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O345" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q345" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="R345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S345" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T345" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U345" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="V345" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W345" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="X345" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y345" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA345" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC345" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE345" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF345" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG345" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH345" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI345" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ345" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK345" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL345" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM345" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN345" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="346" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="B346" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="C346" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D346" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E346" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F346" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G346" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H346" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I346" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J346" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K346" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M346" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O346" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q346" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="R346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="S346" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T346" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="U346" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="V346" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W346" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="X346" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y346" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA346" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC346" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE346" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF346" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG346" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH346" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI346" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ346" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK346" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL346" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM346" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN346" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="347" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="56" t="s">
+        <v>513</v>
+      </c>
+      <c r="B347" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C347" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D347" s="57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="348" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="B348" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C348" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="55" t="s">
+        <v>515</v>
+      </c>
+      <c r="B349" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C349" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="B350" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C350" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="55" t="s">
+        <v>517</v>
+      </c>
+      <c r="B351" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C351" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:40" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A352" s="55" t="s">
+        <v>518</v>
+      </c>
+      <c r="B352" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C352" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A353" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="B353" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C353" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="B354" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="C354" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="B355" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C355" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="55" t="s">
+        <v>523</v>
+      </c>
+      <c r="B356" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C356" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="B357" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C357" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="B358" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C358" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="B359" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C359" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="56" t="s">
+        <v>528</v>
+      </c>
+      <c r="B360" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C360" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="B361" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C361" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="B362" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="C362" s="56" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8642,12 +10465,24 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Sheet2!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AV28:AV38 BE28:BE38 AT28:AT38 AZ28:AZ38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>BE329:BE331 AV329:AV331</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>AZ329:AZ331 AT329:AT331</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8733,7 +10568,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="30" t="s">
         <v>367</v>
       </c>
       <c r="B9" s="2"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="535">
   <si>
     <t>Username</t>
   </si>
@@ -1637,6 +1637,18 @@
   </si>
   <si>
     <t>TC_999081_TextDisplayedForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_922928_ValidateSubCategoryUnderIncomeCategory</t>
+  </si>
+  <si>
+    <t>Tc_922953_ValidateSubCategoryUnderDeductionCategory</t>
+  </si>
+  <si>
+    <t>Tc_930742_ValidateTopLevelCatgoryForIncome</t>
+  </si>
+  <si>
+    <t>Tc_930743_ValidateTopLevelCatgoryForDeductions</t>
   </si>
 </sst>
 </file>
@@ -2090,24 +2102,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2127,6 +2121,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2873,13 +2885,13 @@
       <c r="C10" s="35"/>
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="27"/>
@@ -2931,10 +2943,10 @@
       <c r="C14" s="35"/>
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="19" t="s">
         <v>333</v>
       </c>
@@ -2963,10 +2975,10 @@
       <c r="C16" s="35"/>
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="19" t="s">
         <v>366</v>
       </c>
@@ -3124,11 +3136,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE362"/>
+  <dimension ref="A1:BE366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B362" sqref="B362"/>
+      <selection pane="bottomLeft" activeCell="B366" sqref="B366:C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,10 +3154,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -3820,7 +3832,7 @@
       <c r="A25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3842,7 +3854,7 @@
       <c r="A27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5064,7 +5076,7 @@
       <c r="A35" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -5237,7 +5249,7 @@
       <c r="A36" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="44" t="s">
         <v>150</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -5767,7 +5779,7 @@
       <c r="A40" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5811,7 +5823,7 @@
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="43" t="s">
         <v>148</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -5833,7 +5845,7 @@
       <c r="A46" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="44" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -5924,7 +5936,7 @@
       <c r="A54" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="45" t="s">
         <v>175</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -5935,7 +5947,7 @@
       <c r="A55" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="45" t="s">
         <v>175</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -5946,7 +5958,7 @@
       <c r="A56" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="45" t="s">
         <v>175</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -6363,7 +6375,7 @@
       <c r="A89" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="45" t="s">
         <v>269</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -6762,7 +6774,7 @@
       <c r="A125" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -6892,7 +6904,7 @@
       <c r="A136" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B136" s="48" t="s">
+      <c r="B136" s="42" t="s">
         <v>86</v>
       </c>
       <c r="C136" s="7" t="s">
@@ -6903,7 +6915,7 @@
       <c r="A137" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="42" t="s">
         <v>268</v>
       </c>
       <c r="C137" s="7" t="s">
@@ -6961,7 +6973,7 @@
       <c r="A142" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B142" s="47" t="s">
+      <c r="B142" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -6972,7 +6984,7 @@
       <c r="A143" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="45" t="s">
         <v>175</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -7253,7 +7265,7 @@
       <c r="A168" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B168" s="52" t="s">
+      <c r="B168" s="46" t="s">
         <v>312</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -7264,7 +7276,7 @@
       <c r="A169" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B169" s="53" t="s">
+      <c r="B169" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -7275,7 +7287,7 @@
       <c r="A170" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B170" s="53" t="s">
+      <c r="B170" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -7286,7 +7298,7 @@
       <c r="A171" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B171" s="53" t="s">
+      <c r="B171" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -7297,7 +7309,7 @@
       <c r="A172" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B172" s="53" t="s">
+      <c r="B172" s="47" t="s">
         <v>311</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -7740,7 +7752,7 @@
       <c r="A212" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B212" s="54" t="s">
+      <c r="B212" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C212" s="7" t="s">
@@ -7751,7 +7763,7 @@
       <c r="A213" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B213" s="54" t="s">
+      <c r="B213" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C213" s="7" t="s">
@@ -7762,7 +7774,7 @@
       <c r="A214" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B214" s="54" t="s">
+      <c r="B214" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C214" s="7" t="s">
@@ -7773,7 +7785,7 @@
       <c r="A215" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B215" s="54" t="s">
+      <c r="B215" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C215" s="7" t="s">
@@ -7784,7 +7796,7 @@
       <c r="A216" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B216" s="54" t="s">
+      <c r="B216" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C216" s="7" t="s">
@@ -7795,7 +7807,7 @@
       <c r="A217" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B217" s="54" t="s">
+      <c r="B217" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C217" s="7" t="s">
@@ -7872,7 +7884,7 @@
       <c r="A224" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B224" s="54" t="s">
+      <c r="B224" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C224" s="7" t="s">
@@ -7894,7 +7906,7 @@
       <c r="A226" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B226" s="54" t="s">
+      <c r="B226" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C226" s="7" t="s">
@@ -8103,7 +8115,7 @@
       <c r="A245" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B245" s="47" t="s">
+      <c r="B245" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C245" s="7" t="s">
@@ -8136,7 +8148,7 @@
       <c r="A248" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B248" s="54" t="s">
+      <c r="B248" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C248" s="7" t="s">
@@ -8147,7 +8159,7 @@
       <c r="A249" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B249" s="54" t="s">
+      <c r="B249" s="48" t="s">
         <v>426</v>
       </c>
       <c r="C249" s="7" t="s">
@@ -8158,7 +8170,7 @@
       <c r="A250" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B250" s="47" t="s">
+      <c r="B250" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C250" s="7" t="s">
@@ -8191,7 +8203,7 @@
       <c r="A253" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B253" s="54" t="s">
+      <c r="B253" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C253" s="7" t="s">
@@ -8202,7 +8214,7 @@
       <c r="A254" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B254" s="54" t="s">
+      <c r="B254" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C254" s="7" t="s">
@@ -8224,7 +8236,7 @@
       <c r="A256" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B256" s="47" t="s">
+      <c r="B256" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C256" s="7" t="s">
@@ -8483,7 +8495,7 @@
       <c r="A279" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B279" s="54" t="s">
+      <c r="B279" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C279" s="7" t="s">
@@ -8494,7 +8506,7 @@
       <c r="A280" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B280" s="54" t="s">
+      <c r="B280" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C280" s="7" t="s">
@@ -8505,7 +8517,7 @@
       <c r="A281" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B281" s="54" t="s">
+      <c r="B281" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C281" s="7" t="s">
@@ -8516,7 +8528,7 @@
       <c r="A282" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B282" s="54" t="s">
+      <c r="B282" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C282" s="7" t="s">
@@ -8527,7 +8539,7 @@
       <c r="A283" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B283" s="54" t="s">
+      <c r="B283" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C283" s="7" t="s">
@@ -8538,7 +8550,7 @@
       <c r="A284" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B284" s="54" t="s">
+      <c r="B284" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C284" s="7" t="s">
@@ -8549,7 +8561,7 @@
       <c r="A285" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B285" s="54" t="s">
+      <c r="B285" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C285" s="7" t="s">
@@ -8626,7 +8638,7 @@
       <c r="A292" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B292" s="54" t="s">
+      <c r="B292" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C292" s="7" t="s">
@@ -8637,7 +8649,7 @@
       <c r="A293" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B293" s="54" t="s">
+      <c r="B293" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C293" s="7" t="s">
@@ -8684,7 +8696,7 @@
       <c r="A297" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B297" s="54" t="s">
+      <c r="B297" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C297" s="7" t="s">
@@ -8695,7 +8707,7 @@
       <c r="A298" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B298" s="54" t="s">
+      <c r="B298" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C298" s="7" t="s">
@@ -8728,7 +8740,7 @@
       <c r="A301" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B301" s="54" t="s">
+      <c r="B301" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C301" s="7" t="s">
@@ -8739,7 +8751,7 @@
       <c r="A302" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B302" s="54" t="s">
+      <c r="B302" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C302" s="7" t="s">
@@ -8750,7 +8762,7 @@
       <c r="A303" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B303" s="54" t="s">
+      <c r="B303" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C303" s="7" t="s">
@@ -8761,7 +8773,7 @@
       <c r="A304" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B304" s="54" t="s">
+      <c r="B304" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C304" s="7" t="s">
@@ -8772,7 +8784,7 @@
       <c r="A305" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B305" s="54" t="s">
+      <c r="B305" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C305" s="7" t="s">
@@ -8783,7 +8795,7 @@
       <c r="A306" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B306" s="54" t="s">
+      <c r="B306" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C306" s="7" t="s">
@@ -8794,7 +8806,7 @@
       <c r="A307" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B307" s="54" t="s">
+      <c r="B307" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C307" s="7" t="s">
@@ -8805,7 +8817,7 @@
       <c r="A308" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B308" s="54" t="s">
+      <c r="B308" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C308" s="7" t="s">
@@ -8816,7 +8828,7 @@
       <c r="A309" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B309" s="54" t="s">
+      <c r="B309" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C309" s="7" t="s">
@@ -8827,7 +8839,7 @@
       <c r="A310" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B310" s="54" t="s">
+      <c r="B310" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C310" s="7" t="s">
@@ -8838,7 +8850,7 @@
       <c r="A311" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B311" s="54" t="s">
+      <c r="B311" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C311" s="7" t="s">
@@ -8849,7 +8861,7 @@
       <c r="A312" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B312" s="54" t="s">
+      <c r="B312" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C312" s="7" t="s">
@@ -8860,7 +8872,7 @@
       <c r="A313" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B313" s="54" t="s">
+      <c r="B313" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C313" s="7" t="s">
@@ -8871,7 +8883,7 @@
       <c r="A314" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B314" s="54" t="s">
+      <c r="B314" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C314" s="7" t="s">
@@ -8882,7 +8894,7 @@
       <c r="A315" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B315" s="54" t="s">
+      <c r="B315" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C315" s="7" t="s">
@@ -8893,7 +8905,7 @@
       <c r="A316" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B316" s="54" t="s">
+      <c r="B316" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C316" s="7" t="s">
@@ -8904,7 +8916,7 @@
       <c r="A317" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B317" s="54" t="s">
+      <c r="B317" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C317" s="7" t="s">
@@ -8915,7 +8927,7 @@
       <c r="A318" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B318" s="54" t="s">
+      <c r="B318" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C318" s="7" t="s">
@@ -8926,7 +8938,7 @@
       <c r="A319" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B319" s="54" t="s">
+      <c r="B319" s="48" t="s">
         <v>372</v>
       </c>
       <c r="C319" s="7" t="s">
@@ -9038,1422 +9050,1466 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="55" t="s">
+    <row r="329" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="49" t="s">
         <v>492</v>
       </c>
-      <c r="B329" s="56" t="s">
+      <c r="B329" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C329" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" s="57" t="s">
+      <c r="C329" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="E329" s="56" t="s">
+      <c r="E329" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F329" s="56" t="s">
+      <c r="F329" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G329" s="56" t="s">
+      <c r="G329" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="H329" s="56" t="s">
+      <c r="H329" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="I329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="J329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="L329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="M329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="N329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="O329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="P329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="R329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="S329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="T329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="U329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="V329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="W329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="X329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK329" s="56" t="s">
+      <c r="I329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="K329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="M329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="N329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="O329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="R329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="T329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="V329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="W329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="X329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK329" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="AL329" s="56" t="s">
+      <c r="AL329" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AM329" s="56" t="s">
+      <c r="AM329" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="AN329" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO329" s="56" t="s">
+      <c r="AN329" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO329" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AP329" s="56" t="s">
+      <c r="AP329" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AQ329" s="56" t="s">
+      <c r="AQ329" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR329" s="56" t="s">
+      <c r="AR329" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AS329" s="56" t="s">
+      <c r="AS329" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AT329" s="56" t="s">
+      <c r="AT329" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AU329" s="56" t="s">
+      <c r="AU329" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AV329" s="56" t="s">
+      <c r="AV329" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AW329" s="56" t="s">
+      <c r="AW329" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AX329" s="56" t="s">
+      <c r="AX329" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AY329" s="56" t="s">
+      <c r="AY329" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AZ329" s="56" t="s">
+      <c r="AZ329" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="BA329" s="56" t="s">
+      <c r="BA329" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="BB329" s="56" t="s">
+      <c r="BB329" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="BC329" s="56" t="s">
+      <c r="BC329" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="BD329" s="56" t="s">
+      <c r="BD329" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="BE329" s="56" t="s">
+      <c r="BE329" s="50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="330" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="55" t="s">
+    <row r="330" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="B330" s="56" t="s">
+      <c r="B330" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C330" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D330" s="57" t="s">
+      <c r="C330" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="E330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="I330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="J330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="L330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="M330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="N330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="O330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="P330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="R330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="S330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="T330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="U330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="V330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="W330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="X330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN330" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO330" s="56" t="s">
+      <c r="E330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="K330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="M330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="N330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="O330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="R330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="T330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="V330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="W330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="X330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN330" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO330" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AP330" s="56" t="s">
+      <c r="AP330" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AQ330" s="56" t="s">
+      <c r="AQ330" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR330" s="56" t="s">
+      <c r="AR330" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AS330" s="56" t="s">
+      <c r="AS330" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AT330" s="56" t="s">
+      <c r="AT330" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AU330" s="56" t="s">
+      <c r="AU330" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AV330" s="56" t="s">
+      <c r="AV330" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AW330" s="56" t="s">
+      <c r="AW330" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AX330" s="56" t="s">
+      <c r="AX330" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AY330" s="56" t="s">
+      <c r="AY330" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AZ330" s="56" t="s">
+      <c r="AZ330" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="BA330" s="56" t="s">
+      <c r="BA330" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="BB330" s="56" t="s">
+      <c r="BB330" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="BC330" s="56" t="s">
+      <c r="BC330" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="BD330" s="56" t="s">
+      <c r="BD330" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="BE330" s="56" t="s">
+      <c r="BE330" s="50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="331" spans="1:57" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="55" t="s">
+    <row r="331" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="B331" s="56" t="s">
+      <c r="B331" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C331" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D331" s="57" t="s">
+      <c r="C331" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="E331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="F331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="I331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="J331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="L331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="M331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="N331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="O331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="P331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="R331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="S331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="T331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="U331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="V331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="W331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="X331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN331" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO331" s="56" t="s">
+      <c r="E331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="K331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="M331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="N331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="O331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="R331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="T331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="V331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="W331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="X331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN331" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO331" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AP331" s="56" t="s">
+      <c r="AP331" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AQ331" s="56" t="s">
+      <c r="AQ331" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR331" s="56" t="s">
+      <c r="AR331" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AS331" s="56" t="s">
+      <c r="AS331" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AT331" s="56" t="s">
+      <c r="AT331" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AU331" s="56" t="s">
+      <c r="AU331" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AV331" s="56" t="s">
+      <c r="AV331" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AW331" s="56" t="s">
+      <c r="AW331" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AX331" s="56" t="s">
+      <c r="AX331" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AY331" s="56" t="s">
+      <c r="AY331" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AZ331" s="56" t="s">
+      <c r="AZ331" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="BA331" s="56" t="s">
+      <c r="BA331" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="BB331" s="56" t="s">
+      <c r="BB331" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="BC331" s="56" t="s">
+      <c r="BC331" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="BD331" s="56" t="s">
+      <c r="BD331" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="BE331" s="56" t="s">
+      <c r="BE331" s="50" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="332" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A332" s="56" t="s">
+      <c r="A332" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="B332" s="56" t="s">
+      <c r="B332" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C332" s="56" t="s">
+      <c r="C332" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A333" s="56" t="s">
+      <c r="A333" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="B333" s="56" t="s">
+      <c r="B333" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C333" s="56" t="s">
+      <c r="C333" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A334" s="56" t="s">
+      <c r="A334" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="B334" s="56" t="s">
+      <c r="B334" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C334" s="56" t="s">
+      <c r="C334" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A335" s="56" t="s">
+      <c r="A335" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="B335" s="56" t="s">
+      <c r="B335" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C335" s="56" t="s">
+      <c r="C335" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A336" s="56" t="s">
+      <c r="A336" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="B336" s="56" t="s">
+      <c r="B336" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C336" s="56" t="s">
+      <c r="C336" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A337" s="56" t="s">
+      <c r="A337" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="B337" s="56" t="s">
+      <c r="B337" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C337" s="56" t="s">
+      <c r="C337" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A338" s="56" t="s">
+      <c r="A338" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="B338" s="56" t="s">
+      <c r="B338" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C338" s="56" t="s">
+      <c r="C338" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A339" s="56" t="s">
+      <c r="A339" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="B339" s="57" t="s">
+      <c r="B339" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C339" s="57" t="s">
+      <c r="C339" s="51" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A340" s="56" t="s">
+      <c r="A340" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="B340" s="57" t="s">
+      <c r="B340" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C340" s="57" t="s">
+      <c r="C340" s="51" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A341" s="56" t="s">
+      <c r="A341" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="B341" s="57" t="s">
+      <c r="B341" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C341" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="56" t="s">
+      <c r="C341" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="B342" s="56" t="s">
+      <c r="B342" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C342" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D342" s="56" t="s">
+      <c r="C342" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E342" s="56" t="s">
+      <c r="E342" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F342" s="56" t="s">
+      <c r="F342" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G342" s="56" t="s">
+      <c r="G342" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H342" s="56" t="s">
+      <c r="H342" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I342" s="56" t="s">
+      <c r="I342" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J342" s="56" t="s">
+      <c r="J342" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K342" s="56" t="s">
+      <c r="K342" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L342" s="56" t="s">
+      <c r="L342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M342" s="56" t="s">
+      <c r="M342" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="N342" s="56" t="s">
+      <c r="N342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O342" s="56" t="s">
+      <c r="O342" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P342" s="56" t="s">
+      <c r="P342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q342" s="56" t="s">
+      <c r="Q342" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R342" s="56" t="s">
+      <c r="R342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S342" s="56" t="s">
+      <c r="S342" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T342" s="56" t="s">
+      <c r="T342" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="U342" s="56" t="s">
+      <c r="U342" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="V342" s="56" t="s">
+      <c r="V342" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="W342" s="56" t="s">
+      <c r="W342" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="X342" s="56" t="s">
+      <c r="X342" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="Y342" s="56" t="s">
+      <c r="Y342" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Z342" s="56" t="s">
+      <c r="Z342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AA342" s="56" t="s">
+      <c r="AA342" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="AB342" s="56" t="s">
+      <c r="AB342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AC342" s="56" t="s">
+      <c r="AC342" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AD342" s="56" t="s">
+      <c r="AD342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE342" s="56" t="s">
+      <c r="AE342" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AF342" s="56" t="s">
+      <c r="AF342" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AG342" s="56" t="s">
+      <c r="AG342" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AH342" s="56" t="s">
+      <c r="AH342" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AI342" s="56" t="s">
+      <c r="AI342" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AJ342" s="56" t="s">
+      <c r="AJ342" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AK342" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL342" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM342" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN342" s="57" t="s">
+      <c r="AK342" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL342" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM342" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN342" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="56" t="s">
+    <row r="343" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="B343" s="56" t="s">
+      <c r="B343" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C343" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D343" s="56" t="s">
+      <c r="C343" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E343" s="56" t="s">
+      <c r="E343" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F343" s="56" t="s">
+      <c r="F343" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G343" s="56" t="s">
+      <c r="G343" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H343" s="56" t="s">
+      <c r="H343" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I343" s="56" t="s">
+      <c r="I343" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J343" s="56" t="s">
+      <c r="J343" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K343" s="56" t="s">
+      <c r="K343" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L343" s="56" t="s">
+      <c r="L343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M343" s="56" t="s">
+      <c r="M343" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="N343" s="56" t="s">
+      <c r="N343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O343" s="56" t="s">
+      <c r="O343" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P343" s="56" t="s">
+      <c r="P343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q343" s="56" t="s">
+      <c r="Q343" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R343" s="56" t="s">
+      <c r="R343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S343" s="56" t="s">
+      <c r="S343" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T343" s="56" t="s">
+      <c r="T343" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="U343" s="56" t="s">
+      <c r="U343" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="V343" s="56" t="s">
+      <c r="V343" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="W343" s="56" t="s">
+      <c r="W343" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="X343" s="56" t="s">
+      <c r="X343" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="Y343" s="56" t="s">
+      <c r="Y343" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Z343" s="56" t="s">
+      <c r="Z343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AA343" s="56" t="s">
+      <c r="AA343" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="AB343" s="56" t="s">
+      <c r="AB343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AC343" s="56" t="s">
+      <c r="AC343" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AD343" s="56" t="s">
+      <c r="AD343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE343" s="56" t="s">
+      <c r="AE343" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AF343" s="56" t="s">
+      <c r="AF343" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AG343" s="56" t="s">
+      <c r="AG343" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AH343" s="56" t="s">
+      <c r="AH343" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AI343" s="56" t="s">
+      <c r="AI343" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AJ343" s="56" t="s">
+      <c r="AJ343" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AK343" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL343" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM343" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN343" s="57" t="s">
+      <c r="AK343" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL343" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM343" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN343" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="344" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="56" t="s">
+    <row r="344" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="B344" s="56" t="s">
+      <c r="B344" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C344" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D344" s="56" t="s">
+      <c r="C344" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E344" s="56" t="s">
+      <c r="E344" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F344" s="56" t="s">
+      <c r="F344" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G344" s="56" t="s">
+      <c r="G344" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H344" s="56" t="s">
+      <c r="H344" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I344" s="56" t="s">
+      <c r="I344" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J344" s="56" t="s">
+      <c r="J344" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K344" s="56" t="s">
+      <c r="K344" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L344" s="56" t="s">
+      <c r="L344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M344" s="56" t="s">
+      <c r="M344" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="N344" s="56" t="s">
+      <c r="N344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O344" s="56" t="s">
+      <c r="O344" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P344" s="56" t="s">
+      <c r="P344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q344" s="56" t="s">
+      <c r="Q344" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R344" s="56" t="s">
+      <c r="R344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S344" s="56" t="s">
+      <c r="S344" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T344" s="56" t="s">
+      <c r="T344" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="U344" s="56" t="s">
+      <c r="U344" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="V344" s="56" t="s">
+      <c r="V344" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="W344" s="56" t="s">
+      <c r="W344" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="X344" s="56" t="s">
+      <c r="X344" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="Y344" s="56" t="s">
+      <c r="Y344" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Z344" s="56" t="s">
+      <c r="Z344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AA344" s="56" t="s">
+      <c r="AA344" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="AB344" s="56" t="s">
+      <c r="AB344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AC344" s="56" t="s">
+      <c r="AC344" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AD344" s="56" t="s">
+      <c r="AD344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE344" s="56" t="s">
+      <c r="AE344" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AF344" s="56" t="s">
+      <c r="AF344" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AG344" s="56" t="s">
+      <c r="AG344" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AH344" s="56" t="s">
+      <c r="AH344" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AI344" s="56" t="s">
+      <c r="AI344" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AJ344" s="56" t="s">
+      <c r="AJ344" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AK344" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL344" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM344" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN344" s="57" t="s">
+      <c r="AK344" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL344" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM344" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN344" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="345" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="56" t="s">
+    <row r="345" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="B345" s="56" t="s">
+      <c r="B345" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="C345" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D345" s="56" t="s">
+      <c r="C345" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D345" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E345" s="56" t="s">
+      <c r="E345" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F345" s="56" t="s">
+      <c r="F345" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G345" s="56" t="s">
+      <c r="G345" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H345" s="56" t="s">
+      <c r="H345" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I345" s="56" t="s">
+      <c r="I345" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J345" s="56" t="s">
+      <c r="J345" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K345" s="56" t="s">
+      <c r="K345" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L345" s="56" t="s">
+      <c r="L345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M345" s="56" t="s">
+      <c r="M345" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="N345" s="56" t="s">
+      <c r="N345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O345" s="56" t="s">
+      <c r="O345" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P345" s="56" t="s">
+      <c r="P345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q345" s="56" t="s">
+      <c r="Q345" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R345" s="56" t="s">
+      <c r="R345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S345" s="56" t="s">
+      <c r="S345" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T345" s="56" t="s">
+      <c r="T345" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="U345" s="56" t="s">
+      <c r="U345" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="V345" s="56" t="s">
+      <c r="V345" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="W345" s="56" t="s">
+      <c r="W345" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="X345" s="56" t="s">
+      <c r="X345" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="Y345" s="56" t="s">
+      <c r="Y345" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Z345" s="56" t="s">
+      <c r="Z345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AA345" s="56" t="s">
+      <c r="AA345" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="AB345" s="56" t="s">
+      <c r="AB345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AC345" s="56" t="s">
+      <c r="AC345" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AD345" s="56" t="s">
+      <c r="AD345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE345" s="56" t="s">
+      <c r="AE345" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AF345" s="56" t="s">
+      <c r="AF345" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AG345" s="56" t="s">
+      <c r="AG345" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AH345" s="56" t="s">
+      <c r="AH345" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AI345" s="56" t="s">
+      <c r="AI345" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AJ345" s="56" t="s">
+      <c r="AJ345" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AK345" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL345" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM345" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN345" s="57" t="s">
+      <c r="AK345" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL345" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM345" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN345" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="346" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="56" t="s">
+    <row r="346" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="B346" s="56" t="s">
+      <c r="B346" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="C346" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D346" s="56" t="s">
+      <c r="C346" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D346" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E346" s="56" t="s">
+      <c r="E346" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F346" s="56" t="s">
+      <c r="F346" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G346" s="56" t="s">
+      <c r="G346" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H346" s="56" t="s">
+      <c r="H346" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I346" s="56" t="s">
+      <c r="I346" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J346" s="56" t="s">
+      <c r="J346" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K346" s="56" t="s">
+      <c r="K346" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L346" s="56" t="s">
+      <c r="L346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M346" s="56" t="s">
+      <c r="M346" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="N346" s="56" t="s">
+      <c r="N346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O346" s="56" t="s">
+      <c r="O346" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P346" s="56" t="s">
+      <c r="P346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Q346" s="56" t="s">
+      <c r="Q346" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="R346" s="56" t="s">
+      <c r="R346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S346" s="56" t="s">
+      <c r="S346" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="T346" s="56" t="s">
+      <c r="T346" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="U346" s="56" t="s">
+      <c r="U346" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="V346" s="56" t="s">
+      <c r="V346" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="W346" s="56" t="s">
+      <c r="W346" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="X346" s="56" t="s">
+      <c r="X346" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="Y346" s="56" t="s">
+      <c r="Y346" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Z346" s="56" t="s">
+      <c r="Z346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AA346" s="56" t="s">
+      <c r="AA346" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="AB346" s="56" t="s">
+      <c r="AB346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AC346" s="56" t="s">
+      <c r="AC346" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AD346" s="56" t="s">
+      <c r="AD346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AE346" s="56" t="s">
+      <c r="AE346" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AF346" s="56" t="s">
+      <c r="AF346" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AG346" s="56" t="s">
+      <c r="AG346" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AH346" s="56" t="s">
+      <c r="AH346" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AI346" s="56" t="s">
+      <c r="AI346" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AJ346" s="56" t="s">
+      <c r="AJ346" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AK346" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL346" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM346" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN346" s="57" t="s">
+      <c r="AK346" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL346" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM346" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN346" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="347" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="56" t="s">
+    <row r="347" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="B347" s="56" t="s">
+      <c r="B347" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C347" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D347" s="57" t="s">
+      <c r="C347" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D347" s="51" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="348" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="55" t="s">
+    <row r="348" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="B348" s="56" t="s">
+      <c r="B348" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C348" s="57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="55" t="s">
+      <c r="C348" s="51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="B349" s="56" t="s">
+      <c r="B349" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="C349" s="57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="55" t="s">
+      <c r="C349" s="51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="B350" s="56" t="s">
+      <c r="B350" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C350" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:40" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="55" t="s">
+      <c r="C350" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="B351" s="56" t="s">
+      <c r="B351" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="C351" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:40" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A352" s="55" t="s">
+      <c r="C351" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:40" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A352" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="B352" s="58" t="s">
+      <c r="B352" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C352" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A353" s="55" t="s">
+      <c r="C352" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A353" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="B353" s="58" t="s">
+      <c r="B353" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C353" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="55" t="s">
+      <c r="C353" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="B354" s="56" t="s">
+      <c r="B354" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="C354" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="55" t="s">
+      <c r="C354" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="B355" s="59" t="s">
+      <c r="B355" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C355" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="55" t="s">
+      <c r="C355" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="B356" s="59" t="s">
+      <c r="B356" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C356" s="57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="56" t="s">
+      <c r="C356" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="B357" s="59" t="s">
+      <c r="B357" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C357" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="56" t="s">
+      <c r="C357" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="B358" s="59" t="s">
+      <c r="B358" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C358" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="56" t="s">
+      <c r="C358" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="50" t="s">
         <v>527</v>
       </c>
-      <c r="B359" s="59" t="s">
+      <c r="B359" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C359" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="56" t="s">
+      <c r="C359" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="B360" s="59" t="s">
+      <c r="B360" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C360" s="56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="56" t="s">
+      <c r="C360" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="50" t="s">
         <v>529</v>
       </c>
-      <c r="B361" s="59" t="s">
+      <c r="B361" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C361" s="56" t="s">
+      <c r="C361" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="56" t="s">
+      <c r="A362" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="B362" s="59" t="s">
+      <c r="B362" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C362" s="56" t="s">
-        <v>4</v>
+      <c r="C362" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="559">
   <si>
     <t>Username</t>
   </si>
@@ -1649,6 +1649,78 @@
   </si>
   <si>
     <t>Tc_930743_ValidateTopLevelCatgoryForDeductions</t>
+  </si>
+  <si>
+    <t>Tc_936726_ValidateSubCatgrEmploymentIncomeheader</t>
+  </si>
+  <si>
+    <t>Tc_936728_ValidateSubCatgrInterestIncomeheader</t>
+  </si>
+  <si>
+    <t>Tc_936729_ValidateSubCatgrRetirementIncomeheader</t>
+  </si>
+  <si>
+    <t>Tc_936730_ValidateSubCatgrBusinessIncomeheader</t>
+  </si>
+  <si>
+    <t>Tc_936731_ValidateSubCatgrMiscellaneousIncomeheader</t>
+  </si>
+  <si>
+    <t>Tc_936732_ValidateSubCatgrPropertyDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936733_ValidateSubCatgrEductnDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936734_ValidateSubCatgrCharitableDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936735_ValidateSubCatgrHlthMedDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936736_ValidateSubCatgrStateTaxDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936737_ValidateSubCatgrIrsDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936739_ValidateSubCatgrMiscDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936738_ValidateSubCatgrJobDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936740_ValidateSubCatgrFamilyDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936741_ValidateSubCatgrEdcnCrdtDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936742_ValidateSubCatgrEmplymntDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936743_ValidateSubCatgrHmeOwnDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936744_ValidateSubCatgrMiscCrdtsDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936745_ValidateSubCatgrFedTaxDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936747_ValidateSubCatgrDefaultDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936748_ValidateSubCatgrDefaultDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936746_ValidateSubCatgrMiscTaxDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936749_ValidateSubCatgrDefaultCrdtsDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936750_ValidateSubCatgrDefaultTaxDedctnHeader</t>
   </si>
 </sst>
 </file>
@@ -3136,11 +3208,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE366"/>
+  <dimension ref="A1:BE390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B366" sqref="B366:C366"/>
+      <pane ySplit="2" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B385" sqref="B385:C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10509,6 +10581,270 @@
         <v>3</v>
       </c>
       <c r="C366" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C390" s="7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -1708,9 +1708,6 @@
     <t>Tc_936745_ValidateSubCatgrFedTaxDedctnHeader</t>
   </si>
   <si>
-    <t>Tc_936747_ValidateSubCatgrDefaultDedctnHeader</t>
-  </si>
-  <si>
     <t>Tc_936748_ValidateSubCatgrDefaultDedctnHeader</t>
   </si>
   <si>
@@ -1721,6 +1718,9 @@
   </si>
   <si>
     <t>Tc_936750_ValidateSubCatgrDefaultTaxDedctnHeader</t>
+  </si>
+  <si>
+    <t>Tc_936747_ValidateSubCatgrDefaultHeaderIncme</t>
   </si>
 </sst>
 </file>
@@ -3211,8 +3211,8 @@
   <dimension ref="A1:BE390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B385" sqref="B385:C390"/>
+      <pane ySplit="2" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B386" s="7" t="s">
         <v>3</v>
@@ -10806,7 +10806,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>3</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B388" s="7" t="s">
         <v>3</v>
@@ -10828,7 +10828,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B389" s="7" t="s">
         <v>3</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>3</v>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="561">
   <si>
     <t>Username</t>
   </si>
@@ -1721,6 +1721,12 @@
   </si>
   <si>
     <t>Tc_936747_ValidateSubCatgrDefaultHeaderIncme</t>
+  </si>
+  <si>
+    <t>Tc_997702_ValidateUITaxReturnDataInTaxHistoryIDPUser</t>
+  </si>
+  <si>
+    <t>Tc_997703_ValidateUITaxReturnDataInTaxHistoryDigitalUser</t>
   </si>
 </sst>
 </file>
@@ -3208,11 +3214,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE390"/>
+  <dimension ref="A1:BE392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
+      <pane ySplit="2" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B392" sqref="B392:C392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10845,6 +10851,28 @@
         <v>3</v>
       </c>
       <c r="C390" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B391" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C392" s="7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="566">
   <si>
     <t>Username</t>
   </si>
@@ -1727,6 +1727,21 @@
   </si>
   <si>
     <t>Tc_997703_ValidateUITaxReturnDataInTaxHistoryDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_997706_ValidateClrOfReturnsValuePositiveFrRtilUser</t>
+  </si>
+  <si>
+    <t>Tc_997707_ValidateClrOfReturnsValuePositiveFrDgtlUser</t>
+  </si>
+  <si>
+    <t>Tc_997708_ValidateClrOfReturnsValueNegativeFrRtilUser</t>
+  </si>
+  <si>
+    <t>Tc_997709_ValidateClrOfReturnsValueNegativeFrDgtlUser</t>
+  </si>
+  <si>
+    <t>usr_nhp_10</t>
   </si>
 </sst>
 </file>
@@ -3214,11 +3229,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE392"/>
+  <dimension ref="A1:BE396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B392" sqref="B392:C392"/>
+      <pane ySplit="2" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10876,6 +10891,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -10885,7 +10944,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Sheet2!#REF!</xm:f>
@@ -10896,13 +10955,7 @@
           <x14:formula1>
             <xm:f>[1]Sheet2!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>BE329:BE331 AV329:AV331</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>AZ329:AZ331 AT329:AT331</xm:sqref>
+          <xm:sqref>BE329:BE331 AV329:AV331 AZ329:AZ331 AT329:AT331</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="572">
   <si>
     <t>Username</t>
   </si>
@@ -1742,6 +1742,24 @@
   </si>
   <si>
     <t>usr_nhp_10</t>
+  </si>
+  <si>
+    <t>Tc_997704_ValidatePositionOfReturnsFrRtilUser</t>
+  </si>
+  <si>
+    <t>Tc_997705_ValidatePositionOfReturnsFrDigitalUser</t>
+  </si>
+  <si>
+    <t>QA42015</t>
+  </si>
+  <si>
+    <t>nov_10_2016_5</t>
+  </si>
+  <si>
+    <t>Tc_997710_ValidateTaxRtrnFrRtlUserHvngSngleStateRfnd</t>
+  </si>
+  <si>
+    <t>Tc_997711_ValidateTaxRtrnFrDgtlUserHvngSngleStateRfnd</t>
   </si>
 </sst>
 </file>
@@ -3229,11 +3247,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE396"/>
+  <dimension ref="A1:BE400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B396" sqref="B396"/>
+      <pane ySplit="2" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10932,6 +10950,50 @@
         <v>565</v>
       </c>
       <c r="C396" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C400" s="7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="579">
   <si>
     <t>Username</t>
   </si>
@@ -1760,6 +1760,27 @@
   </si>
   <si>
     <t>Tc_997711_ValidateTaxRtrnFrDgtlUserHvngSngleStateRfnd</t>
+  </si>
+  <si>
+    <t>Tc_997712_ValidateTaxRtrnFrRetailUserHvngTwoStateRfnd</t>
+  </si>
+  <si>
+    <t>3tcf0727</t>
+  </si>
+  <si>
+    <t>Tc_997713_ValidateTaxRtrnFrDigitalUserHvngTwoStateRfnd</t>
+  </si>
+  <si>
+    <t>Tc_997715_ValidateTaxRtrnFrRetailUserHavngFedNotStateRetrun</t>
+  </si>
+  <si>
+    <t>Tc_997716_ValidateTaxRtrnFrDigitalUserHavngFedNotStateRetrun</t>
+  </si>
+  <si>
+    <t>Tc_997723_ValidateSuperScriptForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_997724_ValidateSuperScriptForDigitalUser</t>
   </si>
 </sst>
 </file>
@@ -3247,11 +3268,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE400"/>
+  <dimension ref="A1:BE406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B402" sqref="B402"/>
+      <selection pane="bottomLeft" activeCell="B406" sqref="B406:C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10994,6 +11015,72 @@
         <v>569</v>
       </c>
       <c r="C400" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C406" s="7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="587">
   <si>
     <t>Username</t>
   </si>
@@ -1781,6 +1781,30 @@
   </si>
   <si>
     <t>Tc_997724_ValidateSuperScriptForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_920129_ValidateAlignementOfTaxYrs</t>
+  </si>
+  <si>
+    <t>Tc_920130_ValidateAlignementOfTaxYrs</t>
+  </si>
+  <si>
+    <t>Tc_1012372_ValidateDfltYearForUserNotFiled2016FrmDashbord</t>
+  </si>
+  <si>
+    <t>Tc_1012373_ValidateDfltYearForUserNotFiled2016FrmPOD</t>
+  </si>
+  <si>
+    <t>Tc_1012374_ValidateDfltYearForUserFiled2016FrmGlobaNvgtn</t>
+  </si>
+  <si>
+    <t>Tc_1012375_ValidateDfltYearForUserFiled2016FrmFooter</t>
+  </si>
+  <si>
+    <t>Tc_1012376_ValidateDfltYearForUserFiled2016FrmDashbord</t>
+  </si>
+  <si>
+    <t>Tc_1012377_ValidateDfltYearForUserFiled2016FrmPOD</t>
   </si>
 </sst>
 </file>
@@ -3268,11 +3292,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE406"/>
+  <dimension ref="A1:BE414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B406" sqref="B406:C406"/>
+      <pane ySplit="2" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A417" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7555,7 +7579,7 @@
         <v>325</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>4</v>
@@ -11082,6 +11106,94 @@
       </c>
       <c r="C406" s="7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B407" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B408" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="586">
   <si>
     <t>Username</t>
   </si>
@@ -529,9 +529,6 @@
   </si>
   <si>
     <t>TC_1012392_UserNameAvailabilityIfUserNameIs15char</t>
-  </si>
-  <si>
-    <t>pradeeepdhanapathy</t>
   </si>
   <si>
     <t>TC_1012393_UserNameAvailabilityIfUserNameIs16char</t>
@@ -3042,7 +3039,7 @@
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
       <c r="F10" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
@@ -3100,11 +3097,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
       <c r="F14" s="57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -3132,11 +3129,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
       <c r="F16" s="57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -3233,7 +3230,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="33"/>
       <c r="E23" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -3295,8 +3292,8 @@
   <dimension ref="A1:BE414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A417" sqref="A417"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3308,7 @@
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="21"/>
@@ -3322,7 +3319,7 @@
     </row>
     <row r="2" spans="1:57" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>0</v>
@@ -4022,7 +4019,7 @@
         <v>128</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>4</v>
@@ -4195,7 +4192,7 @@
         <v>141</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -4368,7 +4365,7 @@
         <v>142</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>4</v>
@@ -4541,7 +4538,7 @@
         <v>143</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -4714,7 +4711,7 @@
         <v>144</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>4</v>
@@ -4887,7 +4884,7 @@
         <v>145</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>4</v>
@@ -5060,7 +5057,7 @@
         <v>146</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>4</v>
@@ -5925,7 +5922,7 @@
         <v>154</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>4</v>
@@ -5963,6 +5960,9 @@
       <c r="C42" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="D42" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -6035,7 +6035,7 @@
         <v>168</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>4</v>
@@ -6043,7 +6043,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>165</v>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>4</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>88</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>88</v>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>4</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>3</v>
@@ -6145,10 +6145,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>4</v>
@@ -6156,10 +6156,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>3</v>
@@ -6178,10 +6178,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>4</v>
@@ -6189,10 +6189,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>4</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>4</v>
@@ -6225,10 +6225,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>4</v>
@@ -6239,10 +6239,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>4</v>
@@ -6253,10 +6253,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>4</v>
@@ -6267,10 +6267,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>4</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>4</v>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>4</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>4</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>4</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>4</v>
@@ -6351,10 +6351,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>4</v>
@@ -6365,10 +6365,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>4</v>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>4</v>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>4</v>
@@ -6407,10 +6407,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>4</v>
@@ -6421,10 +6421,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>4</v>
@@ -6435,10 +6435,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>4</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>4</v>
@@ -6463,10 +6463,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>4</v>
@@ -6474,10 +6474,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>4</v>
@@ -6485,10 +6485,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>4</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>4</v>
@@ -6507,10 +6507,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>4</v>
@@ -6518,10 +6518,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>4</v>
@@ -6529,10 +6529,10 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>2</v>
@@ -6540,10 +6540,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>4</v>
@@ -6551,10 +6551,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>4</v>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>4</v>
@@ -6573,10 +6573,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>4</v>
@@ -6584,10 +6584,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>4</v>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>4</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>3</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>3</v>
@@ -6628,10 +6628,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>4</v>
@@ -6639,10 +6639,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>4</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>4</v>
@@ -6661,10 +6661,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>4</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>148</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>148</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>148</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>148</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>148</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>148</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>157</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>88</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>4</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>4</v>
@@ -6782,10 +6782,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>4</v>
@@ -6793,10 +6793,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>4</v>
@@ -6804,10 +6804,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>4</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>88</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>88</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>3</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
@@ -6859,10 +6859,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>4</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>3</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>88</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>3</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>107</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B125" s="41" t="s">
         <v>110</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>88</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>88</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>88</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>3</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>3</v>
@@ -7016,10 +7016,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>4</v>
@@ -7030,10 +7030,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>4</v>
@@ -7044,10 +7044,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>4</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B136" s="42" t="s">
         <v>86</v>
@@ -7069,10 +7069,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>4</v>
@@ -7080,10 +7080,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>4</v>
@@ -7094,10 +7094,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>4</v>
@@ -7105,10 +7105,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>4</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>107</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B142" s="41" t="s">
         <v>110</v>
@@ -7138,10 +7138,10 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>2</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>157</v>
@@ -7160,10 +7160,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>4</v>
@@ -7171,10 +7171,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>4</v>
@@ -7182,10 +7182,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>4</v>
@@ -7193,10 +7193,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>4</v>
@@ -7204,10 +7204,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>4</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>3</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>148</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>148</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>148</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>148</v>
@@ -7270,10 +7270,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>4</v>
@@ -7284,10 +7284,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>4</v>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>4</v>
@@ -7309,10 +7309,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>4</v>
@@ -7320,10 +7320,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>4</v>
@@ -7331,10 +7331,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>4</v>
@@ -7342,10 +7342,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>4</v>
@@ -7353,10 +7353,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>4</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>148</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>148</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>148</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>148</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>148</v>
@@ -7419,10 +7419,10 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B168" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>4</v>
@@ -7430,10 +7430,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -7441,10 +7441,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -7452,10 +7452,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -7463,10 +7463,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B172" s="47" t="s">
         <v>310</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>311</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -7474,10 +7474,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>4</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>4</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>157</v>
@@ -7510,10 +7510,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>4</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>3</v>
@@ -7532,10 +7532,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>4</v>
@@ -7543,10 +7543,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>4</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>3</v>
@@ -7565,10 +7565,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>4</v>
@@ -7576,10 +7576,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>4</v>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>4</v>
@@ -7598,10 +7598,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>4</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>4</v>
@@ -7620,10 +7620,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>4</v>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>4</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>4</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>4</v>
@@ -7664,10 +7664,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>4</v>
@@ -7675,10 +7675,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>4</v>
@@ -7686,10 +7686,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>4</v>
@@ -7697,10 +7697,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>4</v>
@@ -7708,10 +7708,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>4</v>
@@ -7719,10 +7719,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>4</v>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>4</v>
@@ -7741,10 +7741,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>4</v>
@@ -7752,10 +7752,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>4</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>3</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>3</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>3</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>3</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>3</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>3</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>3</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>3</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>3</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>3</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>3</v>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>4</v>
@@ -7906,10 +7906,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B212" s="48" t="s">
         <v>371</v>
-      </c>
-      <c r="B212" s="48" t="s">
-        <v>372</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>4</v>
@@ -7917,10 +7917,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>4</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>4</v>
@@ -7939,10 +7939,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>4</v>
@@ -7950,10 +7950,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>4</v>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>4</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>3</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>3</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>3</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>3</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>3</v>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>3</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>4</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>3</v>
@@ -8060,10 +8060,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>4</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>3</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>3</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>3</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>3</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>3</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>3</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>3</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>3</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>3</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>3</v>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>3</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>3</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>3</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>3</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>3</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>3</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>3</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>107</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B245" s="41" t="s">
         <v>110</v>
@@ -8280,10 +8280,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B248" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>4</v>
@@ -8313,10 +8313,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B249" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>4</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B250" s="41" t="s">
         <v>110</v>
@@ -8335,10 +8335,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>3</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>4</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B254" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>4</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>107</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B256" s="41" t="s">
         <v>110</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>3</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>4</v>
@@ -8437,10 +8437,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>4</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>88</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>88</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>88</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>88</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>88</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>88</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>88</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>88</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>88</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>3</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>3</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>3</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>3</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>3</v>
@@ -8627,7 +8627,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>3</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>3</v>
@@ -8649,10 +8649,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B279" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>4</v>
@@ -8660,10 +8660,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B280" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>4</v>
@@ -8671,10 +8671,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B281" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>4</v>
@@ -8682,10 +8682,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B282" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>4</v>
@@ -8693,10 +8693,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>4</v>
@@ -8704,10 +8704,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>4</v>
@@ -8715,10 +8715,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>4</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>3</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>3</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>3</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>3</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>3</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>3</v>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B292" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>4</v>
@@ -8803,10 +8803,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B293" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>4</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>3</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>3</v>
@@ -8836,10 +8836,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>4</v>
@@ -8850,10 +8850,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B297" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>4</v>
@@ -8861,10 +8861,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B298" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>4</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>3</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>3</v>
@@ -8894,10 +8894,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B301" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>4</v>
@@ -8905,10 +8905,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B302" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>4</v>
@@ -8916,10 +8916,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B303" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>4</v>
@@ -8927,10 +8927,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>4</v>
@@ -8938,10 +8938,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B305" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>4</v>
@@ -8949,10 +8949,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B306" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>4</v>
@@ -8960,10 +8960,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B307" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>4</v>
@@ -8971,10 +8971,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>4</v>
@@ -8982,10 +8982,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>4</v>
@@ -8993,10 +8993,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B310" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>4</v>
@@ -9004,10 +9004,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B311" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>4</v>
@@ -9015,10 +9015,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B312" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>4</v>
@@ -9026,10 +9026,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B313" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>4</v>
@@ -9037,10 +9037,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B314" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>4</v>
@@ -9048,10 +9048,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B315" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>4</v>
@@ -9059,10 +9059,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B316" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>4</v>
@@ -9070,10 +9070,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>4</v>
@@ -9081,10 +9081,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>4</v>
@@ -9092,10 +9092,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>4</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>3</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="321" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>3</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="322" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>3</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="323" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>3</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="324" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>3</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="325" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>3</v>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="326" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>3</v>
@@ -9180,10 +9180,10 @@
     </row>
     <row r="327" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>4</v>
@@ -9194,10 +9194,10 @@
     </row>
     <row r="328" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>4</v>
@@ -9208,16 +9208,16 @@
     </row>
     <row r="329" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="B329" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="C329" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="51" t="s">
         <v>492</v>
-      </c>
-      <c r="B329" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="C329" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" s="51" t="s">
-        <v>493</v>
       </c>
       <c r="E329" s="50" t="s">
         <v>70</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="330" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B330" s="50" t="s">
         <v>153</v>
@@ -9390,7 +9390,7 @@
         <v>4</v>
       </c>
       <c r="D330" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E330" s="50" t="s">
         <v>81</v>
@@ -9554,16 +9554,16 @@
     </row>
     <row r="331" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B331" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C331" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D331" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E331" s="50" t="s">
         <v>81</v>
@@ -9727,10 +9727,10 @@
     </row>
     <row r="332" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A332" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B332" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C332" s="50" t="s">
         <v>4</v>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="333" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A333" s="50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B333" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C333" s="50" t="s">
         <v>4</v>
@@ -9749,10 +9749,10 @@
     </row>
     <row r="334" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A334" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B334" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C334" s="50" t="s">
         <v>4</v>
@@ -9760,10 +9760,10 @@
     </row>
     <row r="335" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A335" s="50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B335" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C335" s="50" t="s">
         <v>4</v>
@@ -9771,10 +9771,10 @@
     </row>
     <row r="336" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A336" s="50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B336" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C336" s="50" t="s">
         <v>4</v>
@@ -9782,10 +9782,10 @@
     </row>
     <row r="337" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A337" s="50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B337" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C337" s="50" t="s">
         <v>4</v>
@@ -9793,10 +9793,10 @@
     </row>
     <row r="338" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A338" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B338" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C338" s="50" t="s">
         <v>4</v>
@@ -9804,10 +9804,10 @@
     </row>
     <row r="339" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A339" s="50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B339" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C339" s="51" t="s">
         <v>2</v>
@@ -9815,10 +9815,10 @@
     </row>
     <row r="340" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A340" s="50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B340" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C340" s="51" t="s">
         <v>2</v>
@@ -9826,10 +9826,10 @@
     </row>
     <row r="341" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A341" s="50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B341" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C341" s="51" t="s">
         <v>2</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="342" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B342" s="50" t="s">
         <v>86</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="343" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B343" s="50" t="s">
         <v>86</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="344" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="50" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B344" s="50" t="s">
         <v>86</v>
@@ -10203,10 +10203,10 @@
     </row>
     <row r="345" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="B345" s="50" t="s">
         <v>509</v>
-      </c>
-      <c r="B345" s="50" t="s">
-        <v>510</v>
       </c>
       <c r="C345" s="50" t="s">
         <v>4</v>
@@ -10325,10 +10325,10 @@
     </row>
     <row r="346" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="B346" s="50" t="s">
         <v>511</v>
-      </c>
-      <c r="B346" s="50" t="s">
-        <v>512</v>
       </c>
       <c r="C346" s="50" t="s">
         <v>4</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="347" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B347" s="50" t="s">
         <v>165</v>
@@ -10456,15 +10456,15 @@
         <v>4</v>
       </c>
       <c r="D347" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="348" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B348" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C348" s="51" t="s">
         <v>4</v>
@@ -10472,10 +10472,10 @@
     </row>
     <row r="349" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B349" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C349" s="51" t="s">
         <v>4</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="350" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B350" s="50" t="s">
         <v>162</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="351" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B351" s="50" t="s">
         <v>162</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="352" spans="1:40" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A352" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B352" s="52" t="s">
         <v>148</v>
@@ -10516,7 +10516,7 @@
     </row>
     <row r="353" spans="1:3" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A353" s="49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B353" s="52" t="s">
         <v>148</v>
@@ -10527,10 +10527,10 @@
     </row>
     <row r="354" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="B354" s="50" t="s">
         <v>520</v>
-      </c>
-      <c r="B354" s="50" t="s">
-        <v>521</v>
       </c>
       <c r="C354" s="50" t="s">
         <v>4</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="355" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B355" s="53" t="s">
         <v>150</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="356" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B356" s="53" t="s">
         <v>150</v>
@@ -10560,10 +10560,10 @@
     </row>
     <row r="357" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="B357" s="53" t="s">
         <v>524</v>
-      </c>
-      <c r="B357" s="53" t="s">
-        <v>525</v>
       </c>
       <c r="C357" s="50" t="s">
         <v>4</v>
@@ -10571,10 +10571,10 @@
     </row>
     <row r="358" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B358" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C358" s="50" t="s">
         <v>4</v>
@@ -10582,10 +10582,10 @@
     </row>
     <row r="359" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B359" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C359" s="50" t="s">
         <v>4</v>
@@ -10593,10 +10593,10 @@
     </row>
     <row r="360" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B360" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C360" s="50" t="s">
         <v>4</v>
@@ -10604,10 +10604,10 @@
     </row>
     <row r="361" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B361" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C361" s="50" t="s">
         <v>4</v>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B362" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C362" s="50" t="s">
         <v>4</v>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B363" s="7" t="s">
         <v>3</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>3</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>3</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B366" s="7" t="s">
         <v>3</v>
@@ -10670,7 +10670,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B367" s="7" t="s">
         <v>3</v>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B368" s="7" t="s">
         <v>3</v>
@@ -10692,7 +10692,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B369" s="7" t="s">
         <v>3</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>3</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B371" s="7" t="s">
         <v>3</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>3</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B373" s="7" t="s">
         <v>3</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>3</v>
@@ -10758,7 +10758,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>3</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B376" s="7" t="s">
         <v>3</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B377" s="7" t="s">
         <v>3</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B378" s="7" t="s">
         <v>3</v>
@@ -10802,7 +10802,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>3</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B380" s="7" t="s">
         <v>3</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B381" s="7" t="s">
         <v>3</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>3</v>
@@ -10846,7 +10846,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>3</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>3</v>
@@ -10868,7 +10868,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>3</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B386" s="7" t="s">
         <v>3</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>3</v>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B388" s="7" t="s">
         <v>3</v>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B389" s="7" t="s">
         <v>3</v>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>3</v>
@@ -10934,7 +10934,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B391" s="42" t="s">
         <v>86</v>
@@ -10945,7 +10945,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>3</v>
@@ -10956,10 +10956,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>4</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>3</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>3</v>
@@ -10989,10 +10989,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B396" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>2</v>
@@ -11000,10 +11000,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>4</v>
@@ -11011,10 +11011,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>2</v>
@@ -11022,10 +11022,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>4</v>
@@ -11033,10 +11033,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>2</v>
@@ -11044,10 +11044,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B401" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="B401" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>2</v>
@@ -11055,10 +11055,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>2</v>
@@ -11066,10 +11066,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>4</v>
@@ -11077,10 +11077,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>2</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>4</v>
@@ -11099,10 +11099,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>2</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B407" s="42" t="s">
         <v>86</v>
@@ -11121,7 +11121,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B408" s="42" t="s">
         <v>86</v>
@@ -11132,10 +11132,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>4</v>
@@ -11143,10 +11143,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>4</v>
@@ -11154,10 +11154,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>4</v>
@@ -11165,10 +11165,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>4</v>
@@ -11176,10 +11176,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>4</v>
@@ -11187,10 +11187,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>4</v>
@@ -11241,7 +11241,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11265,11 +11265,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11295,7 +11295,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="605">
   <si>
     <t>Username</t>
   </si>
@@ -1803,12 +1803,69 @@
   <si>
     <t>Tc_1012377_ValidateDfltYearForUserFiled2016FrmPOD</t>
   </si>
+  <si>
+    <t>Tc_968134_ValidatePrdtSrvcsForUserCardPrfedWithOneCard</t>
+  </si>
+  <si>
+    <t>Tc_968135_ValidatePrdtSrvcsForUserCardPrfedWithMultiCard</t>
+  </si>
+  <si>
+    <t>Tc_968136_ValidatePrdtSrvcsForUserIDPrfedWithoutEmrldCard</t>
+  </si>
+  <si>
+    <t>Tc_968137_ValidatePrdtSrvcsForTransUserWithoutEmrldCard</t>
+  </si>
+  <si>
+    <t>Tc_968138_ValidatePrdtSrvcsForUserIDPrfedWithEmrldCard</t>
+  </si>
+  <si>
+    <t>Tc_968139_ValidatePrdtSrvcsForTransUserWithEmrldCard</t>
+  </si>
+  <si>
+    <t>srv1420162</t>
+  </si>
+  <si>
+    <t>Tc_971454_ValidateAvlbtyTISForUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971458_ValidateAvlbtyTISPurchase2015ForSWUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971461_ValidateAvlbtyTISPurchase2016ForSWUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971462_ValidateAvlbtyTISPurchase2014ForSWUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971463_ValidateAvlbtyTISPurchase2015ForRtlUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971464_ValidateAvlbtyTISPurchase2016ForRtlUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971465_ValidateAvlbtyTISPurchase2014ForRtlUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971466_ValidateAvlbtyTISForReturningRtlUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971467_ValidateAvlbtyTISPurchase2014ForDgtlUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971468_ValidateAvlbtyTISForReturningDgtlUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_971469_ValidateAvlbtyTISForNewUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>tkqa01042018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1925,6 +1982,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2195,11 +2260,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2292,9 +2358,13 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2924,8 +2994,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3202,7 @@
         <v>367</v>
       </c>
       <c r="G16" s="57"/>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="60" t="s">
         <v>365</v>
       </c>
       <c r="I16" s="26"/>
@@ -3262,9 +3332,12 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1" display="https://myaccount.hrblock.com/mytax/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -3289,11 +3362,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE414"/>
+  <dimension ref="A1:BE431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11194,6 +11267,196 @@
       </c>
       <c r="C414" s="7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A415" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B431" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="C431" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D431" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="606">
   <si>
     <t>Username</t>
   </si>
@@ -1859,6 +1859,9 @@
   </si>
   <si>
     <t>tkqa01042018</t>
+  </si>
+  <si>
+    <t>Tc_1020475_ValidateGlobalNavDropDownForRetailuser</t>
   </si>
 </sst>
 </file>
@@ -2994,8 +2997,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,11 +3365,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE431"/>
+  <dimension ref="A1:BE432"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A435" sqref="A435"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B432" sqref="B432:C432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11457,6 +11460,17 @@
       </c>
       <c r="D431" s="50" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="610">
   <si>
     <t>Username</t>
   </si>
@@ -1862,6 +1862,18 @@
   </si>
   <si>
     <t>Tc_1020475_ValidateGlobalNavDropDownForRetailuser</t>
+  </si>
+  <si>
+    <t>Tc_1020711_ValidateGlobalNavDropDownForDigitalluser</t>
+  </si>
+  <si>
+    <t>Tc_1020712_ValidateGlobalNavDropDownForSWuser</t>
+  </si>
+  <si>
+    <t>Tc_1020713_ValidateGlobalNavDropDownForAOLuser</t>
+  </si>
+  <si>
+    <t>Tc_1020715_ValidateGlobalNavDropDownForNewuser</t>
   </si>
 </sst>
 </file>
@@ -3365,11 +3377,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE432"/>
+  <dimension ref="A1:BE436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B432" sqref="B432:C432"/>
+      <pane ySplit="2" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11471,6 +11483,53 @@
       </c>
       <c r="C432" s="7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B436" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="C436" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="616">
   <si>
     <t>Username</t>
   </si>
@@ -1874,6 +1874,24 @@
   </si>
   <si>
     <t>Tc_1020715_ValidateGlobalNavDropDownForNewuser</t>
+  </si>
+  <si>
+    <t>Tc_1015020_ValidateAvlbtyPOMPurchase2015ForSWUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_1015021_ValidateAvlbtyPOMPurchase2016ForSWUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_1015022_ValidateAvlbtyPOMPurchase2014ForSWUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_1015023_ValidateAvlbtyPOMPurchase2015ForRetailUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_1015024_ValidateAvlbtyPOMPurchase2016ForRetailUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>Tc_1015025_ValidateAvlbtyPOMPurchase2016ForRetailUserUnderProductservices</t>
   </si>
 </sst>
 </file>
@@ -2355,6 +2373,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2371,9 +2392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3123,13 +3141,13 @@
       <c r="C10" s="35"/>
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="27"/>
@@ -3181,10 +3199,10 @@
       <c r="C14" s="35"/>
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="19" t="s">
         <v>332</v>
       </c>
@@ -3213,11 +3231,11 @@
       <c r="C16" s="35"/>
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="60" t="s">
+      <c r="G16" s="58"/>
+      <c r="H16" s="54" t="s">
         <v>365</v>
       </c>
       <c r="I16" s="26"/>
@@ -3377,11 +3395,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE436"/>
+  <dimension ref="A1:BE442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C443" sqref="C443"/>
+      <selection pane="bottomLeft" activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,10 +3413,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -11530,6 +11548,72 @@
       </c>
       <c r="D436" s="50" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="634">
   <si>
     <t>Username</t>
   </si>
@@ -1892,6 +1892,60 @@
   </si>
   <si>
     <t>Tc_1015025_ValidateAvlbtyPOMPurchase2016ForRetailUserUnderProductservices</t>
+  </si>
+  <si>
+    <t>TC_1059073_ValidateTISheronavigatedfromNewsletteremail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpqa01083 </t>
+  </si>
+  <si>
+    <t>TC_1059074_ValidateheroButtonforusernavigatingthroughNewsletteremail</t>
+  </si>
+  <si>
+    <t>TC_1059075_ValidateTISherowhennavigatedthroughRiskAssessmentemail</t>
+  </si>
+  <si>
+    <t>TC_1059076_ValidateherobuttonforusernavigatingthroughRiskAssessmentemail</t>
+  </si>
+  <si>
+    <t>TC_1059078_validatebehaviorofViewMyCreditReportbutton</t>
+  </si>
+  <si>
+    <t>TC_1059081_ValidatebehaviorofViewMyRiskAssessmentbutton</t>
+  </si>
+  <si>
+    <t>TC_938128_ValidateFederalRefundAmountforretailuser</t>
+  </si>
+  <si>
+    <t>MT10_87_scen010</t>
+  </si>
+  <si>
+    <t>TC_938129_ValidateFederalRefundAmountfordigitaluser</t>
+  </si>
+  <si>
+    <t>TC_938130_ValidateFederalBalanceDueAmountforretailuser</t>
+  </si>
+  <si>
+    <t>TC_938131_ValidateFederalBalanceDueAmountfordigitaluser</t>
+  </si>
+  <si>
+    <t>TC_938132_ValidateFilingstatusforretailuser</t>
+  </si>
+  <si>
+    <t>TC_938133_ValidateFilingstatusfordigitaluser</t>
+  </si>
+  <si>
+    <t>TC_938137_Validatewhichtaxyeardetailsaredisplayedfortheuserinheroforretailuser</t>
+  </si>
+  <si>
+    <t>TC_938138_Validatewhichtaxyeardetailsaredisplayedfortheuserinherofordigitaluser</t>
+  </si>
+  <si>
+    <t>TC_1132439_ValidateViewHistoryButtonforRetailUserWith2017Return</t>
+  </si>
+  <si>
+    <t>TC_1132440_ValidateViewHistoryButtonforDigitalUserWith2017Return</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2079,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,6 +2112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,7 +2358,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2376,6 +2436,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3141,13 +3205,13 @@
       <c r="C10" s="35"/>
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="27"/>
@@ -3199,10 +3263,10 @@
       <c r="C14" s="35"/>
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="19" t="s">
         <v>332</v>
       </c>
@@ -3231,10 +3295,10 @@
       <c r="C16" s="35"/>
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="54" t="s">
         <v>365</v>
       </c>
@@ -3395,11 +3459,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE442"/>
+  <dimension ref="A1:BE458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A438" sqref="A438"/>
+      <pane ySplit="2" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,10 +3477,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -11614,6 +11678,182 @@
       </c>
       <c r="C442" s="7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B443" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="C443" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B444" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="C444" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B445" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="C445" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B446" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="C446" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B447" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="C447" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B448" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="C448" s="56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C449" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C450" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B451" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="C451" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B452" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="C452" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C454" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C456" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="650">
   <si>
     <t>Username</t>
   </si>
@@ -1947,12 +1947,60 @@
   <si>
     <t>TC_1132440_ValidateViewHistoryButtonforDigitalUserWith2017Return</t>
   </si>
+  <si>
+    <t>Tc_1015051_ValidateherofordigitalusersforinterviewStatusis0</t>
+  </si>
+  <si>
+    <t>Tc_1015052_ValidateherofordigitalusersforinterviewStatusis1</t>
+  </si>
+  <si>
+    <t>dpqadigital01100</t>
+  </si>
+  <si>
+    <t>Tc_1020465_Validateherofordigitaluserposte_fileAfter45days</t>
+  </si>
+  <si>
+    <t>Tc_1020466_Validateherofordigitaluserbeforee_fileAfter45days</t>
+  </si>
+  <si>
+    <t>Tc_1020468_Validateherofordigitaluserposte_fileOn45days</t>
+  </si>
+  <si>
+    <t>Tc_1055162_ValidateHeroforBoBuserswithstatusinProcess</t>
+  </si>
+  <si>
+    <t>8test1</t>
+  </si>
+  <si>
+    <t>Tc_1055163_ValidateHeroforBoBuserswithawaitingforapprovalstatus</t>
+  </si>
+  <si>
+    <t>6test1</t>
+  </si>
+  <si>
+    <t>Tc_972751_Validateherofordigitalflippeduser</t>
+  </si>
+  <si>
+    <t>Tc_965782_Validateheroforefilereturncompleteduser</t>
+  </si>
+  <si>
+    <t>Tc_966071_Validateherofordigitalcompleteuserwithnoefiledetails</t>
+  </si>
+  <si>
+    <t>USR_Nov15_U1</t>
+  </si>
+  <si>
+    <t>Tc_966072_Validateherofordigitalcompleteuserwithnoefiledetails</t>
+  </si>
+  <si>
+    <t>Tc_966073_Validateherofordigitalreturnnotfileduser</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2078,8 +2126,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,8 +2184,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2352,13 +2420,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2458,11 +2542,14 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3459,11 +3546,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE458"/>
+  <dimension ref="A1:BE470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B460" sqref="B460"/>
+      <pane ySplit="2" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A486" sqref="A486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11813,47 +11900,179 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="7" t="s">
+      <c r="A455" s="65" t="s">
         <v>630</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="65" t="s">
         <v>624</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="66" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="7" t="s">
+      <c r="A456" s="65" t="s">
         <v>631</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="65" t="s">
         <v>568</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="66" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="7" t="s">
+      <c r="A457" s="65" t="s">
         <v>632</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="C457" s="65" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="7" t="s">
+      <c r="A458" s="66" t="s">
         <v>633</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C458" s="7" t="s">
-        <v>2</v>
+      <c r="C458" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="66" t="s">
+        <v>634</v>
+      </c>
+      <c r="B459" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="C459" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="B460" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="C460" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="66" t="s">
+        <v>637</v>
+      </c>
+      <c r="B461" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C461" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="B462" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C462" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="66" t="s">
+        <v>639</v>
+      </c>
+      <c r="B463" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C463" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="66" t="s">
+        <v>640</v>
+      </c>
+      <c r="B464" s="66" t="s">
+        <v>641</v>
+      </c>
+      <c r="C464" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="B465" s="66" t="s">
+        <v>643</v>
+      </c>
+      <c r="C465" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="66" t="s">
+        <v>644</v>
+      </c>
+      <c r="B466" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="C466" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="66" t="s">
+        <v>645</v>
+      </c>
+      <c r="B467" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C467" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="66" t="s">
+        <v>646</v>
+      </c>
+      <c r="B468" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="C468" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="66" t="s">
+        <v>648</v>
+      </c>
+      <c r="B469" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="C469" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="66" t="s">
+        <v>649</v>
+      </c>
+      <c r="B470" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="C470" s="66" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="653">
   <si>
     <t>Username</t>
   </si>
@@ -1994,6 +1994,15 @@
   </si>
   <si>
     <t>Tc_966073_Validateherofordigitalreturnnotfileduser</t>
+  </si>
+  <si>
+    <t>TC_902896_ValidateAvailabilityOfAboutYouforRetailUsersBefore45Days</t>
+  </si>
+  <si>
+    <t>TC_902897_ValidateAvailabilityOfAboutYouforRetailUsersAfter45Days</t>
+  </si>
+  <si>
+    <t>TC_902898_ValidateAvailabilityOfAboutYouforRetailUsersTill45Days</t>
   </si>
 </sst>
 </file>
@@ -3546,11 +3555,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE470"/>
+  <dimension ref="A1:BE473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A486" sqref="A486"/>
+      <pane ySplit="2" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B471" sqref="B471:C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12072,6 +12081,39 @@
         <v>636</v>
       </c>
       <c r="C470" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C473" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="673">
   <si>
     <t>Username</t>
   </si>
@@ -828,31 +828,6 @@
     <t>tkqa09182017</t>
   </si>
   <si>
-    <r>
-      <t>FY17_EfiledUsers_14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Tc_920119_ValidateTaxYearTabForProspUser</t>
   </si>
   <si>
@@ -2003,13 +1978,76 @@
   </si>
   <si>
     <t>TC_902898_ValidateAvailabilityOfAboutYouforRetailUsersTill45Days</t>
+  </si>
+  <si>
+    <t>TC_967789_ValidateStatusBarforProspectiveUser</t>
+  </si>
+  <si>
+    <t>TC_967790_ValidateStatusBarforIDPUser</t>
+  </si>
+  <si>
+    <t>TC_967791_ValidateStatusBarForRetailUserHavingReturns</t>
+  </si>
+  <si>
+    <t>TC_967792_ValidateStatusBarForDigitalUserWithReturn</t>
+  </si>
+  <si>
+    <t>TC_967793_ValidateStatusBarforDigitalTransactedUserWithReturns</t>
+  </si>
+  <si>
+    <t>TC_967794_ValidateStausBarforSWIDPUserHavingReturn</t>
+  </si>
+  <si>
+    <t>TC_967795_ValidateStatusBarforSWDigitaluserHavingReturns</t>
+  </si>
+  <si>
+    <t>TC_967796_ValidateStatusBarforSWNewUser</t>
+  </si>
+  <si>
+    <t>TC_971873_ValidateViewHistoryButtonforUserWith2016Return</t>
+  </si>
+  <si>
+    <t>TC_971874_ValidateViewHistoryButtonforUserWith2015Return</t>
+  </si>
+  <si>
+    <t>TC_971875_ValidateViewHistoryButtonforUserWith2014Return</t>
+  </si>
+  <si>
+    <t>TC_971876_ValidateViewHistoryButtonforUserWith2013Return</t>
+  </si>
+  <si>
+    <t>TC_971877_ValidateViewHistoryButtonforUserWith2012Return</t>
+  </si>
+  <si>
+    <t>TC_971878_ValidateViewHistoryButtonforUserWith2011Return</t>
+  </si>
+  <si>
+    <t>TC_971890_ValidateViewHistoryButtonforDigitalUserWith2016Return</t>
+  </si>
+  <si>
+    <t>TC_971891_ValidateViewHistoryButtonforDigitalUserWith2015Return</t>
+  </si>
+  <si>
+    <t>TC_971892_ValidateViewHistoryButtonforDigitalUserWith2014Return</t>
+  </si>
+  <si>
+    <t>TC_971893_ValidateViewHistoryButtonforDigitalUserWith2013Return</t>
+  </si>
+  <si>
+    <t>TC_971894_ValidateViewHistoryButtonforDigitalUserWith2012Return</t>
+  </si>
+  <si>
+    <t>TC_971895_ValidateViewHistoryButtonforDigitalUserWith2011Return</t>
+  </si>
+  <si>
+    <t>TC_971898_ValidateViewHistoryNotFiledUsingHRB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,20 +2077,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2447,9 +2471,9 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2457,7 +2481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2472,33 +2496,33 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2514,9 +2538,9 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2526,33 +2550,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3302,7 +3326,7 @@
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
       <c r="F10" s="59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -3360,11 +3384,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
       <c r="F14" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="62"/>
       <c r="H14" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -3392,11 +3416,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
       <c r="F16" s="62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G16" s="62"/>
       <c r="H16" s="54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -3493,7 +3517,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="33"/>
       <c r="E23" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -3555,11 +3579,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE473"/>
+  <dimension ref="A1:BE494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B471" sqref="B471:C473"/>
+      <pane ySplit="2" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B494" sqref="B494:C494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,7 +3598,7 @@
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="21"/>
@@ -3585,7 +3609,7 @@
     </row>
     <row r="2" spans="1:57" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>0</v>
@@ -4285,7 +4309,7 @@
         <v>128</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>4</v>
@@ -4458,7 +4482,7 @@
         <v>141</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -4631,7 +4655,7 @@
         <v>142</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>4</v>
@@ -4804,7 +4828,7 @@
         <v>143</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -4977,7 +5001,7 @@
         <v>144</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>4</v>
@@ -5150,7 +5174,7 @@
         <v>145</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>4</v>
@@ -5323,7 +5347,7 @@
         <v>146</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>4</v>
@@ -6188,7 +6212,7 @@
         <v>154</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>4</v>
@@ -6354,12 +6378,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>174</v>
+      <c r="B54" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>2</v>
@@ -6732,7 +6756,7 @@
         <v>209</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>4</v>
@@ -6743,7 +6767,7 @@
         <v>214</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>4</v>
@@ -6754,7 +6778,7 @@
         <v>213</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>4</v>
@@ -6765,7 +6789,7 @@
         <v>212</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>4</v>
@@ -6776,7 +6800,7 @@
         <v>211</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>4</v>
@@ -6787,18 +6811,18 @@
         <v>210</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="45" t="s">
-        <v>268</v>
+      <c r="B89" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>2</v>
@@ -7310,7 +7334,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>267</v>
@@ -7324,7 +7348,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B136" s="42" t="s">
         <v>86</v>
@@ -7335,7 +7359,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B137" s="42" t="s">
         <v>267</v>
@@ -7346,7 +7370,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>267</v>
@@ -7360,10 +7384,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>4</v>
@@ -7371,10 +7395,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>4</v>
@@ -7382,7 +7406,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>107</v>
@@ -7393,7 +7417,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B142" s="41" t="s">
         <v>110</v>
@@ -7404,7 +7428,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B143" s="45" t="s">
         <v>174</v>
@@ -7415,7 +7439,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>157</v>
@@ -7426,7 +7450,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>230</v>
@@ -7437,7 +7461,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>230</v>
@@ -7448,7 +7472,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>243</v>
@@ -7459,7 +7483,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>243</v>
@@ -7470,7 +7494,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>243</v>
@@ -7481,7 +7505,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>3</v>
@@ -7492,7 +7516,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>148</v>
@@ -7503,7 +7527,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>148</v>
@@ -7514,7 +7538,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>148</v>
@@ -7525,7 +7549,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>148</v>
@@ -7536,7 +7560,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>197</v>
@@ -7550,7 +7574,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>197</v>
@@ -7564,10 +7588,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>4</v>
@@ -7575,7 +7599,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>217</v>
@@ -7586,7 +7610,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>217</v>
@@ -7597,7 +7621,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>217</v>
@@ -7608,7 +7632,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>217</v>
@@ -7619,7 +7643,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>217</v>
@@ -7630,7 +7654,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>148</v>
@@ -7641,7 +7665,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>148</v>
@@ -7652,7 +7676,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>148</v>
@@ -7663,7 +7687,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>148</v>
@@ -7674,7 +7698,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>148</v>
@@ -7685,10 +7709,10 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B168" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>4</v>
@@ -7696,10 +7720,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -7707,10 +7731,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -7718,10 +7742,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -7729,10 +7753,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B172" s="47" t="s">
         <v>309</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>310</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -7740,10 +7764,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>4</v>
@@ -7754,10 +7778,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>4</v>
@@ -7765,7 +7789,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>157</v>
@@ -7776,10 +7800,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>4</v>
@@ -7787,7 +7811,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>3</v>
@@ -7798,7 +7822,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>178</v>
@@ -7809,7 +7833,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>178</v>
@@ -7820,7 +7844,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>3</v>
@@ -7831,10 +7855,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>4</v>
@@ -7842,7 +7866,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>243</v>
@@ -7853,10 +7877,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>4</v>
@@ -7864,7 +7888,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>230</v>
@@ -7875,10 +7899,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>4</v>
@@ -7886,7 +7910,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>178</v>
@@ -7897,7 +7921,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>243</v>
@@ -7908,7 +7932,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>243</v>
@@ -7919,7 +7943,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>243</v>
@@ -7930,7 +7954,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>243</v>
@@ -7941,7 +7965,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>243</v>
@@ -7952,7 +7976,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>243</v>
@@ -7963,7 +7987,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>243</v>
@@ -7974,7 +7998,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>243</v>
@@ -7985,7 +8009,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>243</v>
@@ -7996,7 +8020,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>243</v>
@@ -8007,7 +8031,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>243</v>
@@ -8018,7 +8042,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>243</v>
@@ -8029,7 +8053,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>3</v>
@@ -8040,7 +8064,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -8051,7 +8075,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>3</v>
@@ -8062,7 +8086,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>3</v>
@@ -8073,7 +8097,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>3</v>
@@ -8084,7 +8108,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>3</v>
@@ -8095,7 +8119,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>3</v>
@@ -8106,7 +8130,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>3</v>
@@ -8117,7 +8141,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>3</v>
@@ -8128,7 +8152,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>3</v>
@@ -8139,7 +8163,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>3</v>
@@ -8150,7 +8174,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>3</v>
@@ -8161,7 +8185,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>243</v>
@@ -8172,10 +8196,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B212" s="48" t="s">
         <v>370</v>
-      </c>
-      <c r="B212" s="48" t="s">
-        <v>371</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>4</v>
@@ -8183,10 +8207,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>4</v>
@@ -8194,10 +8218,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>4</v>
@@ -8205,10 +8229,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>4</v>
@@ -8216,10 +8240,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>4</v>
@@ -8227,10 +8251,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>4</v>
@@ -8238,7 +8262,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>3</v>
@@ -8249,7 +8273,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>3</v>
@@ -8260,7 +8284,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>3</v>
@@ -8271,7 +8295,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>3</v>
@@ -8282,7 +8306,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>3</v>
@@ -8293,7 +8317,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>3</v>
@@ -8304,10 +8328,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>4</v>
@@ -8315,7 +8339,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>3</v>
@@ -8326,10 +8350,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>4</v>
@@ -8337,7 +8361,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>3</v>
@@ -8348,7 +8372,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>3</v>
@@ -8359,7 +8383,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>3</v>
@@ -8370,7 +8394,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>3</v>
@@ -8381,7 +8405,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>3</v>
@@ -8392,7 +8416,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>3</v>
@@ -8403,7 +8427,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>3</v>
@@ -8414,7 +8438,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>3</v>
@@ -8425,7 +8449,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>3</v>
@@ -8436,7 +8460,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>3</v>
@@ -8447,7 +8471,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>3</v>
@@ -8458,7 +8482,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>3</v>
@@ -8469,7 +8493,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>3</v>
@@ -8480,7 +8504,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>3</v>
@@ -8491,7 +8515,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>3</v>
@@ -8502,7 +8526,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>3</v>
@@ -8513,7 +8537,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>3</v>
@@ -8524,7 +8548,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>107</v>
@@ -8535,7 +8559,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B245" s="41" t="s">
         <v>110</v>
@@ -8546,10 +8570,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2</v>
@@ -8557,7 +8581,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -8568,10 +8592,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B248" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>4</v>
@@ -8579,10 +8603,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B249" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>4</v>
@@ -8590,7 +8614,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B250" s="41" t="s">
         <v>110</v>
@@ -8601,10 +8625,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -8612,7 +8636,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>3</v>
@@ -8623,10 +8647,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>4</v>
@@ -8634,10 +8658,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B254" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>4</v>
@@ -8645,7 +8669,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>107</v>
@@ -8656,7 +8680,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B256" s="41" t="s">
         <v>110</v>
@@ -8667,10 +8691,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -8678,7 +8702,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>3</v>
@@ -8689,10 +8713,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>4</v>
@@ -8703,10 +8727,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>4</v>
@@ -8717,7 +8741,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>88</v>
@@ -8728,7 +8752,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>88</v>
@@ -8739,7 +8763,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>88</v>
@@ -8750,7 +8774,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>88</v>
@@ -8761,7 +8785,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>88</v>
@@ -8772,7 +8796,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>88</v>
@@ -8783,7 +8807,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>88</v>
@@ -8794,7 +8818,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>88</v>
@@ -8805,7 +8829,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>88</v>
@@ -8816,7 +8840,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>3</v>
@@ -8827,7 +8851,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>3</v>
@@ -8838,7 +8862,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>3</v>
@@ -8849,7 +8873,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>3</v>
@@ -8860,7 +8884,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -8871,7 +8895,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>3</v>
@@ -8882,7 +8906,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>3</v>
@@ -8893,7 +8917,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>3</v>
@@ -8904,7 +8928,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>3</v>
@@ -8915,10 +8939,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B279" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>4</v>
@@ -8926,10 +8950,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B280" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>4</v>
@@ -8937,10 +8961,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B281" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>4</v>
@@ -8948,10 +8972,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B282" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>4</v>
@@ -8959,10 +8983,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>4</v>
@@ -8970,10 +8994,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>4</v>
@@ -8981,10 +9005,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>4</v>
@@ -8992,7 +9016,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>3</v>
@@ -9003,7 +9027,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>3</v>
@@ -9014,7 +9038,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>3</v>
@@ -9025,7 +9049,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>3</v>
@@ -9036,7 +9060,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>3</v>
@@ -9047,7 +9071,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>3</v>
@@ -9058,10 +9082,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B292" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>4</v>
@@ -9069,10 +9093,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B293" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>4</v>
@@ -9080,7 +9104,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>3</v>
@@ -9091,7 +9115,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>3</v>
@@ -9102,10 +9126,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>4</v>
@@ -9116,10 +9140,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B297" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>4</v>
@@ -9127,10 +9151,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B298" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>4</v>
@@ -9138,7 +9162,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>3</v>
@@ -9149,7 +9173,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>3</v>
@@ -9160,10 +9184,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B301" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>4</v>
@@ -9171,10 +9195,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B302" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>4</v>
@@ -9182,10 +9206,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B303" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>4</v>
@@ -9193,10 +9217,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>4</v>
@@ -9204,10 +9228,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B305" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>4</v>
@@ -9215,10 +9239,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B306" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>4</v>
@@ -9226,10 +9250,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B307" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>4</v>
@@ -9237,10 +9261,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>4</v>
@@ -9248,10 +9272,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>4</v>
@@ -9259,10 +9283,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B310" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>4</v>
@@ -9270,10 +9294,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B311" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>4</v>
@@ -9281,10 +9305,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B312" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>4</v>
@@ -9292,10 +9316,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B313" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>4</v>
@@ -9303,10 +9327,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B314" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>4</v>
@@ -9314,10 +9338,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B315" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>4</v>
@@ -9325,10 +9349,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B316" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>4</v>
@@ -9336,10 +9360,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>4</v>
@@ -9347,10 +9371,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>4</v>
@@ -9358,10 +9382,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>4</v>
@@ -9369,7 +9393,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>3</v>
@@ -9380,7 +9404,7 @@
     </row>
     <row r="321" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>3</v>
@@ -9391,7 +9415,7 @@
     </row>
     <row r="322" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>3</v>
@@ -9402,7 +9426,7 @@
     </row>
     <row r="323" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>3</v>
@@ -9413,7 +9437,7 @@
     </row>
     <row r="324" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>3</v>
@@ -9424,7 +9448,7 @@
     </row>
     <row r="325" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>3</v>
@@ -9435,7 +9459,7 @@
     </row>
     <row r="326" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>3</v>
@@ -9446,10 +9470,10 @@
     </row>
     <row r="327" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>4</v>
@@ -9460,10 +9484,10 @@
     </row>
     <row r="328" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>4</v>
@@ -9474,16 +9498,16 @@
     </row>
     <row r="329" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="B329" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C329" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="51" t="s">
         <v>491</v>
-      </c>
-      <c r="B329" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="C329" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" s="51" t="s">
-        <v>492</v>
       </c>
       <c r="E329" s="50" t="s">
         <v>70</v>
@@ -9647,7 +9671,7 @@
     </row>
     <row r="330" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B330" s="50" t="s">
         <v>153</v>
@@ -9656,7 +9680,7 @@
         <v>4</v>
       </c>
       <c r="D330" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E330" s="50" t="s">
         <v>81</v>
@@ -9820,16 +9844,16 @@
     </row>
     <row r="331" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B331" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C331" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D331" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E331" s="50" t="s">
         <v>81</v>
@@ -9993,10 +10017,10 @@
     </row>
     <row r="332" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A332" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B332" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C332" s="50" t="s">
         <v>4</v>
@@ -10004,10 +10028,10 @@
     </row>
     <row r="333" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A333" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B333" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C333" s="50" t="s">
         <v>4</v>
@@ -10015,10 +10039,10 @@
     </row>
     <row r="334" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A334" s="50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B334" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C334" s="50" t="s">
         <v>4</v>
@@ -10026,10 +10050,10 @@
     </row>
     <row r="335" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A335" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B335" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C335" s="50" t="s">
         <v>4</v>
@@ -10037,10 +10061,10 @@
     </row>
     <row r="336" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A336" s="50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B336" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C336" s="50" t="s">
         <v>4</v>
@@ -10048,10 +10072,10 @@
     </row>
     <row r="337" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A337" s="50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B337" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C337" s="50" t="s">
         <v>4</v>
@@ -10059,10 +10083,10 @@
     </row>
     <row r="338" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A338" s="50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B338" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C338" s="50" t="s">
         <v>4</v>
@@ -10070,7 +10094,7 @@
     </row>
     <row r="339" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A339" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B339" s="51" t="s">
         <v>184</v>
@@ -10081,7 +10105,7 @@
     </row>
     <row r="340" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A340" s="50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B340" s="51" t="s">
         <v>184</v>
@@ -10092,7 +10116,7 @@
     </row>
     <row r="341" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A341" s="50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B341" s="51" t="s">
         <v>184</v>
@@ -10103,7 +10127,7 @@
     </row>
     <row r="342" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B342" s="50" t="s">
         <v>86</v>
@@ -10225,7 +10249,7 @@
     </row>
     <row r="343" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B343" s="50" t="s">
         <v>86</v>
@@ -10347,7 +10371,7 @@
     </row>
     <row r="344" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B344" s="50" t="s">
         <v>86</v>
@@ -10469,10 +10493,10 @@
     </row>
     <row r="345" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="B345" s="50" t="s">
         <v>508</v>
-      </c>
-      <c r="B345" s="50" t="s">
-        <v>509</v>
       </c>
       <c r="C345" s="50" t="s">
         <v>4</v>
@@ -10591,10 +10615,10 @@
     </row>
     <row r="346" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="B346" s="50" t="s">
         <v>510</v>
-      </c>
-      <c r="B346" s="50" t="s">
-        <v>511</v>
       </c>
       <c r="C346" s="50" t="s">
         <v>4</v>
@@ -10713,7 +10737,7 @@
     </row>
     <row r="347" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="50" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B347" s="50" t="s">
         <v>165</v>
@@ -10722,15 +10746,15 @@
         <v>4</v>
       </c>
       <c r="D347" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="348" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B348" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C348" s="51" t="s">
         <v>4</v>
@@ -10738,10 +10762,10 @@
     </row>
     <row r="349" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B349" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C349" s="51" t="s">
         <v>4</v>
@@ -10749,7 +10773,7 @@
     </row>
     <row r="350" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B350" s="50" t="s">
         <v>162</v>
@@ -10760,7 +10784,7 @@
     </row>
     <row r="351" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B351" s="50" t="s">
         <v>162</v>
@@ -10771,7 +10795,7 @@
     </row>
     <row r="352" spans="1:40" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A352" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B352" s="52" t="s">
         <v>148</v>
@@ -10782,7 +10806,7 @@
     </row>
     <row r="353" spans="1:3" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A353" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B353" s="52" t="s">
         <v>148</v>
@@ -10793,10 +10817,10 @@
     </row>
     <row r="354" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="B354" s="50" t="s">
         <v>519</v>
-      </c>
-      <c r="B354" s="50" t="s">
-        <v>520</v>
       </c>
       <c r="C354" s="50" t="s">
         <v>4</v>
@@ -10804,7 +10828,7 @@
     </row>
     <row r="355" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B355" s="53" t="s">
         <v>150</v>
@@ -10815,7 +10839,7 @@
     </row>
     <row r="356" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B356" s="53" t="s">
         <v>150</v>
@@ -10826,10 +10850,10 @@
     </row>
     <row r="357" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="B357" s="53" t="s">
         <v>523</v>
-      </c>
-      <c r="B357" s="53" t="s">
-        <v>524</v>
       </c>
       <c r="C357" s="50" t="s">
         <v>4</v>
@@ -10837,10 +10861,10 @@
     </row>
     <row r="358" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B358" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C358" s="50" t="s">
         <v>4</v>
@@ -10848,10 +10872,10 @@
     </row>
     <row r="359" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B359" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C359" s="50" t="s">
         <v>4</v>
@@ -10859,10 +10883,10 @@
     </row>
     <row r="360" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B360" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C360" s="50" t="s">
         <v>4</v>
@@ -10870,10 +10894,10 @@
     </row>
     <row r="361" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B361" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C361" s="50" t="s">
         <v>4</v>
@@ -10881,10 +10905,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B362" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C362" s="50" t="s">
         <v>4</v>
@@ -10892,7 +10916,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B363" s="7" t="s">
         <v>3</v>
@@ -10903,7 +10927,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>3</v>
@@ -10914,7 +10938,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>3</v>
@@ -10925,7 +10949,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B366" s="7" t="s">
         <v>3</v>
@@ -10936,7 +10960,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B367" s="7" t="s">
         <v>3</v>
@@ -10947,7 +10971,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B368" s="7" t="s">
         <v>3</v>
@@ -10958,7 +10982,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B369" s="7" t="s">
         <v>3</v>
@@ -10969,7 +10993,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>3</v>
@@ -10980,7 +11004,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B371" s="7" t="s">
         <v>3</v>
@@ -10991,7 +11015,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>3</v>
@@ -11002,7 +11026,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B373" s="7" t="s">
         <v>3</v>
@@ -11013,7 +11037,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>3</v>
@@ -11024,7 +11048,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>3</v>
@@ -11035,7 +11059,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B376" s="7" t="s">
         <v>3</v>
@@ -11046,7 +11070,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B377" s="7" t="s">
         <v>3</v>
@@ -11057,7 +11081,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B378" s="7" t="s">
         <v>3</v>
@@ -11068,7 +11092,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>3</v>
@@ -11079,7 +11103,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B380" s="7" t="s">
         <v>3</v>
@@ -11090,7 +11114,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B381" s="7" t="s">
         <v>3</v>
@@ -11101,7 +11125,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>3</v>
@@ -11112,7 +11136,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>3</v>
@@ -11123,7 +11147,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>3</v>
@@ -11134,7 +11158,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>3</v>
@@ -11145,7 +11169,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B386" s="7" t="s">
         <v>3</v>
@@ -11156,7 +11180,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>3</v>
@@ -11167,7 +11191,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B388" s="7" t="s">
         <v>3</v>
@@ -11178,7 +11202,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B389" s="7" t="s">
         <v>3</v>
@@ -11189,7 +11213,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>3</v>
@@ -11200,7 +11224,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B391" s="42" t="s">
         <v>86</v>
@@ -11211,7 +11235,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>3</v>
@@ -11222,10 +11246,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>4</v>
@@ -11233,7 +11257,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>3</v>
@@ -11244,7 +11268,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>3</v>
@@ -11255,10 +11279,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B396" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>2</v>
@@ -11266,10 +11290,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>4</v>
@@ -11277,10 +11301,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>2</v>
@@ -11288,10 +11312,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>4</v>
@@ -11299,10 +11323,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>2</v>
@@ -11310,10 +11334,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B401" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="B401" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>2</v>
@@ -11321,10 +11345,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>2</v>
@@ -11332,10 +11356,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>4</v>
@@ -11343,10 +11367,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>2</v>
@@ -11354,10 +11378,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>4</v>
@@ -11365,10 +11389,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>2</v>
@@ -11376,7 +11400,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B407" s="42" t="s">
         <v>86</v>
@@ -11387,7 +11411,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B408" s="42" t="s">
         <v>86</v>
@@ -11398,10 +11422,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>4</v>
@@ -11409,10 +11433,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>4</v>
@@ -11420,10 +11444,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>4</v>
@@ -11431,10 +11455,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>4</v>
@@ -11442,10 +11466,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>4</v>
@@ -11453,10 +11477,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>4</v>
@@ -11464,7 +11488,7 @@
     </row>
     <row r="415" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="45" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B415" s="7" t="s">
         <v>174</v>
@@ -11475,10 +11499,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>4</v>
@@ -11486,7 +11510,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>157</v>
@@ -11497,7 +11521,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B418" s="7" t="s">
         <v>157</v>
@@ -11508,7 +11532,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B419" s="7" t="s">
         <v>157</v>
@@ -11519,7 +11543,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B420" s="7" t="s">
         <v>157</v>
@@ -11530,7 +11554,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>157</v>
@@ -11541,7 +11565,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>178</v>
@@ -11552,7 +11576,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B423" s="7" t="s">
         <v>178</v>
@@ -11563,7 +11587,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B424" s="7" t="s">
         <v>178</v>
@@ -11574,7 +11598,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B425" s="7" t="s">
         <v>178</v>
@@ -11585,7 +11609,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B426" s="7" t="s">
         <v>178</v>
@@ -11596,7 +11620,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>178</v>
@@ -11607,7 +11631,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B428" s="7" t="s">
         <v>178</v>
@@ -11618,7 +11642,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>157</v>
@@ -11629,7 +11653,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>157</v>
@@ -11640,10 +11664,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B431" s="50" t="s">
         <v>603</v>
-      </c>
-      <c r="B431" s="50" t="s">
-        <v>604</v>
       </c>
       <c r="C431" s="50" t="s">
         <v>4</v>
@@ -11654,7 +11678,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>88</v>
@@ -11665,7 +11689,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>3</v>
@@ -11676,7 +11700,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>107</v>
@@ -11687,7 +11711,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>3</v>
@@ -11698,10 +11722,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B436" s="50" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C436" s="50" t="s">
         <v>4</v>
@@ -11712,7 +11736,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>178</v>
@@ -11723,7 +11747,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>178</v>
@@ -11734,7 +11758,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>178</v>
@@ -11745,7 +11769,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>178</v>
@@ -11756,7 +11780,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B441" s="7" t="s">
         <v>178</v>
@@ -11767,7 +11791,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B442" s="7" t="s">
         <v>178</v>
@@ -11778,10 +11802,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B443" s="55" t="s">
         <v>616</v>
-      </c>
-      <c r="B443" s="55" t="s">
-        <v>617</v>
       </c>
       <c r="C443" s="56" t="s">
         <v>4</v>
@@ -11789,10 +11813,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B444" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C444" s="56" t="s">
         <v>4</v>
@@ -11800,10 +11824,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B445" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C445" s="56" t="s">
         <v>4</v>
@@ -11811,10 +11835,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B446" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C446" s="56" t="s">
         <v>4</v>
@@ -11822,10 +11846,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B447" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C447" s="56" t="s">
         <v>4</v>
@@ -11833,10 +11857,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B448" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C448" s="56" t="s">
         <v>4</v>
@@ -11844,10 +11868,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B449" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="B449" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="C449" t="s">
         <v>2</v>
@@ -11855,10 +11879,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C450" t="s">
         <v>2</v>
@@ -11866,10 +11890,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B451" s="57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C451" s="58" t="s">
         <v>2</v>
@@ -11877,10 +11901,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B452" s="57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C452" s="58" t="s">
         <v>2</v>
@@ -11888,10 +11912,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C453" t="s">
         <v>2</v>
@@ -11899,10 +11923,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C454" t="s">
         <v>2</v>
@@ -11910,10 +11934,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="65" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B455" s="65" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C455" s="66" t="s">
         <v>2</v>
@@ -11921,10 +11945,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="65" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B456" s="65" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C456" s="66" t="s">
         <v>2</v>
@@ -11932,7 +11956,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="65" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B457" s="65" t="s">
         <v>88</v>
@@ -11943,7 +11967,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="66" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B458" s="66" t="s">
         <v>3</v>
@@ -11954,10 +11978,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="66" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B459" s="66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C459" s="66" t="s">
         <v>2</v>
@@ -11965,10 +11989,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="66" t="s">
+        <v>634</v>
+      </c>
+      <c r="B460" s="66" t="s">
         <v>635</v>
-      </c>
-      <c r="B460" s="66" t="s">
-        <v>636</v>
       </c>
       <c r="C460" s="66" t="s">
         <v>4</v>
@@ -11976,7 +12000,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="66" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B461" s="66" t="s">
         <v>243</v>
@@ -11987,7 +12011,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="66" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B462" s="66" t="s">
         <v>243</v>
@@ -11998,7 +12022,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="66" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B463" s="66" t="s">
         <v>243</v>
@@ -12009,40 +12033,40 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="66" t="s">
+        <v>639</v>
+      </c>
+      <c r="B464" s="66" t="s">
         <v>640</v>
       </c>
-      <c r="B464" s="66" t="s">
+      <c r="C464" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="66" t="s">
         <v>641</v>
       </c>
-      <c r="C464" s="66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="66" t="s">
+      <c r="B465" s="66" t="s">
         <v>642</v>
       </c>
-      <c r="B465" s="66" t="s">
+      <c r="C465" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="66" t="s">
         <v>643</v>
       </c>
-      <c r="C465" s="66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="66" t="s">
+      <c r="B466" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="C466" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="66" t="s">
         <v>644</v>
-      </c>
-      <c r="B466" s="66" t="s">
-        <v>568</v>
-      </c>
-      <c r="C466" s="66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="66" t="s">
-        <v>645</v>
       </c>
       <c r="B467" s="66" t="s">
         <v>243</v>
@@ -12051,42 +12075,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="66" t="s">
+        <v>645</v>
+      </c>
+      <c r="B468" s="66" t="s">
         <v>646</v>
       </c>
-      <c r="B468" s="66" t="s">
+      <c r="C468" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="66" t="s">
         <v>647</v>
       </c>
-      <c r="C468" s="66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="66" t="s">
+      <c r="B469" s="66" t="s">
+        <v>646</v>
+      </c>
+      <c r="C469" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="66" t="s">
         <v>648</v>
       </c>
-      <c r="B469" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="C469" s="66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="66" t="s">
+      <c r="B470" s="66" t="s">
+        <v>646</v>
+      </c>
+      <c r="C470" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="B470" s="66" t="s">
-        <v>636</v>
-      </c>
-      <c r="C470" s="66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="B471" s="7" t="s">
         <v>88</v>
@@ -12095,9 +12119,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>88</v>
@@ -12106,14 +12130,248 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C473" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B474" s="50" t="s">
+        <v>603</v>
+      </c>
+      <c r="C474" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D474" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B475" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C476" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B477" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C477" s="65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A478" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B478" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B480" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B481" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C481" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B488" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B491" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C491" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C494" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12162,7 +12420,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12170,7 +12428,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -12178,7 +12436,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12186,11 +12444,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -12208,7 +12466,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12216,7 +12474,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12224,7 +12482,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="677">
   <si>
     <t>Username</t>
   </si>
@@ -2041,6 +2041,18 @@
   </si>
   <si>
     <t>TC_971898_ValidateViewHistoryNotFiledUsingHRB</t>
+  </si>
+  <si>
+    <t>Tc_1012378_ValidateDfltYearForUserbfrAprl30</t>
+  </si>
+  <si>
+    <t>Tc_1012379_ValidateDfltYearForUserOnMay1</t>
+  </si>
+  <si>
+    <t>Tc_1012380_ValidateDfltYearForUserAftrMay1</t>
+  </si>
+  <si>
+    <t>tkqa02072018</t>
   </si>
 </sst>
 </file>
@@ -2557,6 +2569,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2575,8 +2589,6 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3325,13 +3337,13 @@
       <c r="C10" s="35"/>
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="27"/>
@@ -3383,10 +3395,10 @@
       <c r="C14" s="35"/>
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="G14" s="62"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="19" t="s">
         <v>331</v>
       </c>
@@ -3415,10 +3427,10 @@
       <c r="C16" s="35"/>
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="54" t="s">
         <v>364</v>
       </c>
@@ -3579,11 +3591,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE494"/>
+  <dimension ref="A1:BE497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B494" sqref="B494:C494"/>
+      <pane ySplit="2" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B372" sqref="B372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,10 +3609,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -8375,10 +8387,10 @@
         <v>386</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -8386,10 +8398,10 @@
         <v>387</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -8397,10 +8409,10 @@
         <v>388</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -8408,10 +8420,10 @@
         <v>394</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,10 +8431,10 @@
         <v>389</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -8430,10 +8442,10 @@
         <v>390</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -8441,10 +8453,10 @@
         <v>391</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -8452,10 +8464,10 @@
         <v>392</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -8463,10 +8475,10 @@
         <v>393</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -8474,10 +8486,10 @@
         <v>395</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -8485,10 +8497,10 @@
         <v>396</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -8496,10 +8508,10 @@
         <v>397</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -8507,10 +8519,10 @@
         <v>398</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -8518,10 +8530,10 @@
         <v>399</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -8529,10 +8541,10 @@
         <v>400</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -8540,10 +8552,10 @@
         <v>401</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>3</v>
+        <v>676</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -9275,7 +9287,7 @@
         <v>470</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>4</v>
@@ -9286,7 +9298,7 @@
         <v>471</v>
       </c>
       <c r="B310" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>4</v>
@@ -9297,7 +9309,7 @@
         <v>472</v>
       </c>
       <c r="B311" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>4</v>
@@ -9308,7 +9320,7 @@
         <v>473</v>
       </c>
       <c r="B312" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>4</v>
@@ -9319,7 +9331,7 @@
         <v>474</v>
       </c>
       <c r="B313" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>4</v>
@@ -9330,7 +9342,7 @@
         <v>475</v>
       </c>
       <c r="B314" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>4</v>
@@ -9341,7 +9353,7 @@
         <v>476</v>
       </c>
       <c r="B315" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>4</v>
@@ -9352,7 +9364,7 @@
         <v>477</v>
       </c>
       <c r="B316" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>4</v>
@@ -9363,7 +9375,7 @@
         <v>478</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>4</v>
@@ -9374,7 +9386,7 @@
         <v>479</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>4</v>
@@ -9385,7 +9397,7 @@
         <v>480</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>4</v>
@@ -11039,99 +11051,99 @@
       <c r="A374" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B374" s="7" t="s">
-        <v>3</v>
+      <c r="B374" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B375" s="7" t="s">
-        <v>3</v>
+      <c r="B375" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B376" s="7" t="s">
-        <v>3</v>
+      <c r="B376" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B377" s="7" t="s">
-        <v>3</v>
+      <c r="B377" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B378" s="7" t="s">
-        <v>3</v>
+      <c r="B378" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B379" s="7" t="s">
-        <v>3</v>
+      <c r="B379" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B380" s="7" t="s">
-        <v>3</v>
+      <c r="B380" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B381" s="7" t="s">
-        <v>3</v>
+      <c r="B381" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B382" s="7" t="s">
-        <v>3</v>
+      <c r="B382" s="48" t="s">
+        <v>676</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -11332,7 +11344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>570</v>
       </c>
@@ -11343,7 +11355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>572</v>
       </c>
@@ -11354,7 +11366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>573</v>
       </c>
@@ -11365,7 +11377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>574</v>
       </c>
@@ -11376,7 +11388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>575</v>
       </c>
@@ -11387,7 +11399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>576</v>
       </c>
@@ -11398,7 +11410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>577</v>
       </c>
@@ -11409,7 +11421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>578</v>
       </c>
@@ -11420,7 +11432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>579</v>
       </c>
@@ -11431,7 +11443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>580</v>
       </c>
@@ -11442,7 +11454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>581</v>
       </c>
@@ -11452,8 +11464,11 @@
       <c r="C411" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>582</v>
       </c>
@@ -11463,8 +11478,11 @@
       <c r="C412" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>583</v>
       </c>
@@ -11475,7 +11493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>584</v>
       </c>
@@ -11486,7 +11504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="45" t="s">
         <v>585</v>
       </c>
@@ -11497,7 +11515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>586</v>
       </c>
@@ -11933,178 +11951,178 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="65" t="s">
+      <c r="A455" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="B455" s="65" t="s">
+      <c r="B455" s="59" t="s">
         <v>623</v>
       </c>
-      <c r="C455" s="66" t="s">
+      <c r="C455" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="65" t="s">
+      <c r="A456" s="59" t="s">
         <v>630</v>
       </c>
-      <c r="B456" s="65" t="s">
+      <c r="B456" s="59" t="s">
         <v>567</v>
       </c>
-      <c r="C456" s="66" t="s">
+      <c r="C456" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="65" t="s">
+      <c r="A457" s="59" t="s">
         <v>631</v>
       </c>
-      <c r="B457" s="65" t="s">
+      <c r="B457" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C457" s="65" t="s">
+      <c r="C457" s="59" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="66" t="s">
+      <c r="A458" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="B458" s="66" t="s">
+      <c r="B458" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C458" s="66" t="s">
+      <c r="C458" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="66" t="s">
+      <c r="A459" s="60" t="s">
         <v>633</v>
       </c>
-      <c r="B459" s="66" t="s">
+      <c r="B459" s="60" t="s">
         <v>567</v>
       </c>
-      <c r="C459" s="66" t="s">
+      <c r="C459" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="66" t="s">
+      <c r="A460" s="60" t="s">
         <v>634</v>
       </c>
-      <c r="B460" s="66" t="s">
+      <c r="B460" s="60" t="s">
         <v>635</v>
       </c>
-      <c r="C460" s="66" t="s">
+      <c r="C460" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="66" t="s">
+      <c r="A461" s="60" t="s">
         <v>636</v>
       </c>
-      <c r="B461" s="66" t="s">
+      <c r="B461" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C461" s="66" t="s">
+      <c r="C461" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="66" t="s">
+      <c r="A462" s="60" t="s">
         <v>637</v>
       </c>
-      <c r="B462" s="66" t="s">
+      <c r="B462" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C462" s="66" t="s">
+      <c r="C462" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="66" t="s">
+      <c r="A463" s="60" t="s">
         <v>638</v>
       </c>
-      <c r="B463" s="66" t="s">
+      <c r="B463" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C463" s="66" t="s">
+      <c r="C463" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="66" t="s">
+      <c r="A464" s="60" t="s">
         <v>639</v>
       </c>
-      <c r="B464" s="66" t="s">
+      <c r="B464" s="60" t="s">
         <v>640</v>
       </c>
-      <c r="C464" s="66" t="s">
+      <c r="C464" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="66" t="s">
+      <c r="A465" s="60" t="s">
         <v>641</v>
       </c>
-      <c r="B465" s="66" t="s">
+      <c r="B465" s="60" t="s">
         <v>642</v>
       </c>
-      <c r="C465" s="66" t="s">
+      <c r="C465" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="66" t="s">
+      <c r="A466" s="60" t="s">
         <v>643</v>
       </c>
-      <c r="B466" s="66" t="s">
+      <c r="B466" s="60" t="s">
         <v>567</v>
       </c>
-      <c r="C466" s="66" t="s">
+      <c r="C466" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="66" t="s">
+      <c r="A467" s="60" t="s">
         <v>644</v>
       </c>
-      <c r="B467" s="66" t="s">
+      <c r="B467" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="C467" s="66" t="s">
+      <c r="C467" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="66" t="s">
+      <c r="A468" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="B468" s="66" t="s">
+      <c r="B468" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="C468" s="66" t="s">
+      <c r="C468" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="66" t="s">
+      <c r="A469" s="60" t="s">
         <v>647</v>
       </c>
-      <c r="B469" s="66" t="s">
+      <c r="B469" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="C469" s="66" t="s">
+      <c r="C469" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="66" t="s">
+      <c r="A470" s="60" t="s">
         <v>648</v>
       </c>
-      <c r="B470" s="66" t="s">
+      <c r="B470" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="C470" s="66" t="s">
+      <c r="C470" s="60" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12181,10 +12199,10 @@
       <c r="A477" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B477" s="65" t="s">
+      <c r="B477" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C477" s="65" t="s">
+      <c r="C477" s="59" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12372,6 +12390,39 @@
         <v>107</v>
       </c>
       <c r="C494" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C495" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C497" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="679">
   <si>
     <t>Username</t>
   </si>
@@ -2053,6 +2053,12 @@
   </si>
   <si>
     <t>tkqa02072018</t>
+  </si>
+  <si>
+    <t>tkqa282018_181710</t>
+  </si>
+  <si>
+    <t>tkqa282018_182453</t>
   </si>
 </sst>
 </file>
@@ -3594,8 +3600,8 @@
   <dimension ref="A1:BE497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B372" sqref="B372"/>
+      <pane ySplit="2" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C270" sqref="C270:C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,10 +8861,10 @@
         <v>431</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -8866,10 +8872,10 @@
         <v>432</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -8877,10 +8883,10 @@
         <v>433</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,10 +8894,10 @@
         <v>434</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8899,10 +8905,10 @@
         <v>435</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8910,10 +8916,10 @@
         <v>436</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -8921,10 +8927,10 @@
         <v>437</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -8932,10 +8938,10 @@
         <v>438</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -8943,10 +8949,10 @@
         <v>439</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -10931,10 +10937,10 @@
         <v>529</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -10942,10 +10948,10 @@
         <v>530</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -10953,10 +10959,10 @@
         <v>531</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -10964,10 +10970,10 @@
         <v>532</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -10975,10 +10981,10 @@
         <v>533</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -10986,10 +10992,10 @@
         <v>534</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -10997,10 +11003,10 @@
         <v>535</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -11008,10 +11014,10 @@
         <v>536</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -11019,10 +11025,10 @@
         <v>537</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -11030,10 +11036,10 @@
         <v>538</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -11041,10 +11047,10 @@
         <v>539</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -11151,10 +11157,10 @@
         <v>549</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -11162,10 +11168,10 @@
         <v>550</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -11173,10 +11179,10 @@
         <v>551</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -11184,10 +11190,10 @@
         <v>553</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -11195,10 +11201,10 @@
         <v>556</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -11206,10 +11212,10 @@
         <v>552</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -11217,10 +11223,10 @@
         <v>554</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -11228,10 +11234,10 @@
         <v>555</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>3</v>
+        <v>677</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -16,13 +16,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Config!$E$13:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Testdata!$A$2:$BE$497</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="700">
   <si>
     <t>Username</t>
   </si>
@@ -408,9 +409,6 @@
     <t>Subscribe</t>
   </si>
   <si>
-    <t>TC14_VerifyandValidateEditfunctionalityCheckboxstatusforIDPuser</t>
-  </si>
-  <si>
     <t>Automation</t>
   </si>
   <si>
@@ -2059,6 +2057,72 @@
   </si>
   <si>
     <t>tkqa282018_182453</t>
+  </si>
+  <si>
+    <t>Tc_940183_UpldMltplDocAbove10MB</t>
+  </si>
+  <si>
+    <t>Tc_940196_UpldDoc10MBValidateForNewUser</t>
+  </si>
+  <si>
+    <t>TC_940235_MoveDocmntFrmTY2016ToTY2015</t>
+  </si>
+  <si>
+    <t>TC_940236_MoveDocAndClickCloseButton</t>
+  </si>
+  <si>
+    <t>TC_940237_MoveDocAndCloseApplicationAndValidate</t>
+  </si>
+  <si>
+    <t>Tc_999586_ValidateMyDocumentUIforProspectiveUser</t>
+  </si>
+  <si>
+    <t>Tc_966428_ValidateMyDocumentUIforDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_966429_ValidateMyDocumentUIforSWUser</t>
+  </si>
+  <si>
+    <t>Tc_966430_ValidateMyDocumentUIforAOLUser</t>
+  </si>
+  <si>
+    <t>TC_963697_ChangeFileNameAndTYvalidate</t>
+  </si>
+  <si>
+    <t>TC_963698_ChangeCategoryAndTYvalidate</t>
+  </si>
+  <si>
+    <t>Tc_1059032_ValidateUIforMyDocPage</t>
+  </si>
+  <si>
+    <t>TC_1020721_ValidateEditFunctionalityFor2017</t>
+  </si>
+  <si>
+    <t>TC_922003_ValidateCharacterValidationForFileNameField</t>
+  </si>
+  <si>
+    <t>TC_922004_ValidateDfltCategoryInEditPage</t>
+  </si>
+  <si>
+    <t>Tc_919602_ValidatePodNavigationForMyDocuments</t>
+  </si>
+  <si>
+    <t>Tc_1015059_ValidateColorOfSearchIcon</t>
+  </si>
+  <si>
+    <t>Tc_1015060_ValidateColorOfSortIcon</t>
+  </si>
+  <si>
+    <t>Tc_1015061_ValidateColorOfSingleSelectedFile</t>
+  </si>
+  <si>
+    <t>Tc_1015064_ValidateColorOfMultipleSelectedFile</t>
+  </si>
+  <si>
+    <t>Tc_1015065_ValidateIconsPresent</t>
+  </si>
+  <si>
+    <t>Tc_999985_ValidateFillingStatusIcon</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3408,7 @@
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
       <c r="F10" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
@@ -3402,11 +3466,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
       <c r="F14" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -3434,11 +3498,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
       <c r="F16" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -3535,7 +3599,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="33"/>
       <c r="E23" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -3597,11 +3661,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE497"/>
+  <dimension ref="A1:BE519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C270" sqref="C270:C278"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3680,7 @@
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="21"/>
@@ -3627,7 +3691,7 @@
     </row>
     <row r="2" spans="1:57" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>0</v>
@@ -4324,10 +4388,10 @@
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>128</v>
+        <v>491</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>4</v>
@@ -4444,63 +4508,63 @@
         <v>81</v>
       </c>
       <c r="AO28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP28" s="7" t="s">
+      <c r="AQ28" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ28" s="7" t="s">
+      <c r="AR28" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR28" s="7" t="s">
+      <c r="AS28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS28" s="7" t="s">
+      <c r="AT28" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT28" s="7" t="s">
+      <c r="AU28" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU28" s="7" t="s">
+      <c r="AV28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AV28" s="7" t="s">
+      <c r="AW28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AW28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY28" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB28" s="7" t="s">
+      <c r="BC28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC28" s="7" t="s">
+      <c r="BD28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD28" s="7" t="s">
+      <c r="BE28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE28" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -4617,63 +4681,63 @@
         <v>81</v>
       </c>
       <c r="AO29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP29" s="7" t="s">
+      <c r="AQ29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ29" s="7" t="s">
+      <c r="AR29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR29" s="7" t="s">
+      <c r="AS29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS29" s="7" t="s">
+      <c r="AT29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT29" s="7" t="s">
+      <c r="AU29" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU29" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV29" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX29" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX29" s="7" t="s">
+      <c r="AY29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY29" s="7" t="s">
+      <c r="AZ29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ29" s="7" t="s">
+      <c r="BA29" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA29" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC29" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC29" s="7" t="s">
+      <c r="BD29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD29" s="7" t="s">
+      <c r="BE29" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE29" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>4</v>
@@ -4790,63 +4854,63 @@
         <v>81</v>
       </c>
       <c r="AO30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP30" s="7" t="s">
+      <c r="AQ30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ30" s="7" t="s">
+      <c r="AR30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR30" s="7" t="s">
+      <c r="AS30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS30" s="7" t="s">
+      <c r="AT30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT30" s="7" t="s">
+      <c r="AU30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU30" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV30" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX30" s="7" t="s">
+      <c r="AY30" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY30" s="7" t="s">
+      <c r="AZ30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ30" s="7" t="s">
+      <c r="BA30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA30" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC30" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC30" s="7" t="s">
+      <c r="BD30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD30" s="7" t="s">
+      <c r="BE30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE30" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -4963,63 +5027,63 @@
         <v>81</v>
       </c>
       <c r="AO31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP31" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP31" s="7" t="s">
+      <c r="AQ31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ31" s="7" t="s">
+      <c r="AR31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR31" s="7" t="s">
+      <c r="AS31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS31" s="7" t="s">
+      <c r="AT31" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT31" s="7" t="s">
+      <c r="AU31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU31" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV31" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX31" s="7" t="s">
+      <c r="AY31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY31" s="7" t="s">
+      <c r="AZ31" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ31" s="7" t="s">
+      <c r="BA31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA31" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC31" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC31" s="7" t="s">
+      <c r="BD31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD31" s="7" t="s">
+      <c r="BE31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE31" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>4</v>
@@ -5136,63 +5200,63 @@
         <v>81</v>
       </c>
       <c r="AO32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP32" s="7" t="s">
+      <c r="AQ32" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ32" s="7" t="s">
+      <c r="AR32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR32" s="7" t="s">
+      <c r="AS32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS32" s="7" t="s">
+      <c r="AT32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT32" s="7" t="s">
+      <c r="AU32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU32" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX32" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX32" s="7" t="s">
+      <c r="AY32" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY32" s="7" t="s">
+      <c r="AZ32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ32" s="7" t="s">
+      <c r="BA32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA32" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC32" s="7" t="s">
+      <c r="BD32" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD32" s="7" t="s">
+      <c r="BE32" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE32" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>4</v>
@@ -5309,63 +5373,63 @@
         <v>81</v>
       </c>
       <c r="AO33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP33" s="7" t="s">
+      <c r="AQ33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ33" s="7" t="s">
+      <c r="AR33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR33" s="7" t="s">
+      <c r="AS33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS33" s="7" t="s">
+      <c r="AT33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT33" s="7" t="s">
+      <c r="AU33" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU33" s="7" t="s">
+      <c r="AV33" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AV33" s="7" t="s">
+      <c r="AW33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB33" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AW33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA33" s="7" t="s">
+      <c r="BC33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD33" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE33" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="BB33" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC33" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD33" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE33" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>4</v>
@@ -5482,63 +5546,63 @@
         <v>81</v>
       </c>
       <c r="AO34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP34" s="7" t="s">
+      <c r="AQ34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ34" s="7" t="s">
+      <c r="AR34" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR34" s="7" t="s">
+      <c r="AS34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS34" s="7" t="s">
+      <c r="AT34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT34" s="7" t="s">
+      <c r="AU34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU34" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV34" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX34" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX34" s="7" t="s">
+      <c r="AY34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY34" s="7" t="s">
+      <c r="AZ34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ34" s="7" t="s">
+      <c r="BA34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA34" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC34" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC34" s="7" t="s">
+      <c r="BD34" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD34" s="7" t="s">
+      <c r="BE34" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE34" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:57" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>147</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>148</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>2</v>
@@ -5655,63 +5719,63 @@
         <v>81</v>
       </c>
       <c r="AO35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP35" s="7" t="s">
+      <c r="AQ35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ35" s="7" t="s">
+      <c r="AR35" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR35" s="7" t="s">
+      <c r="AS35" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS35" s="7" t="s">
+      <c r="AT35" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT35" s="7" t="s">
+      <c r="AU35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU35" s="7" t="s">
+      <c r="AV35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE35" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="AV35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB35" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC35" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE35" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="44" t="s">
         <v>149</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>150</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>2</v>
@@ -5828,60 +5892,60 @@
         <v>81</v>
       </c>
       <c r="AO36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP36" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP36" s="7" t="s">
+      <c r="AQ36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ36" s="7" t="s">
+      <c r="AR36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR36" s="7" t="s">
+      <c r="AS36" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS36" s="7" t="s">
+      <c r="AT36" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT36" s="7" t="s">
+      <c r="AU36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU36" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV36" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX36" s="7" t="s">
+      <c r="AY36" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY36" s="7" t="s">
+      <c r="AZ36" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ36" s="7" t="s">
+      <c r="BA36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA36" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC36" s="7" t="s">
+      <c r="BD36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD36" s="7" t="s">
+      <c r="BE36" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE36" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>7</v>
@@ -6001,63 +6065,63 @@
         <v>81</v>
       </c>
       <c r="AO37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP37" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP37" s="7" t="s">
+      <c r="AQ37" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ37" s="7" t="s">
+      <c r="AR37" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR37" s="7" t="s">
+      <c r="AS37" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS37" s="7" t="s">
+      <c r="AT37" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT37" s="7" t="s">
+      <c r="AU37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU37" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV37" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX37" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX37" s="7" t="s">
+      <c r="AY37" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY37" s="7" t="s">
+      <c r="AZ37" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ37" s="7" t="s">
+      <c r="BA37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA37" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC37" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC37" s="7" t="s">
+      <c r="BD37" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD37" s="7" t="s">
+      <c r="BE37" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE37" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>4</v>
@@ -6174,63 +6238,63 @@
         <v>81</v>
       </c>
       <c r="AO38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP38" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AP38" s="7" t="s">
+      <c r="AQ38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AQ38" s="7" t="s">
+      <c r="AR38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AR38" s="7" t="s">
+      <c r="AS38" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AS38" s="7" t="s">
+      <c r="AT38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AT38" s="7" t="s">
+      <c r="AU38" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AU38" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="AV38" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AW38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AX38" s="7" t="s">
+      <c r="AY38" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AY38" s="7" t="s">
+      <c r="AZ38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AZ38" s="7" t="s">
+      <c r="BA38" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA38" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="BB38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BC38" s="7" t="s">
+      <c r="BD38" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BD38" s="7" t="s">
+      <c r="BE38" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="BE38" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>4</v>
@@ -6238,10 +6302,10 @@
     </row>
     <row r="40" spans="1:57" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
@@ -6249,10 +6313,10 @@
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>4</v>
@@ -6260,7 +6324,7 @@
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>7</v>
@@ -6274,10 +6338,10 @@
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>4</v>
@@ -6285,10 +6349,10 @@
     </row>
     <row r="44" spans="1:57" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -6296,10 +6360,10 @@
     </row>
     <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>4</v>
@@ -6307,10 +6371,10 @@
     </row>
     <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
@@ -6318,10 +6382,10 @@
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>4</v>
@@ -6329,10 +6393,10 @@
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>4</v>
@@ -6340,10 +6404,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>4</v>
@@ -6351,10 +6415,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>4</v>
@@ -6362,10 +6426,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>4</v>
@@ -6376,7 +6440,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>88</v>
@@ -6387,7 +6451,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>88</v>
@@ -6398,7 +6462,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>3</v>
@@ -6409,10 +6473,10 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -6420,10 +6484,10 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>2</v>
@@ -6431,10 +6495,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>4</v>
@@ -6442,7 +6506,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>3</v>
@@ -6453,10 +6517,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>4</v>
@@ -6464,10 +6528,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -6475,7 +6539,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>3</v>
@@ -6486,10 +6550,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>4</v>
@@ -6497,10 +6561,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>4</v>
@@ -6508,10 +6572,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -6519,10 +6583,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>4</v>
@@ -6533,10 +6597,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>4</v>
@@ -6547,10 +6611,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>4</v>
@@ -6561,10 +6625,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>4</v>
@@ -6575,10 +6639,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>4</v>
@@ -6589,10 +6653,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>4</v>
@@ -6603,10 +6667,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>4</v>
@@ -6617,10 +6681,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>4</v>
@@ -6631,10 +6695,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>4</v>
@@ -6645,10 +6709,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>4</v>
@@ -6659,10 +6723,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>4</v>
@@ -6673,10 +6737,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>4</v>
@@ -6687,10 +6751,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>4</v>
@@ -6701,10 +6765,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>4</v>
@@ -6715,10 +6779,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>4</v>
@@ -6729,10 +6793,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>4</v>
@@ -6743,10 +6807,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>4</v>
@@ -6757,10 +6821,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>4</v>
@@ -6771,10 +6835,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>4</v>
@@ -6782,10 +6846,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>4</v>
@@ -6793,10 +6857,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>4</v>
@@ -6804,10 +6868,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>4</v>
@@ -6815,10 +6879,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>4</v>
@@ -6826,10 +6890,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>4</v>
@@ -6837,7 +6901,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>3</v>
@@ -6848,10 +6912,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>4</v>
@@ -6859,10 +6923,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>4</v>
@@ -6870,10 +6934,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>4</v>
@@ -6881,10 +6945,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>4</v>
@@ -6892,10 +6956,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>4</v>
@@ -6903,10 +6967,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>4</v>
@@ -6914,7 +6978,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>3</v>
@@ -6925,7 +6989,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>3</v>
@@ -6936,10 +7000,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>4</v>
@@ -6947,10 +7011,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>4</v>
@@ -6958,10 +7022,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>4</v>
@@ -6969,10 +7033,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>4</v>
@@ -6980,10 +7044,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>2</v>
@@ -6991,10 +7055,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>2</v>
@@ -7002,10 +7066,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>2</v>
@@ -7013,10 +7077,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>2</v>
@@ -7024,10 +7088,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>2</v>
@@ -7035,10 +7099,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>2</v>
@@ -7046,10 +7110,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>4</v>
@@ -7057,7 +7121,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>88</v>
@@ -7068,10 +7132,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>4</v>
@@ -7079,10 +7143,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>4</v>
@@ -7090,10 +7154,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>4</v>
@@ -7101,10 +7165,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>4</v>
@@ -7112,10 +7176,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>4</v>
@@ -7123,7 +7187,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>88</v>
@@ -7134,7 +7198,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>88</v>
@@ -7145,7 +7209,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>3</v>
@@ -7156,7 +7220,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
@@ -7167,10 +7231,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>4</v>
@@ -7181,7 +7245,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
@@ -7192,7 +7256,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>3</v>
@@ -7203,7 +7267,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>88</v>
@@ -7214,7 +7278,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>3</v>
@@ -7225,7 +7289,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>107</v>
@@ -7236,7 +7300,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B125" s="41" t="s">
         <v>110</v>
@@ -7247,7 +7311,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>88</v>
@@ -7258,7 +7322,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
@@ -7269,7 +7333,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
@@ -7280,7 +7344,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>88</v>
@@ -7291,7 +7355,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>88</v>
@@ -7302,7 +7366,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>3</v>
@@ -7313,7 +7377,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>3</v>
@@ -7324,10 +7388,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>4</v>
@@ -7338,10 +7402,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>4</v>
@@ -7352,10 +7416,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>4</v>
@@ -7366,7 +7430,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B136" s="42" t="s">
         <v>86</v>
@@ -7377,10 +7441,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>4</v>
@@ -7388,10 +7452,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>4</v>
@@ -7402,10 +7466,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>4</v>
@@ -7413,10 +7477,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>4</v>
@@ -7424,7 +7488,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>107</v>
@@ -7435,7 +7499,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B142" s="41" t="s">
         <v>110</v>
@@ -7446,10 +7510,10 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>2</v>
@@ -7457,10 +7521,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>4</v>
@@ -7468,10 +7532,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>4</v>
@@ -7479,10 +7543,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>4</v>
@@ -7490,10 +7554,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>4</v>
@@ -7501,10 +7565,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>4</v>
@@ -7512,10 +7576,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>4</v>
@@ -7523,7 +7587,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>3</v>
@@ -7534,10 +7598,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>2</v>
@@ -7545,10 +7609,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>2</v>
@@ -7556,10 +7620,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>2</v>
@@ -7567,10 +7631,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>2</v>
@@ -7578,10 +7642,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>4</v>
@@ -7592,10 +7656,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>4</v>
@@ -7606,10 +7670,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>4</v>
@@ -7617,10 +7681,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>4</v>
@@ -7628,10 +7692,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>4</v>
@@ -7639,10 +7703,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>4</v>
@@ -7650,10 +7714,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>4</v>
@@ -7661,10 +7725,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>4</v>
@@ -7672,10 +7736,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>2</v>
@@ -7683,10 +7747,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>2</v>
@@ -7694,10 +7758,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>2</v>
@@ -7705,10 +7769,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>2</v>
@@ -7716,10 +7780,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>2</v>
@@ -7727,10 +7791,10 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B168" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>4</v>
@@ -7738,10 +7802,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -7749,10 +7813,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -7760,10 +7824,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -7771,10 +7835,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B172" s="47" t="s">
         <v>308</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>309</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -7782,10 +7846,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>4</v>
@@ -7796,10 +7860,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>4</v>
@@ -7807,10 +7871,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>4</v>
@@ -7818,10 +7882,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>4</v>
@@ -7829,7 +7893,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>3</v>
@@ -7840,10 +7904,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>4</v>
@@ -7851,10 +7915,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>4</v>
@@ -7862,7 +7926,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>3</v>
@@ -7873,10 +7937,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>4</v>
@@ -7884,10 +7948,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>4</v>
@@ -7895,10 +7959,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>4</v>
@@ -7906,10 +7970,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>4</v>
@@ -7917,10 +7981,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>4</v>
@@ -7928,10 +7992,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>4</v>
@@ -7939,10 +8003,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>4</v>
@@ -7950,10 +8014,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>4</v>
@@ -7961,10 +8025,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>4</v>
@@ -7972,10 +8036,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>4</v>
@@ -7983,10 +8047,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>4</v>
@@ -7994,10 +8058,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>4</v>
@@ -8005,10 +8069,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>4</v>
@@ -8016,10 +8080,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>4</v>
@@ -8027,10 +8091,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>4</v>
@@ -8038,10 +8102,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>4</v>
@@ -8049,10 +8113,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>4</v>
@@ -8060,10 +8124,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>4</v>
@@ -8071,7 +8135,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>3</v>
@@ -8082,7 +8146,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -8093,7 +8157,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>3</v>
@@ -8104,7 +8168,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>3</v>
@@ -8115,7 +8179,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>3</v>
@@ -8126,7 +8190,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>3</v>
@@ -8137,7 +8201,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>3</v>
@@ -8148,7 +8212,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>3</v>
@@ -8159,7 +8223,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>3</v>
@@ -8170,7 +8234,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>3</v>
@@ -8181,7 +8245,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>3</v>
@@ -8192,7 +8256,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>3</v>
@@ -8203,10 +8267,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>4</v>
@@ -8214,10 +8278,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B212" s="48" t="s">
         <v>369</v>
-      </c>
-      <c r="B212" s="48" t="s">
-        <v>370</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>4</v>
@@ -8225,10 +8289,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>4</v>
@@ -8236,10 +8300,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>4</v>
@@ -8247,10 +8311,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>4</v>
@@ -8258,10 +8322,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>4</v>
@@ -8269,10 +8333,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>4</v>
@@ -8280,7 +8344,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>3</v>
@@ -8291,7 +8355,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>3</v>
@@ -8302,7 +8366,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>3</v>
@@ -8313,7 +8377,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>3</v>
@@ -8324,7 +8388,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>3</v>
@@ -8335,7 +8399,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>3</v>
@@ -8346,10 +8410,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>4</v>
@@ -8357,7 +8421,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>3</v>
@@ -8368,10 +8432,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>4</v>
@@ -8379,7 +8443,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>3</v>
@@ -8390,10 +8454,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>4</v>
@@ -8401,10 +8465,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>4</v>
@@ -8412,10 +8476,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>4</v>
@@ -8423,10 +8487,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>4</v>
@@ -8434,10 +8498,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>4</v>
@@ -8445,10 +8509,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>4</v>
@@ -8456,10 +8520,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>4</v>
@@ -8467,10 +8531,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>4</v>
@@ -8478,10 +8542,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>4</v>
@@ -8489,10 +8553,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>4</v>
@@ -8500,10 +8564,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>4</v>
@@ -8511,10 +8575,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>4</v>
@@ -8522,10 +8586,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>4</v>
@@ -8533,10 +8597,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>4</v>
@@ -8544,10 +8608,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>4</v>
@@ -8555,10 +8619,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>4</v>
@@ -8566,7 +8630,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>107</v>
@@ -8577,7 +8641,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B245" s="41" t="s">
         <v>110</v>
@@ -8588,10 +8652,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2</v>
@@ -8599,7 +8663,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -8610,10 +8674,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B248" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>4</v>
@@ -8621,10 +8685,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B249" s="48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>4</v>
@@ -8632,7 +8696,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B250" s="41" t="s">
         <v>110</v>
@@ -8643,10 +8707,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -8654,7 +8718,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>3</v>
@@ -8665,10 +8729,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>4</v>
@@ -8676,10 +8740,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B254" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>4</v>
@@ -8687,7 +8751,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>107</v>
@@ -8698,7 +8762,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B256" s="41" t="s">
         <v>110</v>
@@ -8709,10 +8773,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -8720,7 +8784,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>3</v>
@@ -8731,10 +8795,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>4</v>
@@ -8745,10 +8809,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>4</v>
@@ -8759,7 +8823,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>88</v>
@@ -8770,7 +8834,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>88</v>
@@ -8781,7 +8845,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>88</v>
@@ -8792,7 +8856,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>88</v>
@@ -8803,7 +8867,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>88</v>
@@ -8814,7 +8878,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>88</v>
@@ -8825,7 +8889,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>88</v>
@@ -8836,7 +8900,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>88</v>
@@ -8847,7 +8911,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>88</v>
@@ -8858,10 +8922,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>4</v>
@@ -8869,10 +8933,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>4</v>
@@ -8880,10 +8944,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>4</v>
@@ -8891,10 +8955,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>4</v>
@@ -8902,10 +8966,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>4</v>
@@ -8913,10 +8977,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>4</v>
@@ -8924,10 +8988,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>4</v>
@@ -8935,10 +8999,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>4</v>
@@ -8946,10 +9010,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>4</v>
@@ -8957,10 +9021,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B279" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>4</v>
@@ -8968,10 +9032,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B280" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>4</v>
@@ -8979,10 +9043,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B281" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>4</v>
@@ -8990,10 +9054,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B282" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>4</v>
@@ -9001,10 +9065,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>4</v>
@@ -9012,10 +9076,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>4</v>
@@ -9023,10 +9087,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>4</v>
@@ -9034,7 +9098,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>3</v>
@@ -9045,7 +9109,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>3</v>
@@ -9056,7 +9120,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>3</v>
@@ -9067,7 +9131,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>3</v>
@@ -9078,7 +9142,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>3</v>
@@ -9089,7 +9153,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>3</v>
@@ -9100,10 +9164,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B292" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>4</v>
@@ -9111,10 +9175,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B293" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>4</v>
@@ -9122,7 +9186,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>3</v>
@@ -9133,7 +9197,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>3</v>
@@ -9144,10 +9208,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>4</v>
@@ -9158,10 +9222,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B297" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>4</v>
@@ -9169,10 +9233,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B298" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>4</v>
@@ -9180,7 +9244,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>3</v>
@@ -9191,7 +9255,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>3</v>
@@ -9202,10 +9266,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B301" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>4</v>
@@ -9213,10 +9277,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B302" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>4</v>
@@ -9224,10 +9288,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B303" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>4</v>
@@ -9235,10 +9299,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>4</v>
@@ -9246,10 +9310,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B305" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>4</v>
@@ -9257,10 +9321,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B306" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>4</v>
@@ -9268,10 +9332,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B307" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>4</v>
@@ -9279,10 +9343,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>4</v>
@@ -9290,10 +9354,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>4</v>
@@ -9301,10 +9365,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B310" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>4</v>
@@ -9312,10 +9376,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B311" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>4</v>
@@ -9323,10 +9387,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B312" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>4</v>
@@ -9334,10 +9398,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B313" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>4</v>
@@ -9345,10 +9409,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B314" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>4</v>
@@ -9356,10 +9420,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B315" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>4</v>
@@ -9367,10 +9431,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B316" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>4</v>
@@ -9378,10 +9442,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>4</v>
@@ -9389,10 +9453,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>4</v>
@@ -9400,10 +9464,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>4</v>
@@ -9411,7 +9475,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>3</v>
@@ -9422,7 +9486,7 @@
     </row>
     <row r="321" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>3</v>
@@ -9433,7 +9497,7 @@
     </row>
     <row r="322" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>3</v>
@@ -9444,7 +9508,7 @@
     </row>
     <row r="323" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>3</v>
@@ -9455,7 +9519,7 @@
     </row>
     <row r="324" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>3</v>
@@ -9466,7 +9530,7 @@
     </row>
     <row r="325" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>3</v>
@@ -9477,7 +9541,7 @@
     </row>
     <row r="326" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>3</v>
@@ -9488,10 +9552,10 @@
     </row>
     <row r="327" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>4</v>
@@ -9502,10 +9566,10 @@
     </row>
     <row r="328" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>4</v>
@@ -9516,16 +9580,16 @@
     </row>
     <row r="329" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="B329" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="C329" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="51" t="s">
         <v>490</v>
-      </c>
-      <c r="B329" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="C329" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" s="51" t="s">
-        <v>491</v>
       </c>
       <c r="E329" s="50" t="s">
         <v>70</v>
@@ -9636,69 +9700,69 @@
         <v>81</v>
       </c>
       <c r="AO329" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP329" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AP329" s="50" t="s">
+      <c r="AQ329" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AQ329" s="50" t="s">
+      <c r="AR329" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR329" s="50" t="s">
+      <c r="AS329" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AS329" s="50" t="s">
+      <c r="AT329" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AT329" s="50" t="s">
+      <c r="AU329" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AU329" s="50" t="s">
+      <c r="AV329" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AV329" s="50" t="s">
+      <c r="AW329" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX329" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY329" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ329" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA329" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB329" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AW329" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX329" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY329" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ329" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA329" s="50" t="s">
+      <c r="BC329" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD329" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE329" s="50" t="s">
         <v>135</v>
-      </c>
-      <c r="BB329" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC329" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD329" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE329" s="50" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="330" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B330" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C330" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D330" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E330" s="50" t="s">
         <v>81</v>
@@ -9809,69 +9873,69 @@
         <v>81</v>
       </c>
       <c r="AO330" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP330" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AP330" s="50" t="s">
+      <c r="AQ330" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AQ330" s="50" t="s">
+      <c r="AR330" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR330" s="50" t="s">
+      <c r="AS330" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AS330" s="50" t="s">
+      <c r="AT330" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AT330" s="50" t="s">
+      <c r="AU330" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AU330" s="50" t="s">
+      <c r="AV330" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AV330" s="50" t="s">
+      <c r="AW330" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX330" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY330" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ330" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA330" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB330" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AW330" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX330" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY330" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ330" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA330" s="50" t="s">
+      <c r="BC330" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD330" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE330" s="50" t="s">
         <v>135</v>
-      </c>
-      <c r="BB330" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC330" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD330" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE330" s="50" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="331" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B331" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C331" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D331" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E331" s="50" t="s">
         <v>81</v>
@@ -9982,63 +10046,63 @@
         <v>81</v>
       </c>
       <c r="AO331" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP331" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AP331" s="50" t="s">
+      <c r="AQ331" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AQ331" s="50" t="s">
+      <c r="AR331" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR331" s="50" t="s">
+      <c r="AS331" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AS331" s="50" t="s">
+      <c r="AT331" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AT331" s="50" t="s">
+      <c r="AU331" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AU331" s="50" t="s">
+      <c r="AV331" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AV331" s="50" t="s">
+      <c r="AW331" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX331" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY331" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ331" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA331" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB331" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AW331" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX331" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY331" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ331" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA331" s="50" t="s">
+      <c r="BC331" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD331" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE331" s="50" t="s">
         <v>135</v>
-      </c>
-      <c r="BB331" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC331" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD331" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE331" s="50" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="332" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A332" s="50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B332" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C332" s="50" t="s">
         <v>4</v>
@@ -10046,10 +10110,10 @@
     </row>
     <row r="333" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A333" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B333" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C333" s="50" t="s">
         <v>4</v>
@@ -10057,10 +10121,10 @@
     </row>
     <row r="334" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A334" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B334" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C334" s="50" t="s">
         <v>4</v>
@@ -10068,10 +10132,10 @@
     </row>
     <row r="335" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A335" s="50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B335" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C335" s="50" t="s">
         <v>4</v>
@@ -10079,10 +10143,10 @@
     </row>
     <row r="336" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A336" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B336" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C336" s="50" t="s">
         <v>4</v>
@@ -10090,10 +10154,10 @@
     </row>
     <row r="337" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A337" s="50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B337" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C337" s="50" t="s">
         <v>4</v>
@@ -10101,10 +10165,10 @@
     </row>
     <row r="338" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A338" s="50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B338" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C338" s="50" t="s">
         <v>4</v>
@@ -10112,10 +10176,10 @@
     </row>
     <row r="339" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A339" s="50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B339" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C339" s="51" t="s">
         <v>2</v>
@@ -10123,10 +10187,10 @@
     </row>
     <row r="340" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A340" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B340" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C340" s="51" t="s">
         <v>2</v>
@@ -10134,10 +10198,10 @@
     </row>
     <row r="341" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A341" s="50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B341" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C341" s="51" t="s">
         <v>2</v>
@@ -10145,7 +10209,7 @@
     </row>
     <row r="342" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B342" s="50" t="s">
         <v>86</v>
@@ -10267,7 +10331,7 @@
     </row>
     <row r="343" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B343" s="50" t="s">
         <v>86</v>
@@ -10389,7 +10453,7 @@
     </row>
     <row r="344" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B344" s="50" t="s">
         <v>86</v>
@@ -10511,10 +10575,10 @@
     </row>
     <row r="345" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="50" t="s">
+        <v>506</v>
+      </c>
+      <c r="B345" s="50" t="s">
         <v>507</v>
-      </c>
-      <c r="B345" s="50" t="s">
-        <v>508</v>
       </c>
       <c r="C345" s="50" t="s">
         <v>4</v>
@@ -10633,10 +10697,10 @@
     </row>
     <row r="346" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="B346" s="50" t="s">
         <v>509</v>
-      </c>
-      <c r="B346" s="50" t="s">
-        <v>510</v>
       </c>
       <c r="C346" s="50" t="s">
         <v>4</v>
@@ -10755,24 +10819,24 @@
     </row>
     <row r="347" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="50" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B347" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C347" s="50" t="s">
         <v>4</v>
       </c>
       <c r="D347" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B348" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C348" s="51" t="s">
         <v>4</v>
@@ -10780,10 +10844,10 @@
     </row>
     <row r="349" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B349" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C349" s="51" t="s">
         <v>4</v>
@@ -10791,10 +10855,10 @@
     </row>
     <row r="350" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B350" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C350" s="50" t="s">
         <v>4</v>
@@ -10802,10 +10866,10 @@
     </row>
     <row r="351" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B351" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C351" s="50" t="s">
         <v>4</v>
@@ -10813,10 +10877,10 @@
     </row>
     <row r="352" spans="1:40" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A352" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B352" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C352" s="51" t="s">
         <v>2</v>
@@ -10824,10 +10888,10 @@
     </row>
     <row r="353" spans="1:3" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A353" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B353" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C353" s="51" t="s">
         <v>2</v>
@@ -10835,10 +10899,10 @@
     </row>
     <row r="354" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="B354" s="50" t="s">
         <v>518</v>
-      </c>
-      <c r="B354" s="50" t="s">
-        <v>519</v>
       </c>
       <c r="C354" s="50" t="s">
         <v>4</v>
@@ -10846,10 +10910,10 @@
     </row>
     <row r="355" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B355" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C355" s="51" t="s">
         <v>2</v>
@@ -10857,10 +10921,10 @@
     </row>
     <row r="356" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="49" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B356" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C356" s="51" t="s">
         <v>2</v>
@@ -10868,10 +10932,10 @@
     </row>
     <row r="357" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="B357" s="53" t="s">
         <v>522</v>
-      </c>
-      <c r="B357" s="53" t="s">
-        <v>523</v>
       </c>
       <c r="C357" s="50" t="s">
         <v>4</v>
@@ -10879,10 +10943,10 @@
     </row>
     <row r="358" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B358" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C358" s="50" t="s">
         <v>4</v>
@@ -10890,10 +10954,10 @@
     </row>
     <row r="359" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B359" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C359" s="50" t="s">
         <v>4</v>
@@ -10901,10 +10965,10 @@
     </row>
     <row r="360" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B360" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C360" s="50" t="s">
         <v>4</v>
@@ -10912,10 +10976,10 @@
     </row>
     <row r="361" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B361" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C361" s="50" t="s">
         <v>4</v>
@@ -10923,10 +10987,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B362" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C362" s="50" t="s">
         <v>4</v>
@@ -10934,10 +10998,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>4</v>
@@ -10945,10 +11009,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>4</v>
@@ -10956,10 +11020,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>4</v>
@@ -10967,10 +11031,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>4</v>
@@ -10978,10 +11042,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>4</v>
@@ -10989,10 +11053,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>4</v>
@@ -11000,10 +11064,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>4</v>
@@ -11011,10 +11075,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>4</v>
@@ -11022,10 +11086,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>4</v>
@@ -11033,10 +11097,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>4</v>
@@ -11044,10 +11108,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>4</v>
@@ -11055,10 +11119,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B374" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>4</v>
@@ -11066,10 +11130,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B375" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>4</v>
@@ -11077,10 +11141,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B376" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>4</v>
@@ -11088,10 +11152,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B377" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>4</v>
@@ -11099,10 +11163,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B378" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>4</v>
@@ -11110,10 +11174,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B379" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>4</v>
@@ -11121,10 +11185,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B380" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>4</v>
@@ -11132,10 +11196,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B381" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>4</v>
@@ -11143,10 +11207,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B382" s="48" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>4</v>
@@ -11154,10 +11218,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>4</v>
@@ -11165,10 +11229,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>4</v>
@@ -11176,10 +11240,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>4</v>
@@ -11187,10 +11251,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>4</v>
@@ -11198,10 +11262,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>4</v>
@@ -11209,10 +11273,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>4</v>
@@ -11220,10 +11284,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>4</v>
@@ -11231,10 +11295,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>4</v>
@@ -11242,7 +11306,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B391" s="42" t="s">
         <v>86</v>
@@ -11253,7 +11317,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>3</v>
@@ -11264,10 +11328,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>4</v>
@@ -11275,7 +11339,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>3</v>
@@ -11286,7 +11350,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>3</v>
@@ -11297,10 +11361,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B396" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>2</v>
@@ -11308,10 +11372,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>4</v>
@@ -11319,10 +11383,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>2</v>
@@ -11330,10 +11394,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>4</v>
@@ -11341,10 +11405,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>2</v>
@@ -11352,10 +11416,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B401" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="B401" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>2</v>
@@ -11363,10 +11427,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>2</v>
@@ -11374,10 +11438,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>4</v>
@@ -11385,10 +11449,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>2</v>
@@ -11396,10 +11460,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>4</v>
@@ -11407,10 +11471,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>2</v>
@@ -11418,7 +11482,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B407" s="42" t="s">
         <v>86</v>
@@ -11429,7 +11493,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B408" s="42" t="s">
         <v>86</v>
@@ -11440,10 +11504,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>4</v>
@@ -11451,10 +11515,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>4</v>
@@ -11462,10 +11526,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>4</v>
@@ -11476,10 +11540,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>4</v>
@@ -11490,10 +11554,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>4</v>
@@ -11501,10 +11565,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>4</v>
@@ -11512,10 +11576,10 @@
     </row>
     <row r="415" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>2</v>
@@ -11523,10 +11587,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>4</v>
@@ -11534,10 +11598,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>4</v>
@@ -11545,10 +11609,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>4</v>
@@ -11556,10 +11620,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>4</v>
@@ -11567,10 +11631,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>4</v>
@@ -11578,10 +11642,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>4</v>
@@ -11589,10 +11653,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>4</v>
@@ -11600,10 +11664,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>4</v>
@@ -11611,10 +11675,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>4</v>
@@ -11622,10 +11686,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>4</v>
@@ -11633,10 +11697,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>4</v>
@@ -11644,10 +11708,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>4</v>
@@ -11655,10 +11719,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>4</v>
@@ -11666,10 +11730,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>4</v>
@@ -11677,10 +11741,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>4</v>
@@ -11688,10 +11752,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B431" s="50" t="s">
         <v>602</v>
-      </c>
-      <c r="B431" s="50" t="s">
-        <v>603</v>
       </c>
       <c r="C431" s="50" t="s">
         <v>4</v>
@@ -11702,7 +11766,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>88</v>
@@ -11713,7 +11777,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>3</v>
@@ -11724,7 +11788,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>107</v>
@@ -11735,7 +11799,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>3</v>
@@ -11746,10 +11810,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B436" s="50" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C436" s="50" t="s">
         <v>4</v>
@@ -11760,10 +11824,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>4</v>
@@ -11771,10 +11835,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>4</v>
@@ -11782,10 +11846,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>4</v>
@@ -11793,10 +11857,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>4</v>
@@ -11804,10 +11868,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>4</v>
@@ -11815,10 +11879,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>4</v>
@@ -11826,10 +11890,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B443" s="55" t="s">
         <v>615</v>
-      </c>
-      <c r="B443" s="55" t="s">
-        <v>616</v>
       </c>
       <c r="C443" s="56" t="s">
         <v>4</v>
@@ -11837,10 +11901,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B444" s="55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C444" s="56" t="s">
         <v>4</v>
@@ -11848,10 +11912,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B445" s="55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C445" s="56" t="s">
         <v>4</v>
@@ -11859,10 +11923,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B446" s="55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C446" s="56" t="s">
         <v>4</v>
@@ -11870,10 +11934,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B447" s="55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C447" s="56" t="s">
         <v>4</v>
@@ -11881,10 +11945,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B448" s="55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C448" s="56" t="s">
         <v>4</v>
@@ -11892,10 +11956,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B449" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="B449" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="C449" t="s">
         <v>2</v>
@@ -11903,10 +11967,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C450" t="s">
         <v>2</v>
@@ -11914,10 +11978,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B451" s="57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C451" s="58" t="s">
         <v>2</v>
@@ -11925,10 +11989,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B452" s="57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C452" s="58" t="s">
         <v>2</v>
@@ -11936,10 +12000,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C453" t="s">
         <v>2</v>
@@ -11947,10 +12011,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C454" t="s">
         <v>2</v>
@@ -11958,10 +12022,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="59" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B455" s="59" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C455" s="60" t="s">
         <v>2</v>
@@ -11969,10 +12033,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="59" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B456" s="59" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C456" s="60" t="s">
         <v>2</v>
@@ -11980,7 +12044,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="59" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B457" s="59" t="s">
         <v>88</v>
@@ -11991,7 +12055,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B458" s="60" t="s">
         <v>3</v>
@@ -12002,10 +12066,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="60" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B459" s="60" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C459" s="60" t="s">
         <v>2</v>
@@ -12013,10 +12077,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="B460" s="60" t="s">
         <v>634</v>
-      </c>
-      <c r="B460" s="60" t="s">
-        <v>635</v>
       </c>
       <c r="C460" s="60" t="s">
         <v>4</v>
@@ -12024,10 +12088,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="60" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B461" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C461" s="60" t="s">
         <v>4</v>
@@ -12035,10 +12099,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="60" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B462" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C462" s="60" t="s">
         <v>4</v>
@@ -12046,10 +12110,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B463" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C463" s="60" t="s">
         <v>4</v>
@@ -12057,10 +12121,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="B464" s="60" t="s">
         <v>639</v>
-      </c>
-      <c r="B464" s="60" t="s">
-        <v>640</v>
       </c>
       <c r="C464" s="60" t="s">
         <v>4</v>
@@ -12068,10 +12132,10 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="B465" s="60" t="s">
         <v>641</v>
-      </c>
-      <c r="B465" s="60" t="s">
-        <v>642</v>
       </c>
       <c r="C465" s="60" t="s">
         <v>4</v>
@@ -12079,10 +12143,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="60" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B466" s="60" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C466" s="60" t="s">
         <v>2</v>
@@ -12090,10 +12154,10 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="60" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B467" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C467" s="60" t="s">
         <v>4</v>
@@ -12101,10 +12165,10 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="60" t="s">
+        <v>644</v>
+      </c>
+      <c r="B468" s="60" t="s">
         <v>645</v>
-      </c>
-      <c r="B468" s="60" t="s">
-        <v>646</v>
       </c>
       <c r="C468" s="60" t="s">
         <v>2</v>
@@ -12112,10 +12176,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="60" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B469" s="60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C469" s="60" t="s">
         <v>2</v>
@@ -12123,10 +12187,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="60" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B470" s="60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C470" s="60" t="s">
         <v>2</v>
@@ -12134,7 +12198,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B471" s="7" t="s">
         <v>88</v>
@@ -12145,7 +12209,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>88</v>
@@ -12156,7 +12220,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>88</v>
@@ -12167,10 +12231,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B474" s="50" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C474" s="50" t="s">
         <v>4</v>
@@ -12181,7 +12245,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B475" s="42" t="s">
         <v>86</v>
@@ -12192,10 +12256,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C476" t="s">
         <v>2</v>
@@ -12203,7 +12267,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B477" s="59" t="s">
         <v>88</v>
@@ -12214,10 +12278,10 @@
     </row>
     <row r="478" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B478" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>2</v>
@@ -12225,7 +12289,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B479" s="7" t="s">
         <v>107</v>
@@ -12236,7 +12300,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B480" s="7" t="s">
         <v>107</v>
@@ -12247,7 +12311,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B481" s="7" t="s">
         <v>107</v>
@@ -12258,7 +12322,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B482" s="7" t="s">
         <v>88</v>
@@ -12269,7 +12333,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B483" s="7" t="s">
         <v>88</v>
@@ -12280,7 +12344,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B484" s="7" t="s">
         <v>88</v>
@@ -12291,7 +12355,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B485" s="7" t="s">
         <v>88</v>
@@ -12302,7 +12366,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B486" s="7" t="s">
         <v>88</v>
@@ -12313,7 +12377,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B487" s="7" t="s">
         <v>88</v>
@@ -12324,7 +12388,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B488" s="7" t="s">
         <v>107</v>
@@ -12335,7 +12399,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B489" s="7" t="s">
         <v>107</v>
@@ -12346,7 +12410,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B490" s="7" t="s">
         <v>107</v>
@@ -12357,7 +12421,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B491" s="7" t="s">
         <v>107</v>
@@ -12368,7 +12432,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B492" s="7" t="s">
         <v>107</v>
@@ -12379,7 +12443,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B493" s="7" t="s">
         <v>107</v>
@@ -12390,7 +12454,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B494" s="7" t="s">
         <v>107</v>
@@ -12401,10 +12465,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>4</v>
@@ -12412,27 +12476,273 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="B496" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="C496" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="7" t="s">
-        <v>675</v>
-      </c>
       <c r="B497" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B498" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B499" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B500" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B501" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C501" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B502" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B503" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="C503" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D503" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B504" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C505" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B506" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="B508" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C514" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C515" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C516" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C517" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="B518" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C518" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C519" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:BE497"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -12477,7 +12787,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12485,7 +12795,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -12493,7 +12803,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12501,11 +12811,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -12523,7 +12833,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12531,7 +12841,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12539,7 +12849,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -3664,8 +3664,8 @@
   <dimension ref="A1:BE519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5597,14 +5597,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="7" t="s">

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -568,9 +568,6 @@
     <t>Tc_918124_ValidateTISpodForRetailUserPurchasedTISfor2015andNot2016</t>
   </si>
   <si>
-    <t>3qa6172016</t>
-  </si>
-  <si>
     <t>Tc_918125_ValidateTISpodForDigitalUserPurchasedTISfor2015andNot2016</t>
   </si>
   <si>
@@ -2123,6 +2120,9 @@
   </si>
   <si>
     <t>Tc_999985_ValidateFillingStatusIcon</t>
+  </si>
+  <si>
+    <t>fy14tcdPYPDF_01</t>
   </si>
 </sst>
 </file>
@@ -2557,7 +2557,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2658,6 +2658,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3408,7 +3411,7 @@
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
       <c r="F10" s="61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
@@ -3466,11 +3469,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
       <c r="F14" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -3498,11 +3501,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
       <c r="F16" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -3599,7 +3602,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="33"/>
       <c r="E23" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -3664,8 +3667,8 @@
   <dimension ref="A1:BE519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,7 +3683,7 @@
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="21"/>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="2" spans="1:57" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>0</v>
@@ -4388,10 +4391,10 @@
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>4</v>
@@ -4564,7 +4567,7 @@
         <v>140</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>4</v>
@@ -4737,7 +4740,7 @@
         <v>141</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>4</v>
@@ -4910,7 +4913,7 @@
         <v>142</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>4</v>
@@ -5083,7 +5086,7 @@
         <v>143</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>4</v>
@@ -5256,7 +5259,7 @@
         <v>144</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>4</v>
@@ -5429,7 +5432,7 @@
         <v>145</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>4</v>
@@ -6294,7 +6297,7 @@
         <v>153</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>4</v>
@@ -6520,7 +6523,7 @@
         <v>180</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>4</v>
@@ -6528,10 +6531,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>2</v>
@@ -6539,7 +6542,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>3</v>
@@ -6550,10 +6553,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>4</v>
@@ -6561,7 +6564,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>177</v>
@@ -6572,10 +6575,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -6583,10 +6586,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>4</v>
@@ -6597,10 +6600,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>4</v>
@@ -6611,10 +6614,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>4</v>
@@ -6625,10 +6628,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>4</v>
@@ -6639,10 +6642,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>4</v>
@@ -6653,10 +6656,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>4</v>
@@ -6667,10 +6670,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>4</v>
@@ -6681,10 +6684,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>4</v>
@@ -6695,10 +6698,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>4</v>
@@ -6709,10 +6712,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>4</v>
@@ -6723,10 +6726,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>4</v>
@@ -6737,10 +6740,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>4</v>
@@ -6751,10 +6754,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>4</v>
@@ -6765,10 +6768,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>4</v>
@@ -6779,10 +6782,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>4</v>
@@ -6793,10 +6796,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>4</v>
@@ -6807,10 +6810,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>4</v>
@@ -6821,10 +6824,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>4</v>
@@ -6835,10 +6838,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>4</v>
@@ -6846,10 +6849,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>4</v>
@@ -6857,10 +6860,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>4</v>
@@ -6868,10 +6871,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>4</v>
@@ -6879,10 +6882,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>4</v>
@@ -6890,10 +6893,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>4</v>
@@ -6901,7 +6904,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>3</v>
@@ -6912,10 +6915,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>4</v>
@@ -6923,10 +6926,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>4</v>
@@ -6934,10 +6937,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>4</v>
@@ -6945,10 +6948,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>4</v>
@@ -6956,10 +6959,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>4</v>
@@ -6967,10 +6970,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>4</v>
@@ -6978,7 +6981,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>3</v>
@@ -6989,7 +6992,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>3</v>
@@ -7000,10 +7003,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>4</v>
@@ -7011,10 +7014,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>4</v>
@@ -7022,10 +7025,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>4</v>
@@ -7033,10 +7036,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>4</v>
@@ -7044,7 +7047,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>147</v>
@@ -7055,7 +7058,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>147</v>
@@ -7066,7 +7069,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>147</v>
@@ -7077,7 +7080,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>147</v>
@@ -7088,7 +7091,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>147</v>
@@ -7099,7 +7102,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>147</v>
@@ -7110,7 +7113,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>156</v>
@@ -7121,7 +7124,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>88</v>
@@ -7132,10 +7135,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>4</v>
@@ -7143,10 +7146,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>4</v>
@@ -7154,10 +7157,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>4</v>
@@ -7165,10 +7168,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>4</v>
@@ -7176,10 +7179,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>4</v>
@@ -7187,7 +7190,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>88</v>
@@ -7198,7 +7201,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>88</v>
@@ -7209,7 +7212,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>3</v>
@@ -7220,7 +7223,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>3</v>
@@ -7231,10 +7234,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>4</v>
@@ -7245,7 +7248,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>3</v>
@@ -7256,7 +7259,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>3</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>88</v>
@@ -7278,7 +7281,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>3</v>
@@ -7289,7 +7292,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>107</v>
@@ -7300,7 +7303,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B125" s="41" t="s">
         <v>110</v>
@@ -7311,7 +7314,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>88</v>
@@ -7322,7 +7325,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>3</v>
@@ -7333,7 +7336,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>3</v>
@@ -7344,7 +7347,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>88</v>
@@ -7355,7 +7358,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>88</v>
@@ -7366,7 +7369,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>3</v>
@@ -7377,7 +7380,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>3</v>
@@ -7388,10 +7391,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>4</v>
@@ -7402,10 +7405,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>4</v>
@@ -7416,10 +7419,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>4</v>
@@ -7430,7 +7433,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B136" s="42" t="s">
         <v>86</v>
@@ -7441,10 +7444,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>4</v>
@@ -7452,10 +7455,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>4</v>
@@ -7466,10 +7469,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>4</v>
@@ -7477,10 +7480,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>4</v>
@@ -7488,7 +7491,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>107</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B142" s="41" t="s">
         <v>110</v>
@@ -7510,7 +7513,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143" s="45" t="s">
         <v>173</v>
@@ -7521,21 +7524,21 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>156</v>
+        <v>277</v>
+      </c>
+      <c r="B144" s="67" t="s">
+        <v>699</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>4</v>
@@ -7543,10 +7546,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>4</v>
@@ -7554,10 +7557,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>4</v>
@@ -7565,10 +7568,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>4</v>
@@ -7576,10 +7579,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>4</v>
@@ -7587,7 +7590,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>3</v>
@@ -7598,7 +7601,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>147</v>
@@ -7609,7 +7612,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>147</v>
@@ -7620,7 +7623,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>147</v>
@@ -7631,7 +7634,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>147</v>
@@ -7642,10 +7645,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>4</v>
@@ -7656,10 +7659,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>4</v>
@@ -7670,10 +7673,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>4</v>
@@ -7681,10 +7684,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>4</v>
@@ -7692,10 +7695,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>4</v>
@@ -7703,10 +7706,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>4</v>
@@ -7714,10 +7717,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>4</v>
@@ -7725,10 +7728,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>4</v>
@@ -7736,7 +7739,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>147</v>
@@ -7747,7 +7750,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>147</v>
@@ -7758,7 +7761,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>147</v>
@@ -7769,7 +7772,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>147</v>
@@ -7780,7 +7783,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>147</v>
@@ -7791,10 +7794,10 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B168" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>4</v>
@@ -7802,10 +7805,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>2</v>
@@ -7813,10 +7816,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>2</v>
@@ -7824,10 +7827,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>2</v>
@@ -7835,10 +7838,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B172" s="47" t="s">
         <v>307</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>308</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>2</v>
@@ -7846,10 +7849,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>4</v>
@@ -7860,10 +7863,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>4</v>
@@ -7871,7 +7874,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>156</v>
@@ -7882,10 +7885,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B176" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>4</v>
@@ -7893,7 +7896,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>3</v>
@@ -7904,7 +7907,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>177</v>
@@ -7915,7 +7918,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>177</v>
@@ -7926,7 +7929,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>3</v>
@@ -7937,10 +7940,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>4</v>
@@ -7948,10 +7951,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>4</v>
@@ -7959,10 +7962,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>4</v>
@@ -7970,10 +7973,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>4</v>
@@ -7981,10 +7984,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>4</v>
@@ -7992,7 +7995,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>177</v>
@@ -8003,10 +8006,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>4</v>
@@ -8014,10 +8017,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>4</v>
@@ -8025,10 +8028,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>4</v>
@@ -8036,10 +8039,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>4</v>
@@ -8047,10 +8050,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>4</v>
@@ -8058,10 +8061,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>4</v>
@@ -8069,10 +8072,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>4</v>
@@ -8080,10 +8083,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>4</v>
@@ -8091,10 +8094,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>4</v>
@@ -8102,10 +8105,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>4</v>
@@ -8113,10 +8116,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>4</v>
@@ -8124,10 +8127,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>4</v>
@@ -8135,7 +8138,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>3</v>
@@ -8146,7 +8149,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>3</v>
@@ -8157,7 +8160,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>3</v>
@@ -8168,7 +8171,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>3</v>
@@ -8179,7 +8182,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>3</v>
@@ -8190,7 +8193,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>3</v>
@@ -8201,7 +8204,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>3</v>
@@ -8212,7 +8215,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>3</v>
@@ -8223,7 +8226,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>3</v>
@@ -8234,7 +8237,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>3</v>
@@ -8245,7 +8248,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>3</v>
@@ -8256,7 +8259,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>3</v>
@@ -8267,10 +8270,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>4</v>
@@ -8278,10 +8281,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B212" s="48" t="s">
         <v>368</v>
-      </c>
-      <c r="B212" s="48" t="s">
-        <v>369</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>4</v>
@@ -8289,10 +8292,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>4</v>
@@ -8300,10 +8303,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>4</v>
@@ -8311,10 +8314,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>4</v>
@@ -8322,10 +8325,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>4</v>
@@ -8333,10 +8336,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>4</v>
@@ -8344,7 +8347,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>3</v>
@@ -8355,7 +8358,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>3</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>3</v>
@@ -8377,7 +8380,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>3</v>
@@ -8388,7 +8391,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>3</v>
@@ -8399,7 +8402,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>3</v>
@@ -8410,10 +8413,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>4</v>
@@ -8421,7 +8424,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>3</v>
@@ -8432,10 +8435,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>4</v>
@@ -8443,7 +8446,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>3</v>
@@ -8454,10 +8457,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>4</v>
@@ -8465,10 +8468,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>4</v>
@@ -8476,10 +8479,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>4</v>
@@ -8487,10 +8490,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>4</v>
@@ -8498,10 +8501,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>4</v>
@@ -8509,10 +8512,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>4</v>
@@ -8520,10 +8523,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>4</v>
@@ -8531,10 +8534,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>4</v>
@@ -8542,10 +8545,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>4</v>
@@ -8553,10 +8556,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>4</v>
@@ -8564,10 +8567,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>4</v>
@@ -8575,10 +8578,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>4</v>
@@ -8586,10 +8589,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>4</v>
@@ -8597,10 +8600,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>4</v>
@@ -8608,10 +8611,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>4</v>
@@ -8619,10 +8622,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>4</v>
@@ -8630,7 +8633,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>107</v>
@@ -8641,7 +8644,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B245" s="41" t="s">
         <v>110</v>
@@ -8652,10 +8655,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>2</v>
@@ -8663,7 +8666,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -8674,10 +8677,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B248" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>4</v>
@@ -8685,10 +8688,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B249" s="48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>4</v>
@@ -8696,7 +8699,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B250" s="41" t="s">
         <v>110</v>
@@ -8707,10 +8710,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>2</v>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>3</v>
@@ -8729,10 +8732,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>4</v>
@@ -8740,10 +8743,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B254" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>4</v>
@@ -8751,7 +8754,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>107</v>
@@ -8762,7 +8765,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B256" s="41" t="s">
         <v>110</v>
@@ -8773,10 +8776,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>2</v>
@@ -8784,7 +8787,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>3</v>
@@ -8795,10 +8798,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>4</v>
@@ -8809,10 +8812,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>4</v>
@@ -8823,7 +8826,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>88</v>
@@ -8834,7 +8837,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>88</v>
@@ -8845,7 +8848,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>88</v>
@@ -8856,7 +8859,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>88</v>
@@ -8867,7 +8870,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>88</v>
@@ -8878,7 +8881,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>88</v>
@@ -8889,7 +8892,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>88</v>
@@ -8900,7 +8903,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>88</v>
@@ -8911,7 +8914,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>88</v>
@@ -8922,10 +8925,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>4</v>
@@ -8933,10 +8936,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>4</v>
@@ -8944,10 +8947,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>4</v>
@@ -8955,10 +8958,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>4</v>
@@ -8966,10 +8969,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>4</v>
@@ -8977,10 +8980,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>4</v>
@@ -8988,10 +8991,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>4</v>
@@ -8999,10 +9002,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>4</v>
@@ -9010,10 +9013,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>4</v>
@@ -9021,10 +9024,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B279" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>4</v>
@@ -9032,10 +9035,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B280" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>4</v>
@@ -9043,10 +9046,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B281" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>4</v>
@@ -9054,10 +9057,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B282" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>4</v>
@@ -9065,10 +9068,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B283" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>4</v>
@@ -9076,10 +9079,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B284" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>4</v>
@@ -9087,10 +9090,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B285" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>4</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>3</v>
@@ -9109,7 +9112,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>3</v>
@@ -9120,7 +9123,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>3</v>
@@ -9131,7 +9134,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>3</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>3</v>
@@ -9153,7 +9156,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>3</v>
@@ -9164,10 +9167,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B292" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>4</v>
@@ -9175,10 +9178,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B293" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>4</v>
@@ -9186,7 +9189,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>3</v>
@@ -9197,7 +9200,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>3</v>
@@ -9208,10 +9211,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>4</v>
@@ -9222,10 +9225,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B297" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>4</v>
@@ -9233,10 +9236,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B298" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>4</v>
@@ -9244,7 +9247,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>3</v>
@@ -9255,7 +9258,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>3</v>
@@ -9266,10 +9269,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B301" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>4</v>
@@ -9277,10 +9280,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B302" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>4</v>
@@ -9288,10 +9291,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B303" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>4</v>
@@ -9299,10 +9302,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>4</v>
@@ -9310,10 +9313,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B305" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>4</v>
@@ -9321,10 +9324,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B306" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>4</v>
@@ -9332,10 +9335,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B307" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>4</v>
@@ -9343,10 +9346,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B308" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>4</v>
@@ -9354,10 +9357,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B309" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>4</v>
@@ -9365,10 +9368,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B310" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>4</v>
@@ -9376,10 +9379,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B311" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>4</v>
@@ -9387,10 +9390,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B312" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>4</v>
@@ -9398,10 +9401,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B313" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>4</v>
@@ -9409,10 +9412,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B314" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>4</v>
@@ -9420,10 +9423,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B315" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>4</v>
@@ -9431,10 +9434,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B316" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>4</v>
@@ -9442,10 +9445,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>4</v>
@@ -9453,10 +9456,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>4</v>
@@ -9464,10 +9467,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>4</v>
@@ -9475,7 +9478,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>3</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="321" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>3</v>
@@ -9497,7 +9500,7 @@
     </row>
     <row r="322" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>3</v>
@@ -9508,7 +9511,7 @@
     </row>
     <row r="323" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>3</v>
@@ -9519,7 +9522,7 @@
     </row>
     <row r="324" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>3</v>
@@ -9530,7 +9533,7 @@
     </row>
     <row r="325" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>3</v>
@@ -9541,7 +9544,7 @@
     </row>
     <row r="326" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>3</v>
@@ -9552,10 +9555,10 @@
     </row>
     <row r="327" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>4</v>
@@ -9566,10 +9569,10 @@
     </row>
     <row r="328" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>4</v>
@@ -9580,16 +9583,16 @@
     </row>
     <row r="329" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="B329" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="C329" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="51" t="s">
         <v>489</v>
-      </c>
-      <c r="B329" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="C329" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D329" s="51" t="s">
-        <v>490</v>
       </c>
       <c r="E329" s="50" t="s">
         <v>70</v>
@@ -9753,7 +9756,7 @@
     </row>
     <row r="330" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B330" s="50" t="s">
         <v>152</v>
@@ -9762,7 +9765,7 @@
         <v>4</v>
       </c>
       <c r="D330" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E330" s="50" t="s">
         <v>81</v>
@@ -9926,16 +9929,16 @@
     </row>
     <row r="331" spans="1:57" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B331" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C331" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D331" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E331" s="50" t="s">
         <v>81</v>
@@ -10099,10 +10102,10 @@
     </row>
     <row r="332" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A332" s="50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B332" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C332" s="50" t="s">
         <v>4</v>
@@ -10110,10 +10113,10 @@
     </row>
     <row r="333" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A333" s="50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B333" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C333" s="50" t="s">
         <v>4</v>
@@ -10121,10 +10124,10 @@
     </row>
     <row r="334" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A334" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B334" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C334" s="50" t="s">
         <v>4</v>
@@ -10132,10 +10135,10 @@
     </row>
     <row r="335" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A335" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B335" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C335" s="50" t="s">
         <v>4</v>
@@ -10143,10 +10146,10 @@
     </row>
     <row r="336" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A336" s="50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B336" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C336" s="50" t="s">
         <v>4</v>
@@ -10154,10 +10157,10 @@
     </row>
     <row r="337" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A337" s="50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B337" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C337" s="50" t="s">
         <v>4</v>
@@ -10165,10 +10168,10 @@
     </row>
     <row r="338" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A338" s="50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B338" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C338" s="50" t="s">
         <v>4</v>
@@ -10176,10 +10179,10 @@
     </row>
     <row r="339" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A339" s="50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B339" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C339" s="51" t="s">
         <v>2</v>
@@ -10187,10 +10190,10 @@
     </row>
     <row r="340" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A340" s="50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B340" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C340" s="51" t="s">
         <v>2</v>
@@ -10198,10 +10201,10 @@
     </row>
     <row r="341" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A341" s="50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B341" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C341" s="51" t="s">
         <v>2</v>
@@ -10209,7 +10212,7 @@
     </row>
     <row r="342" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B342" s="50" t="s">
         <v>86</v>
@@ -10331,7 +10334,7 @@
     </row>
     <row r="343" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B343" s="50" t="s">
         <v>86</v>
@@ -10453,7 +10456,7 @@
     </row>
     <row r="344" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B344" s="50" t="s">
         <v>86</v>
@@ -10575,10 +10578,10 @@
     </row>
     <row r="345" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="B345" s="50" t="s">
         <v>506</v>
-      </c>
-      <c r="B345" s="50" t="s">
-        <v>507</v>
       </c>
       <c r="C345" s="50" t="s">
         <v>4</v>
@@ -10697,10 +10700,10 @@
     </row>
     <row r="346" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="B346" s="50" t="s">
         <v>508</v>
-      </c>
-      <c r="B346" s="50" t="s">
-        <v>509</v>
       </c>
       <c r="C346" s="50" t="s">
         <v>4</v>
@@ -10819,7 +10822,7 @@
     </row>
     <row r="347" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B347" s="50" t="s">
         <v>164</v>
@@ -10828,15 +10831,15 @@
         <v>4</v>
       </c>
       <c r="D347" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="348" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B348" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C348" s="51" t="s">
         <v>4</v>
@@ -10844,10 +10847,10 @@
     </row>
     <row r="349" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B349" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C349" s="51" t="s">
         <v>4</v>
@@ -10855,7 +10858,7 @@
     </row>
     <row r="350" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="49" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B350" s="50" t="s">
         <v>161</v>
@@ -10866,7 +10869,7 @@
     </row>
     <row r="351" spans="1:40" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B351" s="50" t="s">
         <v>161</v>
@@ -10877,7 +10880,7 @@
     </row>
     <row r="352" spans="1:40" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A352" s="49" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B352" s="52" t="s">
         <v>147</v>
@@ -10888,7 +10891,7 @@
     </row>
     <row r="353" spans="1:3" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A353" s="49" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B353" s="52" t="s">
         <v>147</v>
@@ -10899,10 +10902,10 @@
     </row>
     <row r="354" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="B354" s="50" t="s">
         <v>517</v>
-      </c>
-      <c r="B354" s="50" t="s">
-        <v>518</v>
       </c>
       <c r="C354" s="50" t="s">
         <v>4</v>
@@ -10910,7 +10913,7 @@
     </row>
     <row r="355" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B355" s="53" t="s">
         <v>149</v>
@@ -10921,7 +10924,7 @@
     </row>
     <row r="356" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B356" s="53" t="s">
         <v>149</v>
@@ -10932,10 +10935,10 @@
     </row>
     <row r="357" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="B357" s="53" t="s">
         <v>521</v>
-      </c>
-      <c r="B357" s="53" t="s">
-        <v>522</v>
       </c>
       <c r="C357" s="50" t="s">
         <v>4</v>
@@ -10943,10 +10946,10 @@
     </row>
     <row r="358" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B358" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C358" s="50" t="s">
         <v>4</v>
@@ -10954,10 +10957,10 @@
     </row>
     <row r="359" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B359" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C359" s="50" t="s">
         <v>4</v>
@@ -10965,10 +10968,10 @@
     </row>
     <row r="360" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B360" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C360" s="50" t="s">
         <v>4</v>
@@ -10976,10 +10979,10 @@
     </row>
     <row r="361" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B361" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C361" s="50" t="s">
         <v>4</v>
@@ -10987,10 +10990,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B362" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C362" s="50" t="s">
         <v>4</v>
@@ -10998,10 +11001,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>4</v>
@@ -11009,10 +11012,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>4</v>
@@ -11020,10 +11023,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>4</v>
@@ -11031,10 +11034,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>4</v>
@@ -11042,10 +11045,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>4</v>
@@ -11053,10 +11056,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>4</v>
@@ -11064,10 +11067,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>4</v>
@@ -11075,10 +11078,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>4</v>
@@ -11086,10 +11089,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>4</v>
@@ -11097,10 +11100,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>4</v>
@@ -11108,10 +11111,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>4</v>
@@ -11119,10 +11122,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B374" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>4</v>
@@ -11130,10 +11133,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B375" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>4</v>
@@ -11141,10 +11144,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B376" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>4</v>
@@ -11152,10 +11155,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B377" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>4</v>
@@ -11163,10 +11166,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B378" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>4</v>
@@ -11174,10 +11177,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B379" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>4</v>
@@ -11185,10 +11188,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B380" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>4</v>
@@ -11196,10 +11199,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B381" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>4</v>
@@ -11207,10 +11210,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B382" s="48" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>4</v>
@@ -11218,10 +11221,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>4</v>
@@ -11229,10 +11232,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>4</v>
@@ -11240,10 +11243,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>4</v>
@@ -11251,10 +11254,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>4</v>
@@ -11262,10 +11265,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>4</v>
@@ -11273,10 +11276,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>4</v>
@@ -11284,10 +11287,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>4</v>
@@ -11295,10 +11298,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>4</v>
@@ -11306,7 +11309,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B391" s="42" t="s">
         <v>86</v>
@@ -11317,7 +11320,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>3</v>
@@ -11328,10 +11331,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>4</v>
@@ -11339,7 +11342,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>3</v>
@@ -11350,7 +11353,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>3</v>
@@ -11361,10 +11364,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B396" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>2</v>
@@ -11372,10 +11375,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>4</v>
@@ -11383,10 +11386,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>2</v>
@@ -11394,10 +11397,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>4</v>
@@ -11405,10 +11408,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>2</v>
@@ -11416,10 +11419,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B401" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="B401" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>2</v>
@@ -11427,10 +11430,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>2</v>
@@ -11438,10 +11441,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>4</v>
@@ -11449,10 +11452,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>2</v>
@@ -11460,10 +11463,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>4</v>
@@ -11471,10 +11474,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>2</v>
@@ -11482,7 +11485,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B407" s="42" t="s">
         <v>86</v>
@@ -11493,7 +11496,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B408" s="42" t="s">
         <v>86</v>
@@ -11504,10 +11507,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C409" s="7" t="s">
         <v>4</v>
@@ -11515,10 +11518,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>4</v>
@@ -11526,10 +11529,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>4</v>
@@ -11540,10 +11543,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>4</v>
@@ -11554,10 +11557,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>4</v>
@@ -11565,10 +11568,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>4</v>
@@ -11576,7 +11579,7 @@
     </row>
     <row r="415" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="45" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B415" s="7" t="s">
         <v>173</v>
@@ -11587,10 +11590,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>4</v>
@@ -11598,7 +11601,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>156</v>
@@ -11609,7 +11612,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B418" s="7" t="s">
         <v>156</v>
@@ -11620,7 +11623,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B419" s="7" t="s">
         <v>156</v>
@@ -11631,7 +11634,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B420" s="7" t="s">
         <v>156</v>
@@ -11642,7 +11645,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>156</v>
@@ -11653,7 +11656,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>177</v>
@@ -11664,7 +11667,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B423" s="7" t="s">
         <v>177</v>
@@ -11675,7 +11678,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B424" s="7" t="s">
         <v>177</v>
@@ -11686,7 +11689,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B425" s="7" t="s">
         <v>177</v>
@@ -11697,7 +11700,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B426" s="7" t="s">
         <v>177</v>
@@ -11708,7 +11711,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>177</v>
@@ -11719,7 +11722,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B428" s="7" t="s">
         <v>177</v>
@@ -11730,7 +11733,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>156</v>
@@ -11741,7 +11744,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>156</v>
@@ -11752,10 +11755,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B431" s="50" t="s">
         <v>601</v>
-      </c>
-      <c r="B431" s="50" t="s">
-        <v>602</v>
       </c>
       <c r="C431" s="50" t="s">
         <v>4</v>
@@ -11766,7 +11769,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B432" s="7" t="s">
         <v>88</v>
@@ -11777,7 +11780,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>3</v>
@@ -11788,7 +11791,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>107</v>
@@ -11799,7 +11802,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>3</v>
@@ -11810,10 +11813,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B436" s="50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C436" s="50" t="s">
         <v>4</v>
@@ -11824,7 +11827,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>177</v>
@@ -11835,7 +11838,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>177</v>
@@ -11846,7 +11849,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B439" s="7" t="s">
         <v>177</v>
@@ -11857,7 +11860,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>177</v>
@@ -11868,7 +11871,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B441" s="7" t="s">
         <v>177</v>
@@ -11879,7 +11882,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B442" s="7" t="s">
         <v>177</v>
@@ -11890,10 +11893,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B443" s="55" t="s">
         <v>614</v>
-      </c>
-      <c r="B443" s="55" t="s">
-        <v>615</v>
       </c>
       <c r="C443" s="56" t="s">
         <v>4</v>
@@ -11901,10 +11904,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B444" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C444" s="56" t="s">
         <v>4</v>
@@ -11912,10 +11915,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B445" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C445" s="56" t="s">
         <v>4</v>
@@ -11923,10 +11926,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B446" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C446" s="56" t="s">
         <v>4</v>
@@ -11934,10 +11937,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B447" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C447" s="56" t="s">
         <v>4</v>
@@ -11945,10 +11948,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B448" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C448" s="56" t="s">
         <v>4</v>
@@ -11956,10 +11959,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B449" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="B449" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="C449" t="s">
         <v>2</v>
@@ -11967,10 +11970,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C450" t="s">
         <v>2</v>
@@ -11978,10 +11981,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B451" s="57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C451" s="58" t="s">
         <v>2</v>
@@ -11989,10 +11992,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B452" s="57" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C452" s="58" t="s">
         <v>2</v>
@@ -12000,10 +12003,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C453" t="s">
         <v>2</v>
@@ -12011,10 +12014,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C454" t="s">
         <v>2</v>
@@ -12022,10 +12025,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B455" s="59" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C455" s="60" t="s">
         <v>2</v>
@@ -12033,10 +12036,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="59" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B456" s="59" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C456" s="60" t="s">
         <v>2</v>
@@ -12044,7 +12047,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="59" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B457" s="59" t="s">
         <v>88</v>
@@ -12055,7 +12058,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="60" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B458" s="60" t="s">
         <v>3</v>
@@ -12066,10 +12069,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B459" s="60" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C459" s="60" t="s">
         <v>2</v>
@@ -12077,10 +12080,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="B460" s="60" t="s">
         <v>633</v>
-      </c>
-      <c r="B460" s="60" t="s">
-        <v>634</v>
       </c>
       <c r="C460" s="60" t="s">
         <v>4</v>
@@ -12088,10 +12091,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="60" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B461" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C461" s="60" t="s">
         <v>4</v>
@@ -12099,10 +12102,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="60" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B462" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C462" s="60" t="s">
         <v>4</v>
@@ -12110,10 +12113,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="60" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B463" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C463" s="60" t="s">
         <v>4</v>
@@ -12121,10 +12124,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="B464" s="60" t="s">
         <v>638</v>
-      </c>
-      <c r="B464" s="60" t="s">
-        <v>639</v>
       </c>
       <c r="C464" s="60" t="s">
         <v>4</v>
@@ -12132,10 +12135,10 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="B465" s="60" t="s">
         <v>640</v>
-      </c>
-      <c r="B465" s="60" t="s">
-        <v>641</v>
       </c>
       <c r="C465" s="60" t="s">
         <v>4</v>
@@ -12143,10 +12146,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="60" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B466" s="60" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C466" s="60" t="s">
         <v>2</v>
@@ -12154,10 +12157,10 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="60" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B467" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C467" s="60" t="s">
         <v>4</v>
@@ -12165,10 +12168,10 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="60" t="s">
+        <v>643</v>
+      </c>
+      <c r="B468" s="60" t="s">
         <v>644</v>
-      </c>
-      <c r="B468" s="60" t="s">
-        <v>645</v>
       </c>
       <c r="C468" s="60" t="s">
         <v>2</v>
@@ -12176,10 +12179,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B469" s="60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C469" s="60" t="s">
         <v>2</v>
@@ -12187,10 +12190,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="60" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B470" s="60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C470" s="60" t="s">
         <v>2</v>
@@ -12198,7 +12201,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B471" s="7" t="s">
         <v>88</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>88</v>
@@ -12220,7 +12223,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B473" s="7" t="s">
         <v>88</v>
@@ -12231,10 +12234,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B474" s="50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C474" s="50" t="s">
         <v>4</v>
@@ -12245,7 +12248,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B475" s="42" t="s">
         <v>86</v>
@@ -12256,10 +12259,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C476" t="s">
         <v>2</v>
@@ -12267,7 +12270,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B477" s="59" t="s">
         <v>88</v>
@@ -12278,7 +12281,7 @@
     </row>
     <row r="478" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B478" s="45" t="s">
         <v>173</v>
@@ -12289,7 +12292,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B479" s="7" t="s">
         <v>107</v>
@@ -12300,7 +12303,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B480" s="7" t="s">
         <v>107</v>
@@ -12311,7 +12314,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B481" s="7" t="s">
         <v>107</v>
@@ -12322,7 +12325,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B482" s="7" t="s">
         <v>88</v>
@@ -12333,7 +12336,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B483" s="7" t="s">
         <v>88</v>
@@ -12344,7 +12347,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B484" s="7" t="s">
         <v>88</v>
@@ -12355,7 +12358,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B485" s="7" t="s">
         <v>88</v>
@@ -12366,7 +12369,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B486" s="7" t="s">
         <v>88</v>
@@ -12377,7 +12380,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B487" s="7" t="s">
         <v>88</v>
@@ -12388,7 +12391,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B488" s="7" t="s">
         <v>107</v>
@@ -12399,7 +12402,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B489" s="7" t="s">
         <v>107</v>
@@ -12410,7 +12413,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B490" s="7" t="s">
         <v>107</v>
@@ -12421,7 +12424,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B491" s="7" t="s">
         <v>107</v>
@@ -12432,7 +12435,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B492" s="7" t="s">
         <v>107</v>
@@ -12443,7 +12446,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B493" s="7" t="s">
         <v>107</v>
@@ -12454,7 +12457,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B494" s="7" t="s">
         <v>107</v>
@@ -12465,10 +12468,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>4</v>
@@ -12476,10 +12479,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>4</v>
@@ -12487,10 +12490,10 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>4</v>
@@ -12498,7 +12501,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B498" s="7" t="s">
         <v>88</v>
@@ -12509,7 +12512,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B499" s="7" t="s">
         <v>88</v>
@@ -12520,7 +12523,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B500" s="7" t="s">
         <v>3</v>
@@ -12531,7 +12534,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B501" s="7" t="s">
         <v>3</v>
@@ -12542,7 +12545,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B502" s="7" t="s">
         <v>3</v>
@@ -12553,10 +12556,10 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B503" s="50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C503" s="50" t="s">
         <v>4</v>
@@ -12567,7 +12570,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B504" s="7" t="s">
         <v>3</v>
@@ -12578,7 +12581,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B505" s="7" t="s">
         <v>107</v>
@@ -12589,7 +12592,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B506" s="41" t="s">
         <v>110</v>
@@ -12600,10 +12603,10 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>4</v>
@@ -12611,10 +12614,10 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C508" s="7" t="s">
         <v>4</v>
@@ -12622,10 +12625,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C509" s="7" t="s">
         <v>4</v>
@@ -12633,7 +12636,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B510" s="7" t="s">
         <v>88</v>
@@ -12644,7 +12647,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B511" s="7" t="s">
         <v>88</v>
@@ -12655,7 +12658,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B512" s="7" t="s">
         <v>88</v>
@@ -12666,7 +12669,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B513" s="7" t="s">
         <v>88</v>
@@ -12677,7 +12680,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B514" s="7" t="s">
         <v>107</v>
@@ -12688,7 +12691,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B515" s="7" t="s">
         <v>107</v>
@@ -12699,7 +12702,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="50" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B516" s="7" t="s">
         <v>107</v>
@@ -12710,7 +12713,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B517" s="7" t="s">
         <v>107</v>
@@ -12721,7 +12724,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B518" s="7" t="s">
         <v>107</v>
@@ -12732,7 +12735,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="50" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B519" s="7" t="s">
         <v>107</v>
@@ -12787,7 +12790,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12795,7 +12798,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -12803,7 +12806,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12811,11 +12814,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -12833,7 +12836,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -12841,7 +12844,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12849,7 +12852,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="706">
   <si>
     <t>Username</t>
   </si>
@@ -2123,6 +2123,24 @@
   </si>
   <si>
     <t>fy14tcdPYPDF_01</t>
+  </si>
+  <si>
+    <t>Tc_1008304_ValidateBannerTaxOrgForNewUser</t>
+  </si>
+  <si>
+    <t>Tc_1009080_ValidateBannerTaxOrgForRetailUser</t>
+  </si>
+  <si>
+    <t>Tc_1009081_ValidateBannerTaxOrgForDigitalUser</t>
+  </si>
+  <si>
+    <t>Tc_1009082_ValidateBannerTaxOrgForSwUser</t>
+  </si>
+  <si>
+    <t>Tc_1009083_ValidateBannerTaxOrgForAOLUser</t>
+  </si>
+  <si>
+    <t>Tc_1008305_ValidateAlignmentOfBannerTaxOrg</t>
   </si>
 </sst>
 </file>
@@ -2641,6 +2659,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="17" fillId="6" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2658,9 +2679,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3410,13 +3428,13 @@
       <c r="C10" s="35"/>
       <c r="D10" s="33"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="27"/>
@@ -3468,10 +3486,10 @@
       <c r="C14" s="35"/>
       <c r="D14" s="33"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="19" t="s">
         <v>329</v>
       </c>
@@ -3500,10 +3518,10 @@
       <c r="C16" s="35"/>
       <c r="D16" s="33"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="64"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="54" t="s">
         <v>362</v>
       </c>
@@ -3664,11 +3682,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE519"/>
+  <dimension ref="A1:BE525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <pane ySplit="2" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B525" sqref="B525:C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,10 +3700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -7526,7 +7544,7 @@
       <c r="A144" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B144" s="67" t="s">
+      <c r="B144" s="61" t="s">
         <v>699</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -12667,7 +12685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>692</v>
       </c>
@@ -12678,7 +12696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>693</v>
       </c>
@@ -12689,7 +12707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>694</v>
       </c>
@@ -12700,7 +12718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="50" t="s">
         <v>695</v>
       </c>
@@ -12711,7 +12729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
         <v>696</v>
       </c>
@@ -12722,7 +12740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>697</v>
       </c>
@@ -12733,7 +12751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="50" t="s">
         <v>698</v>
       </c>
@@ -12741,6 +12759,75 @@
         <v>107</v>
       </c>
       <c r="C519" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B520" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C520" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D520" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B522" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B524" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C525" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="706">
   <si>
     <t>Username</t>
   </si>
@@ -3315,7 +3315,7 @@
   <dimension ref="A3:N24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,8 +3685,8 @@
   <dimension ref="A1:BE525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B525" sqref="B525:C525"/>
+      <pane ySplit="2" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D513" sqref="D513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12590,33 +12590,42 @@
       <c r="A504" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B504" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C504" s="7" t="s">
-        <v>2</v>
+      <c r="B504" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C504" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D504" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="B505" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C505" s="7" t="s">
-        <v>4</v>
+      <c r="B505" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C505" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D505" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="B506" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C506" s="7" t="s">
-        <v>4</v>
+      <c r="B506" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C506" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D506" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="710">
   <si>
     <t>Username</t>
   </si>
@@ -2141,6 +2141,18 @@
   </si>
   <si>
     <t>Tc_1008305_ValidateAlignmentOfBannerTaxOrg</t>
+  </si>
+  <si>
+    <t>TC_999302_ValidateStatusBarforDigitalNewUser</t>
+  </si>
+  <si>
+    <t>TC_993546_ValidateAlignmentofStatusBar</t>
+  </si>
+  <si>
+    <t>TC_993541_ValidateViewHistoryButtonforDigitalUserWith2016and2015Return</t>
+  </si>
+  <si>
+    <t>TC_993540_ValidateViewHistoryButtonforUserWith2016and2015Return</t>
   </si>
 </sst>
 </file>
@@ -3682,11 +3694,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE525"/>
+  <dimension ref="A1:BE529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D513" sqref="D513"/>
+      <pane ySplit="2" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B529" sqref="B529:C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12837,6 +12849,50 @@
         <v>88</v>
       </c>
       <c r="C525" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B528" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B529" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -3698,7 +3698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B529" sqref="B529:C529"/>
+      <selection pane="bottomLeft" activeCell="B534" sqref="B534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Testdata!$A$2:$BE$497</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3697,8 +3698,8 @@
   <dimension ref="A1:BE529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B534" sqref="B534"/>
+      <pane ySplit="2" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Testdata!$A$2:$BE$497</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="711">
   <si>
     <t>Username</t>
   </si>
@@ -2154,6 +2153,9 @@
   </si>
   <si>
     <t>TC_993540_ValidateViewHistoryButtonforUserWith2016and2015Return</t>
+  </si>
+  <si>
+    <t>tkqa3152018_12536</t>
   </si>
 </sst>
 </file>
@@ -3698,8 +3700,8 @@
   <dimension ref="A1:BE529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D471" sqref="D471"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,11 +3902,11 @@
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
+      <c r="B3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
@@ -12180,10 +12182,10 @@
         <v>641</v>
       </c>
       <c r="B466" s="60" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="C466" s="60" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -12310,12 +12312,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="B478" s="45" t="s">
-        <v>173</v>
+      <c r="B478" s="60" t="s">
+        <v>3</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>2</v>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="712">
   <si>
     <t>Username</t>
   </si>
@@ -2059,9 +2059,6 @@
     <t>Tc_940183_UpldMltplDocAbove10MB</t>
   </si>
   <si>
-    <t>Tc_940196_UpldDoc10MBValidateForNewUser</t>
-  </si>
-  <si>
     <t>TC_940235_MoveDocmntFrmTY2016ToTY2015</t>
   </si>
   <si>
@@ -2156,6 +2153,12 @@
   </si>
   <si>
     <t>tkqa3152018_12536</t>
+  </si>
+  <si>
+    <t>Tc_940197_UpldDoc10MBValidateForNewUser</t>
+  </si>
+  <si>
+    <t>Tc_940196_UpldDoc10MBValidateForIDPuser</t>
   </si>
 </sst>
 </file>
@@ -3329,8 +3332,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -3697,11 +3700,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:BE529"/>
+  <dimension ref="A1:BE530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B530" sqref="B530:C530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7560,7 +7563,7 @@
         <v>277</v>
       </c>
       <c r="B144" s="61" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -12182,7 +12185,7 @@
         <v>641</v>
       </c>
       <c r="B466" s="60" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C466" s="60" t="s">
         <v>4</v>
@@ -12545,7 +12548,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="B499" s="7" t="s">
         <v>88</v>
@@ -12553,10 +12556,13 @@
       <c r="C499" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="D499" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B500" s="7" t="s">
         <v>3</v>
@@ -12567,7 +12573,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B501" s="7" t="s">
         <v>3</v>
@@ -12578,7 +12584,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B502" s="7" t="s">
         <v>3</v>
@@ -12589,7 +12595,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B503" s="50" t="s">
         <v>601</v>
@@ -12603,7 +12609,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B504" s="50" t="s">
         <v>601</v>
@@ -12617,7 +12623,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B505" s="50" t="s">
         <v>601</v>
@@ -12631,7 +12637,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B506" s="50" t="s">
         <v>601</v>
@@ -12645,7 +12651,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B507" s="7" t="s">
         <v>241</v>
@@ -12656,7 +12662,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B508" s="7" t="s">
         <v>241</v>
@@ -12667,7 +12673,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B509" s="7" t="s">
         <v>241</v>
@@ -12678,7 +12684,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B510" s="7" t="s">
         <v>88</v>
@@ -12689,7 +12695,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B511" s="7" t="s">
         <v>88</v>
@@ -12700,7 +12706,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B512" s="7" t="s">
         <v>88</v>
@@ -12711,7 +12717,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B513" s="7" t="s">
         <v>88</v>
@@ -12722,7 +12728,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B514" s="7" t="s">
         <v>107</v>
@@ -12733,7 +12739,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B515" s="7" t="s">
         <v>107</v>
@@ -12744,7 +12750,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="50" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B516" s="7" t="s">
         <v>107</v>
@@ -12755,7 +12761,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B517" s="7" t="s">
         <v>107</v>
@@ -12766,7 +12772,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B518" s="7" t="s">
         <v>107</v>
@@ -12777,7 +12783,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="50" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B519" s="7" t="s">
         <v>107</v>
@@ -12788,7 +12794,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B520" s="50" t="s">
         <v>601</v>
@@ -12802,7 +12808,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B521" s="7" t="s">
         <v>88</v>
@@ -12813,7 +12819,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B522" s="7" t="s">
         <v>3</v>
@@ -12824,7 +12830,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B523" s="7" t="s">
         <v>107</v>
@@ -12835,7 +12841,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B524" s="41" t="s">
         <v>110</v>
@@ -12846,7 +12852,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B525" s="7" t="s">
         <v>88</v>
@@ -12857,7 +12863,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B526" s="7" t="s">
         <v>88</v>
@@ -12868,7 +12874,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B527" s="7" t="s">
         <v>88</v>
@@ -12879,7 +12885,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B528" s="7" t="s">
         <v>88</v>
@@ -12890,12 +12896,23 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B529" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C529" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B530" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C530" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -3509,7 +3509,7 @@
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -3333,7 +3333,7 @@
   <dimension ref="A3:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -3333,7 +3333,7 @@
   <dimension ref="A3:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="G14" s="65"/>
       <c r="H14" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -3332,8 +3332,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,9 +3702,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:BE530"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B530" sqref="B530:C530"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyBlock/resources/TestData.xlsx
+++ b/MyBlock/resources/TestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="715">
   <si>
     <t>Username</t>
   </si>
@@ -2159,6 +2159,15 @@
   </si>
   <si>
     <t>Tc_940196_UpldDoc10MBValidateForIDPuser</t>
+  </si>
+  <si>
+    <t>qaus422018_192445</t>
+  </si>
+  <si>
+    <t>qaus422018_192219</t>
+  </si>
+  <si>
+    <t>tkqa04022018</t>
   </si>
 </sst>
 </file>
@@ -3703,8 +3712,8 @@
   <dimension ref="A1:BE530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <pane ySplit="2" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7930,7 +7939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>316</v>
       </c>
@@ -7941,7 +7950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>317</v>
       </c>
@@ -7952,7 +7961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>318</v>
       </c>
@@ -7963,7 +7972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>319</v>
       </c>
@@ -7974,7 +7983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>320</v>
       </c>
@@ -7985,7 +7994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>321</v>
       </c>
@@ -7996,7 +8005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>322</v>
       </c>
@@ -8007,7 +8016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>323</v>
       </c>
@@ -8018,7 +8027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>324</v>
       </c>
@@ -8029,7 +8038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>325</v>
       </c>
@@ -8040,271 +8049,343 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>335</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>336</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>337</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>339</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>340</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>346</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>241</v>
+        <v>714</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>347</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>348</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>351</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>353</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>354</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>355</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>356</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>358</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>359</v>
       </c>
@@ -8315,7 +8396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>367</v>
       </c>
@@ -8326,7 +8407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>369</v>
       </c>
@@ -8337,7 +8418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>370</v>
       </c>
@@ -8348,7 +8429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>371</v>
       </c>
@@ -8359,7 +8440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>372</v>
       </c>
@@ -8370,7 +8451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>373</v>
       </c>
@@ -8381,7 +8462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>374</v>
       </c>
@@ -8392,7 +8473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>375</v>
       </c>
@@ -8403,7 +8484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>376</v>
       </c>
@@ -8414,7 +8495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>377</v>
       </c>
@@ -8425,7 +8506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>378</v>
       </c>
@@ -8436,7 +8517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>379</v>
       </c>
@@ -8447,7 +8528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>380</v>
       </c>
@@ -8458,7 +8539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>381</v>
       </c>
@@ -8469,7 +8550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>382</v>
       </c>
@@ -8480,7 +8561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>383</v>
       </c>
@@ -8491,7 +8572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>384</v>
       </c>
@@ -8502,7 +8583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>385</v>
       </c>
@@ -8513,7 +8594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>386</v>
       </c>
@@ -8523,8 +8604,11 @@
       <c r="C230" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>392</v>
       </c>
@@ -8534,8 +8618,11 @@
       <c r="C231" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>387</v>
       </c>
@@ -8545,8 +8632,11 @@
       <c r="C232" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>388</v>
       </c>
@@ -8556,8 +8646,11 @@
       <c r="C233" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>389</v>
       </c>
@@ -8567,8 +8660,11 @@
       <c r="C234" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>390</v>
       </c>
@@ -8578,8 +8674,11 @@
       <c r="C235" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>391</v>
       </c>
@@ -8589,8 +8688,11 @@
       <c r="C236" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>393</v>
       </c>
@@ -8600,8 +8702,11 @@
       <c r="C237" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>394</v>
       </c>
@@ -8611,8 +8716,11 @@
       <c r="C238" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>395</v>
       </c>
@@ -8622,8 +8730,11 @@
       <c r="C239" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>396</v>
       </c>
@@ -8633,8 +8744,11 @@
       <c r="C240" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>397</v>
       </c>
@@ -8644,8 +8758,11 @@
       <c r="C241" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>398</v>
       </c>
@@ -8655,8 +8772,11 @@
       <c r="C242" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>399</v>
       </c>
@@ -8666,8 +8786,11 @@
       <c r="C243" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>400</v>
       </c>
@@ -8678,7 +8801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>401</v>
       </c>
@@ -8689,7 +8812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>402</v>
       </c>
@@ -8700,7 +8823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>403</v>
       </c>
@@ -8711,7 +8834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>409</v>
       </c>
@@ -8722,7 +8845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>404</v>
       </c>
@@ -8733,7 +8856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>405</v>
       </c>
@@ -8744,7 +8867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>406</v>
       </c>
@@ -8755,7 +8878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>407</v>
       </c>
@@ -8766,7 +8889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>408</v>
       </c>
@@ -8777,7 +8900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>411</v>
       </c>
@@ -8788,7 +8911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>412</v>
       </c>
@@ -8799,7 +8922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>413</v>
       </c>
@@ -9313,6 +9436,9 @@
       <c r="C301" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="D301" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
@@ -9324,6 +9450,9 @@
       <c r="C302" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="D302" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
@@ -9335,6 +9464,9 @@
       <c r="C303" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="D303" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
@@ -9346,8 +9478,11 @@
       <c r="C304" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>463</v>
       </c>
@@ -9357,8 +9492,11 @@
       <c r="C305" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>464</v>
       </c>
@@ -9368,8 +9506,11 @@
       <c r="C306" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>465</v>
       </c>
@@ -9379,8 +9520,11 @@
       <c r="C307" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>467</v>
       </c>
@@ -9391,7 +9535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>468</v>
       </c>
@@ -9402,7 +9546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>469</v>
       </c>
@@ -9413,7 +9557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>470</v>
       </c>
@@ -9424,7 +9568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>471</v>
       </c>
@@ -9435,7 +9579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>472</v>
       </c>
@@ -9446,7 +9590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>473</v>
       </c>
@@ -9457,7 +9601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>474</v>
       </c>
@@ -9468,7 +9612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>475</v>
       </c>
@@ -9479,7 +9623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>476</v>
       </c>
@@ -9490,7 +9634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>477</v>
       </c>
@@ -9501,7 +9645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>478</v>
       </c>
@@ -9512,7 +9656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>479</v>
       </c>
@@ -9520,7 +9664,10 @@
         <v>3</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:57" x14ac:dyDescent="0.25">
@@ -9531,7 +9678,10 @@
         <v>3</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="322" spans="1:57" x14ac:dyDescent="0.25">
@@ -9542,7 +9692,10 @@
         <v>3</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D322" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:57" x14ac:dyDescent="0.25">
@@ -9553,7 +9706,10 @@
         <v>3</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:57" x14ac:dyDescent="0.25">
@@ -9564,7 +9720,10 @@
         <v>3</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:57" x14ac:dyDescent="0.25">
@@ -9575,7 +9734,10 @@
         <v>3</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D325" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:57" x14ac:dyDescent="0.25">
@@ -9586,7 +9748,10 @@
         <v>3</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="1:57" x14ac:dyDescent="0.25">
@@ -11040,7 +11205,7 @@
         <v>527</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>4</v>
@@ -11051,7 +11216,7 @@
         <v>528</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>4</v>
@@ -11062,7 +11227,7 @@
         <v>529</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>4</v>
@@ -11073,7 +11238,7 @@
         <v>530</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>4</v>
@@ -11084,7 +11249,7 @@
         <v>531</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>4</v>
@@ -11193,8 +11358,8 @@
       <c r="A377" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B377" s="48" t="s">
-        <v>674</v>
+      <c r="B377" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>4</v>
@@ -11204,8 +11369,8 @@
       <c r="A378" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B378" s="48" t="s">
-        <v>674</v>
+      <c r="B378" s="7" t="s">
+        <v>713</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>4</v>
@@ -11260,7 +11425,7 @@
         <v>547</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>4</v>
@@ -11271,7 +11436,7 @@
         <v>548</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>4</v>
@@ -11282,7 +11447,7 @@
         <v>549</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>4</v>
@@ -11293,7 +11458,7 @@
         <v>551</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>4</v>
@@ -11304,7 +11469,7 @@
         <v>554</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>4</v>
@@ -11315,7 +11480,7 @@
         <v>550</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>4</v>
@@ -11326,7 +11491,7 @@
         <v>552</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>4</v>
@@ -11337,7 +11502,7 @@
         <v>553</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>4</v>
@@ -12691,6 +12856,9 @@
       </c>
       <c r="C510" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="D510" s="50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
